--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283F3F13-746E-534C-9403-64C0DA967650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F7DEBF-F7D1-F448-A4AC-BBCB40A7CAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="1780" windowWidth="27640" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
   <si>
     <t>application</t>
   </si>
@@ -953,9 +953,6 @@
     <t>return isGlob(pattern, { strict: false }) || pattern.indexOf(ESCAPE_SYMBOL) !== -1;</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>"Note: need to disable lint, add type annotation on line 89 in smoke.ts: -       const assertAction = (test.broken || test.correct) ? assert.notDeepStrictEqual : assert.deepStrictEqual;
 +       const assertAction: any = (test.broken || test.correct) ? assert.notDeepStrictEqual : assert.deepStrictEqual;"
 Also, comment the following lines in tsconfig.json to prevent linter warning in mutants // "noUnusedLocals": true,
@@ -966,6 +963,117 @@
   </si>
   <si>
     <t>17 mutants, 2 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>node-fs-extra</t>
+  </si>
+  <si>
+    <t>https://github.com/jprichardson/node-fs-extra</t>
+  </si>
+  <si>
+    <t>e05c685</t>
+  </si>
+  <si>
+    <t>lib/copy-sync/copy-file-sync.js</t>
+  </si>
+  <si>
+    <t>10,11</t>
+  </si>
+  <si>
+    <t>if (fs.existsSync(destFile) &amp;&amp; !clobber) {
+    throw Error('EEXIST')
+  }</t>
+  </si>
+  <si>
+    <t>if (fs.existsSync(destFile)) {
+    if (clobber) {
+      fs.unlinkSync(destFile)
+    } else {
+      throw Error('EEXIST')
+    }
+  }</t>
+  </si>
+  <si>
+    <t>1 failing
+  1) + copySync() &gt; when the source is a file &gt; when clobber option is passed when destination file does exist &gt; when clobber is true and dest is readonly should copy the file and not throw an error:
+     Error: EACCES: permission denied, open '/var/folders/j4/2x58q84s1956w2z0t9l3sq6r0000gn/T/fs-extra/copy-sync/des-file'
+      at Object.openSync (node:fs:574:18)
+      at copyFileSync (lib/copy-sync/copy-file-sync.js:23:16)
+      at Object.copySync (lib/copy-sync/copy-sync.js:31:7)
+      at Context.&lt;anonymous&gt; (lib/copy-sync/__tests__/copy-sync-file.test.js:191:18)</t>
+  </si>
+  <si>
+    <t>8  mutants, 2 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>10  mutants, 4 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>8  mutants, 4 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>8  mutants, 3 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>7c251d6</t>
+  </si>
+  <si>
+    <t>lib/util/stat.js</t>
+  </si>
+  <si>
+    <t>const srcParent = path.resolve(path.dirname(src))
+  const destParent = path.resolve(path.dirname(dest))
+  if (destParent === srcParent || destParent === path.parse(destParent).root) return cb()</t>
+  </si>
+  <si>
+    <t>const srcParent = path.resolve(path.dirname(src))
+  const destParent = path.resolve(path.dirname(dest))
+  if (destParent === srcParent || destParent === path.parse(destParent).root) return</t>
+  </si>
+  <si>
+    <t>const destParent = path.dirname(dest)
+if (destParent &amp;&amp;    (destParent === path.dirname(src) ||
+    destParent === path.parse(destParent).root)
+  ) return cb()</t>
+  </si>
+  <si>
+    <t>const destParent = path.dirname(dest)
+ if (destParent &amp;&amp; (destParent === path.dirname(src) || destParent === path.parse(destParent).root)) return</t>
+  </si>
+  <si>
+    <t>no failure</t>
+  </si>
+  <si>
+    <t>1 failing
+  1) util/stat
+       should stop at src or root path and not throw max call stack size error
+         stat.checkParentPathsSync():
+     RangeError: Maximum call stack size exceeded
+      at getStatsFromBinding (node:internal/fs/utils:515:29)
+      at Object.statSync (node:fs:1676:10)
+      at checkParentPathsSync (lib/util/stat.js:144:21)
+      at checkParentPathsSync (lib/util/stat.js:155:10)
+      at checkParentPathsSync (lib/util/stat.js:155:10)
+      at checkParentPathsSync (lib/util/stat.js:155:10)
+      at checkParentPathsSync (lib/util/stat.js:155:10)
+      at checkParentPathsSync (lib/util/stat.js:155:10)
+      at checkParentPathsSync (lib/util/stat.js:155:10)
+      at checkParentPathsSync (lib/util/stat.js:155:10)</t>
+  </si>
+  <si>
+    <t>12  mutants, of which 3 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>13  mutants, of which 2 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>9 mutants, of which 0 produce the same test failures as the original bug</t>
+  </si>
+  <si>
+    <t>13  mutants, of which 1 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>13  mutants, of which 3 produce the same failure as the original bug</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1143,6 +1251,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1481,9 +1601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51ED0F3-1512-9640-9294-FF91039F967C}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1491,7 +1611,7 @@
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="25.1640625" customWidth="1"/>
     <col min="8" max="8" width="34.33203125" customWidth="1"/>
     <col min="9" max="9" width="38.6640625" customWidth="1"/>
@@ -2041,35 +2161,135 @@
         <v>97</v>
       </c>
       <c r="J13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M13" s="9" t="s">
+      <c r="N13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="289" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D14" s="4"/>
+      <c r="B14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="23">
+        <v>190</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="F14" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D16" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="28">
+        <v>679</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="27">
+        <v>107</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5">
+        <v>136</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="4"/>
@@ -2120,8 +2340,18 @@
       <c r="D32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="24">
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -2146,6 +2376,8 @@
     <hyperlink ref="B10" r:id="rId7" xr:uid="{AC7A5222-A141-C547-B4BA-A7E369D48987}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{41F9A05E-9545-404F-A59A-61F1736A4433}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{CA013061-61BF-484C-92F0-C139B056E531}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{85212475-E9DF-9346-B54D-00A6479F5031}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{7B51BD02-178C-1243-84F3-869E36370B44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F7DEBF-F7D1-F448-A4AC-BBCB40A7CAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34136606-610D-6140-8C65-F8189B7E81E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="1780" windowWidth="27640" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="137">
   <si>
     <t>application</t>
   </si>
@@ -1074,6 +1074,44 @@
   </si>
   <si>
     <t>13  mutants, of which 3 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>2e7f755</t>
+  </si>
+  <si>
+    <t>lib/copy/ncp.js</t>
+  </si>
+  <si>
+    <t>var target = file.name.replace(currentPath, targetPath)</t>
+  </si>
+  <si>
+    <t>ar target = file.name.replace(currentPath, targetPath.replace('$', '$$$$')) // escapes '$' with '$$'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 failing
+  1) fs-extra + copy() &gt; when the source is a file should copy to a destination file with two '$' characters in name (eg: TEST_fs-extra_$$_copy):
+     Uncaught Error: ENOENT: no such file or directory, stat '/var/folders/j4/2x58q84s1956w2z0t9l3sq6r0000gn/T/fs-extra/copy/TEST_fs-extra_$$_copy'
+      at Object.statSync (node:fs:1667:25)
+      at lib/copy/__tests__/copy.test.js:99:14
+      at doneOne (lib/copy/ncp.js:237:40)
+      at lib/copy/ncp.js:122:11
+      at node_modules/graceful-fs/polyfills.js:254:20
+      at FSReqCallback.oncomplete (node:fs:188:23)</t>
+  </si>
+  <si>
+    <t>13  mutants, of which 5 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>15  mutants, of which 6 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>14  mutants, of which 5 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>13  mutants, of which 6 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>14  mutants, of which 8 produce the same failure as the original bug</t>
   </si>
 </sst>
 </file>
@@ -1601,9 +1639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51ED0F3-1512-9640-9294-FF91039F967C}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2291,57 +2329,118 @@
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="323" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="23">
+        <v>291</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="5">
+        <v>82</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="31">
     <mergeCell ref="N15:N16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K15:K16"/>
@@ -2378,6 +2477,7 @@
     <hyperlink ref="B13" r:id="rId9" xr:uid="{CA013061-61BF-484C-92F0-C139B056E531}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{85212475-E9DF-9346-B54D-00A6479F5031}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{7B51BD02-178C-1243-84F3-869E36370B44}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{D7C44975-8CD0-F54B-A507-870B5816BA89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34136606-610D-6140-8C65-F8189B7E81E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F20883D-DA20-BB40-8E67-26AC2E9E0C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="1780" windowWidth="27640" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
+    <workbookView xWindow="5360" yWindow="1780" windowWidth="33760" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="154">
   <si>
     <t>application</t>
   </si>
@@ -1113,12 +1113,96 @@
   <si>
     <t>14  mutants, of which 8 produce the same failure as the original bug</t>
   </si>
+  <si>
+    <t>normalize-url</t>
+  </si>
+  <si>
+    <t>https://github.com/sindresorhus/normalize-url</t>
+  </si>
+  <si>
+    <t>191ad4b</t>
+  </si>
+  <si>
+    <t>if (options.removeTrailingSlash || urlObj.pathname === '/') {</t>
+  </si>
+  <si>
+    <t>if ((options.removeTrailingSlash || urlObj.pathname === '/') &amp;&amp; urlObj.hash === '') {</t>
+  </si>
+  <si>
+    <t>2 failed
+  removeTrailingSlash option
+  /Users/franktip/git/mutation-testing-data/casestudy/normalize-url-82/normalize-url/test.js:118
+   117:   t.is(normalizeUrl('http://sindresorhus.com/redirect/', options), 'http://sindresorhus.co…
+   118:   t.is(normalizeUrl('http://sindresorhus.com/#/', options), 'http://sindresorhus.com/#/'); 
+   119: });                                                                                        
+  Difference:
+  - 'http://sindresorhus.com/#'
+  + 'http://sindresorhus.com/#/'
+  Test.fn (test.js:118:4)
+  processEmit [as emit] (node_modules/nyc/node_modules/signal-exit/index.js:155:32)
+  processEmit [as emit] (node_modules/nyc/node_modules/signal-exit/index.js:155:32)
+  removeTrailingSlash and removeDirectoryIndex options)
+  /Users/franktip/git/mutation-testing-data/casestudy/normalize-url-82/normalize-url/test.js:155
+   154:   t.is(normalizeUrl('http://sindresorhus.com/path/index.html', options1), 'http://sindreso…
+   155:   t.is(normalizeUrl('http://sindresorhus.com/#/path/', options1), 'http://sindresorhus.com…
+   156:   t.is(normalizeUrl('http://sindresorhus.com/foo/#/bar/', options1), 'http://sindresorhus.…
+  Difference:
+  - 'http://sindresorhus.com/#/path'
+  + 'http://sindresorhus.com/#/path/'
+  Test.fn (test.js:155:4)
+  processEmit [as emit] (node_modules/nyc/node_modules/signal-exit/index.js:155:32)
+  processEmit [as emit] (node_modules/nyc/node_modules/signal-exit/index.js:155:32)</t>
+  </si>
+  <si>
+    <t>3  mutants, of which 1  produces the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>3  mutants, of which 1  produces the same failures as the original bug</t>
+  </si>
+  <si>
+    <t>NOTE: disable "xo" in "npm run test" script; disable failing tests for invalid URLs</t>
+  </si>
+  <si>
+    <t>6078d91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 failed
+  main
+  /Users/franktip/git/mutation-testing-data/casestudy/normalize-url-82/normalize-url/test.js:16
+   15:   t.is(m('http://www.sindresorhus.com'), 'http://sindresorhus.com');            
+   16:   t.is(m('www.com'), 'http://www.com');                                         
+   17:   t.is(m('http://www.www.sindresorhus.com'), 'http://www.www.sindresorhus.com');
+  Difference:
+  - 'http://com'
+  + 'http://www.com'
+  Test.fn (test.js:16:4)
+  processEmit [as emit] (node_modules/nyc/node_modules/signal-exit/index.js:155:32)
+  processEmit [as emit] (node_modules/nyc/node_modules/signal-exit/index.js:155:32)</t>
+  </si>
+  <si>
+    <t>if (opts.stripWWW) {</t>
+  </si>
+  <si>
+    <t>if (opts.stripWWW &amp;&amp; /^www\.([a-z\-\d]{2,63})\.([a-z\.]{2,5})$/.test(urlObj.hostname)) {</t>
+  </si>
+  <si>
+    <t>7  mutants, of which 1  produces the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>7  mutants, of which 0  produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>6  mutants, of which 2 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>8  mutants, of which 2 produce the same failure as the original bug</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1191,6 +1275,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1213,7 +1302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1248,56 +1337,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1640,11 +1726,11 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
@@ -1661,7 +1747,7 @@
     <col min="15" max="15" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1797,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="221" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="221">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1755,20 +1841,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:18" ht="77" customHeight="1">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="27">
         <v>24</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="5">
@@ -1783,28 +1869,28 @@
       <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+    <row r="4" spans="1:18" ht="88" customHeight="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="5">
         <v>46</v>
       </c>
@@ -1817,13 +1903,13 @@
       <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:18" ht="62" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
@@ -1867,7 +1953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="89" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
@@ -1886,10 +1972,10 @@
       <c r="F6" s="5">
         <v>2069</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="14" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1911,7 +1997,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="161" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="161" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>42</v>
       </c>
@@ -1930,10 +2016,10 @@
       <c r="F7" s="5">
         <v>1884</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="15" t="s">
         <v>46</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1955,14 +2041,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="143" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="143" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>853</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1971,13 +2057,13 @@
       <c r="E8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <v>1008</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1999,7 +2085,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="134" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>42</v>
       </c>
@@ -2009,7 +2095,7 @@
       <c r="C9" s="5">
         <v>59</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -2018,10 +2104,10 @@
       <c r="F9" s="5">
         <v>847</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="15" t="s">
         <v>65</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -2036,24 +2122,24 @@
       <c r="L9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="17" t="s">
         <v>69</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:18" ht="63" customHeight="1">
+      <c r="A10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="27">
         <v>633</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="24" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -2065,7 +2151,7 @@
       <c r="G10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="18" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -2087,11 +2173,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="12"/>
+    <row r="11" spans="1:18" ht="47" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="5" t="s">
         <v>74</v>
       </c>
@@ -2101,7 +2187,7 @@
       <c r="G11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="19" t="s">
         <v>78</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -2123,17 +2209,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="144" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="5">
         <v>334</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>81</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -2166,21 +2252,21 @@
       <c r="N12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="83" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="5">
         <v>223</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="13" t="s">
         <v>94</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -2217,17 +2303,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="289" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="289">
       <c r="A14" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="5">
         <v>190</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="13" t="s">
         <v>104</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -2236,10 +2322,10 @@
       <c r="F14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="21" t="s">
         <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -2261,23 +2347,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="136" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:18" ht="136">
+      <c r="A15" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="24">
         <v>679</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="22">
         <v>107</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -2289,28 +2375,28 @@
       <c r="I15" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="N15" s="29" t="s">
+      <c r="N15" s="28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+    <row r="16" spans="1:18" ht="108" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="5">
         <v>136</v>
       </c>
@@ -2323,23 +2409,23 @@
       <c r="I16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-    </row>
-    <row r="17" spans="1:14" ht="323" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" ht="323">
+      <c r="A17" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="5">
         <v>291</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13" t="s">
         <v>127</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2357,78 +2443,166 @@
       <c r="I17" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
+    <row r="18" spans="1:15">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" ht="409.6">
+      <c r="A19" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="5">
+        <v>82</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="11">
+        <v>140</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="149" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="5">
+        <v>38</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="5">
+        <v>103</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="D32" s="4"/>
     </row>
   </sheetData>
@@ -2478,6 +2652,8 @@
     <hyperlink ref="B14" r:id="rId10" xr:uid="{85212475-E9DF-9346-B54D-00A6479F5031}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{7B51BD02-178C-1243-84F3-869E36370B44}"/>
     <hyperlink ref="B17" r:id="rId12" xr:uid="{D7C44975-8CD0-F54B-A507-870B5816BA89}"/>
+    <hyperlink ref="B19" r:id="rId13" xr:uid="{7D380E9C-453B-A64F-A27A-1EF0A86A1B49}"/>
+    <hyperlink ref="B20" r:id="rId14" xr:uid="{6685889E-162C-1147-8EC1-EA437BD2A95E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F20883D-DA20-BB40-8E67-26AC2E9E0C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA32677F-BA31-0346-9BEB-F59371716065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="1780" windowWidth="33760" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
+    <workbookView xWindow="2220" yWindow="1420" windowWidth="33760" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="160">
   <si>
     <t>application</t>
   </si>
@@ -1196,6 +1196,39 @@
   </si>
   <si>
     <t>8  mutants, of which 2 produce the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>eb55d1d</t>
+  </si>
+  <si>
+    <t>src/providers/filters/entry.ts</t>
+  </si>
+  <si>
+    <t>const negativeRe = utils.pattern.convertPatternsToRe(negative, this._micromatchOptions);</t>
+  </si>
+  <si>
+    <t>const negativeRe = utils.pattern.convertPatternsToRe(negative, {
+			...this._micromatchOptions,
+			dot: true
+		});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 failing
+  1) Providers → Filters → Entry
+       .getFilter
+         Pattern
+           should reject a hidden entry by negative pattern even when the dot options is disabled:
+      AssertionError [ERR_ASSERTION]: Expected values to be strictly equal:
+true !== false
+      + expected - actual
+      -true
+      +false
+      at reject (out/providers/filters/entry.spec.js:29:12)
+      at Context.&lt;anonymous&gt; (out/providers/filters/entry.spec.js:192:17)
+      at process.processImmediate (node:internal/timers:483:21)</t>
+  </si>
+  <si>
+    <t>10  mutants, 3 produce the same failure as the original bug</t>
   </si>
 </sst>
 </file>
@@ -1374,6 +1407,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1384,9 +1420,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1723,11 +1756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51ED0F3-1512-9640-9294-FF91039F967C}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1842,19 +1875,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="77" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="28">
         <v>24</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="5">
@@ -1869,28 +1902,28 @@
       <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="88" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="5">
         <v>46</v>
       </c>
@@ -1903,11 +1936,11 @@
       <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:18" ht="62" customHeight="1">
       <c r="A5" s="10" t="s">
@@ -2130,16 +2163,16 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="63" customHeight="1">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="28">
         <v>633</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -2174,10 +2207,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="47" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="5" t="s">
         <v>74</v>
       </c>
@@ -2303,39 +2336,39 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="289">
+    <row r="14" spans="1:18" ht="83" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C14" s="5">
-        <v>190</v>
+        <v>391</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>109</v>
+        <v>154</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="5">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>112</v>
@@ -2344,185 +2377,183 @@
         <v>113</v>
       </c>
       <c r="N14" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="289">
+      <c r="A15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="5">
+        <v>190</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="136">
-      <c r="A15" s="24" t="s">
+      <c r="L15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="136">
+      <c r="A16" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C16" s="25">
         <v>679</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D16" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E16" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F16" s="22">
         <v>107</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J16" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K16" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L16" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="M16" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="N15" s="28" t="s">
+      <c r="N16" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="108" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="5">
+    <row r="17" spans="1:15" ht="108" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="5">
         <v>136</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-    </row>
-    <row r="17" spans="1:15" ht="323">
-      <c r="A17" s="24" t="s">
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:15" ht="323">
+      <c r="A18" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C18" s="5">
         <v>291</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="5">
         <v>82</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J18" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K18" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L18" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M18" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="N17" s="28" t="s">
+      <c r="N18" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-    </row>
-    <row r="19" spans="1:15" ht="409.6">
-      <c r="A19" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="5">
-        <v>82</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="11">
-        <v>140</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="149" customHeight="1">
+    <row r="19" spans="1:15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:15" ht="409.6">
       <c r="A20" s="10" t="s">
         <v>137</v>
       </c>
@@ -2530,47 +2561,91 @@
         <v>138</v>
       </c>
       <c r="C20" s="5">
-        <v>38</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>146</v>
+        <v>82</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="5">
-        <v>103</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>147</v>
+      <c r="F20" s="11">
+        <v>140</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O20" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="D21" s="4"/>
+    <row r="21" spans="1:15" ht="149" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="5">
+        <v>38</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="5">
+        <v>103</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
       <c r="D22" s="4"/>
@@ -2605,39 +2680,42 @@
     <row r="32" spans="1:15">
       <c r="D32" s="4"/>
     </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E27A36EE-9FB0-E047-A71E-675FC3FCF183}"/>
@@ -2649,11 +2727,12 @@
     <hyperlink ref="B10" r:id="rId7" xr:uid="{AC7A5222-A141-C547-B4BA-A7E369D48987}"/>
     <hyperlink ref="B12" r:id="rId8" xr:uid="{41F9A05E-9545-404F-A59A-61F1736A4433}"/>
     <hyperlink ref="B13" r:id="rId9" xr:uid="{CA013061-61BF-484C-92F0-C139B056E531}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{85212475-E9DF-9346-B54D-00A6479F5031}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{7B51BD02-178C-1243-84F3-869E36370B44}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{D7C44975-8CD0-F54B-A507-870B5816BA89}"/>
-    <hyperlink ref="B19" r:id="rId13" xr:uid="{7D380E9C-453B-A64F-A27A-1EF0A86A1B49}"/>
-    <hyperlink ref="B20" r:id="rId14" xr:uid="{6685889E-162C-1147-8EC1-EA437BD2A95E}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{85212475-E9DF-9346-B54D-00A6479F5031}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{7B51BD02-178C-1243-84F3-869E36370B44}"/>
+    <hyperlink ref="B18" r:id="rId12" xr:uid="{D7C44975-8CD0-F54B-A507-870B5816BA89}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{7D380E9C-453B-A64F-A27A-1EF0A86A1B49}"/>
+    <hyperlink ref="B21" r:id="rId14" xr:uid="{6685889E-162C-1147-8EC1-EA437BD2A95E}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{B510CA73-1773-BE49-9F6E-5407851B6E20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA32677F-BA31-0346-9BEB-F59371716065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E179C733-57F5-064A-8AA2-398AE8992A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1420" windowWidth="33760" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
+    <workbookView xWindow="2200" yWindow="1420" windowWidth="33760" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="190">
   <si>
     <t>application</t>
   </si>
@@ -1230,6 +1230,162 @@
   <si>
     <t>10  mutants, 3 produce the same failure as the original bug</t>
   </si>
+  <si>
+    <t>yargs</t>
+  </si>
+  <si>
+    <t>https://github.com/yargs/yargs</t>
+  </si>
+  <si>
+    <t>f91d9b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+lib/yargs-factory.ts</t>
+  </si>
+  <si>
+    <t>if (
+        !Object.prototype.hasOwnProperty.call(descriptions, key) ||
+        typeof desc === 'string'
+      ) {
+        this.describe(key, desc);
+      }</t>
+  </si>
+  <si>
+    <t>1 failing
+  1) usage tests
+       allows multiple option calls to not clobber description:
+      AssertionError: expected '--arg [string] [default: "new"]' to equal '--arg Old description [string] [defau…'
+      + expected - actual
+      ---arg [string] [default: "new"]
+      +--arg Old description [string] [default: "new"]
+      at Context.&lt;anonymous&gt; (test/usage.cjs:4866:15)
+      at process.processImmediate (node:internal/timers:483:21)</t>
+  </si>
+  <si>
+    <t>11 mutants, of which 4 cause the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>10 mutants, of which 3 cause the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>11 mutants, of which 3 cause the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>12 mutants, of which 4 cause the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>12 mutants, of which 2 cause the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>this.describe(key, desc);</t>
+  </si>
+  <si>
+    <t>NOTE: fix TypeScript error in common-types.ts: 
+git diff lib/typings/common-types.ts
+diff --git a/lib/typings/common-types.ts b/lib/typings/common-types.ts
+index 2c1c15c..2aacfbf 100644
+--- a/lib/typings/common-types.ts
++++ b/lib/typings/common-types.ts
+@@ -61,7 +61,7 @@ export function assertSingleKey(
+ /**
+  * Typing wrapper around Object.keys()
+  */
+-export function objectKeys&lt;T&gt;(object: T) {
++export function objectKeys&lt;T extends Object&gt;(object: T) {
+   return Object.keys(object) as (keyof T)[];
+ }</t>
+  </si>
+  <si>
+    <t>63b3dd3</t>
+  </si>
+  <si>
+    <t>lib/usage.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            else return (sw.length &gt; 1 ? '--' : '-') + sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            else return (/^[^0-9]$/.test(sw) ? '-' : '--') + sw</t>
+  </si>
+  <si>
+    <t>2 failing
+  1) usage tests
+       help option
+         should use 2 dashes for 1-digit key usage:
+      AssertionError: expected [ 'Options:', …(3) ] to deeply equal [ 'Options:', …(3) ]
+      + expected - actual
+       [
+         "Options:"
+      -  "  -1         Negative one  [boolean]"
+      +  "  --1        Negative one  [boolean]"
+         "  --help     Show help  [boolean]"
+         "  --version  Show version number  [boolean]"
+       ]
+      at Context.&lt;anonymous&gt; (test/usage.js:1138:50)
+      at process.processImmediate (node:internal/timers:483:21)
+  2) usage tests
+       help option
+         should use 2 dashes for 1-digit alias usage:
+      AssertionError: expected [ 'Options:', …(3) ] to deeply equal [ 'Options:', …(3) ]
+      + expected - actual
+       [
+         "Options:"
+      -  "  --help             Show help  [boolean]"
+      -  "  --version          Show version number  [boolean]"
+      -  "  --negativeone, -1  Negative one  [boolean]"
+      +  "  --help              Show help  [boolean]"
+      +  "  --version           Show version number  [boolean]"
+      +  "  --negativeone, --1  Negative one  [boolean]"
+       ]
+      at Context.&lt;anonymous&gt; (test/usage.js:1161:50)
+      at process.processImmediate (node:internal/timers:483:21)</t>
+  </si>
+  <si>
+    <t>5 mutants, none causing the same test failures as the original bug</t>
+  </si>
+  <si>
+    <t>6 mutants, of which 2 are causing the same test failures as the original bug</t>
+  </si>
+  <si>
+    <t>3 mutants, none causing the same test failures as the original bug</t>
+  </si>
+  <si>
+    <t>3d26d11</t>
+  </si>
+  <si>
+    <t>lib/apply-extends.js</t>
+  </si>
+  <si>
+    <t>if (config.hasOwnProperty('extends')) {</t>
+  </si>
+  <si>
+    <t>1 failing
+  1) yargs dsl tests
+       config
+         extends
+           tolerates null prototype config objects:
+     TypeError: config.hasOwnProperty is not a function
+      at applyExtends (lib/apply-extends.js:1:5026)
+      at Object.config (yargs.js:27:102)
+      at Context.&lt;anonymous&gt; (test/yargs.js:1297:12)
+      at process.processImmediate (node:internal/timers:483:21)</t>
+  </si>
+  <si>
+    <t>if (Object.prototype.hasOwnProperty.call(config, 'extends')) {</t>
+  </si>
+  <si>
+    <t>11 mutants, 1 is identical to the original bug; none of the others create similar failures</t>
+  </si>
+  <si>
+    <t>10 mutants, 1 is identical to the original bug; none of the others create similar failures</t>
+  </si>
+  <si>
+    <t>9 mutants, 1 is identical to the original bug; none of the others create similar failures</t>
+  </si>
+  <si>
+    <t>8 mutants, 1 is identical to the original bug; none of the others create similar failures</t>
+  </si>
 </sst>
 </file>
 
@@ -1335,7 +1491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1407,9 +1563,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1420,6 +1573,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1759,8 +1921,8 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1875,19 +2037,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="77" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>24</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="5">
@@ -1902,28 +2064,28 @@
       <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="88" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="5">
         <v>46</v>
       </c>
@@ -1936,11 +2098,11 @@
       <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:18" ht="62" customHeight="1">
       <c r="A5" s="10" t="s">
@@ -2163,16 +2325,16 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="63" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>633</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -2207,10 +2369,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="47" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="5" t="s">
         <v>74</v>
       </c>
@@ -2426,19 +2588,19 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="136">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>679</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>115</v>
       </c>
       <c r="F16" s="22">
@@ -2453,28 +2615,28 @@
       <c r="I16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="28" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="108" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="5">
         <v>136</v>
       </c>
@@ -2487,17 +2649,17 @@
       <c r="I17" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
     </row>
     <row r="18" spans="1:15" ht="323">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="5">
@@ -2521,25 +2683,25 @@
       <c r="I18" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="28" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="5"/>
       <c r="D19" s="13"/>
       <c r="E19" s="5"/>
@@ -2547,11 +2709,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
     </row>
     <row r="20" spans="1:15" ht="409.6">
       <c r="A20" s="10" t="s">
@@ -2647,14 +2809,140 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="D24" s="4"/>
+    <row r="22" spans="1:15" ht="268" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2123</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1049</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="123" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1493</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="5">
+        <v>275</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="255">
+      <c r="A24" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1376</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="5">
+        <v>22</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
       <c r="D25" s="4"/>
@@ -2685,24 +2973,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
@@ -2716,6 +2986,24 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E27A36EE-9FB0-E047-A71E-675FC3FCF183}"/>
@@ -2733,6 +3021,9 @@
     <hyperlink ref="B20" r:id="rId13" xr:uid="{7D380E9C-453B-A64F-A27A-1EF0A86A1B49}"/>
     <hyperlink ref="B21" r:id="rId14" xr:uid="{6685889E-162C-1147-8EC1-EA437BD2A95E}"/>
     <hyperlink ref="B14" r:id="rId15" xr:uid="{B510CA73-1773-BE49-9F6E-5407851B6E20}"/>
+    <hyperlink ref="B22" r:id="rId16" xr:uid="{FB6CB3FC-3081-A64F-BF1D-560168F9B529}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{FF9570AC-60A1-D444-AAF7-50C94C4DB2E5}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{6E4A7E09-8537-8D4A-A1BD-83E05228AEC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E179C733-57F5-064A-8AA2-398AE8992A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7823DA1-DFE5-0D43-9F4E-F5BAE4F230D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1420" windowWidth="33760" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="204">
   <si>
     <t>application</t>
   </si>
@@ -1385,6 +1385,62 @@
   </si>
   <si>
     <t>8 mutants, 1 is identical to the original bug; none of the others create similar failures</t>
+  </si>
+  <si>
+    <t>9a42b63</t>
+  </si>
+  <si>
+    <t>lib/middleware.js</t>
+  </si>
+  <si>
+    <t>if (middleware.applyBeforeValidation !== beforeValidation &amp;&amp;
+          !isPromise(accumulation)) {</t>
+  </si>
+  <si>
+    <t>if (middleware.applyBeforeValidation !== beforeValidation) {</t>
+  </si>
+  <si>
+    <t>1) middleware
+       async
+         calls an async middleware only once for nested subcommands:
+      AssertionError: expected 2 to equal 1
+      + expected - actual
+      -2
+      +1
+      at /Users/franktip/git/mutation-testing-data/casestudy/yargs-2171/yargs/test/middleware.js:173:28</t>
+  </si>
+  <si>
+    <t>3 mutants, none of which are causing failures similar to those created by the original bug</t>
+  </si>
+  <si>
+    <t>2 mutants, none of which are causing failures similar to those created by the original bug</t>
+  </si>
+  <si>
+    <t>35d777c</t>
+  </si>
+  <si>
+    <t>lib/validation.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 failing
+  1) validation tests
+       demand
+         fails in strict mode with invalid command:
+     Error: Timeout of 12000ms exceeded. For async tests and hooks, ensure "done()" is called; if returning a Promise, ensure it resolves. (/Users/franktip/git/mutation-testing-data/casestudy/yargs-2171/yargs/test/validation.js)
+      at listOnTimeout (node:internal/timers:581:17)
+      at process.processTimers (node:internal/timers:519:7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (commandKeys.length &gt; 0) {</t>
+  </si>
+  <si>
+    <t>if ((currentContext.commands.length &gt; 0) || (commandKeys.length &gt; 0)) {</t>
+  </si>
+  <si>
+    <t>3 mutants, 2 of which are causing failures similar to those created by the original bug</t>
+  </si>
+  <si>
+    <t>3 mutants, 1 of which are causing failures similar to those created by the original bug</t>
   </si>
 </sst>
 </file>
@@ -1563,6 +1619,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1573,15 +1638,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1921,8 +1977,8 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2037,19 +2093,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="77" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="30">
         <v>24</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="27" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="5">
@@ -2064,28 +2120,28 @@
       <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="88" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="5">
         <v>46</v>
       </c>
@@ -2098,11 +2154,11 @@
       <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:18" ht="62" customHeight="1">
       <c r="A5" s="10" t="s">
@@ -2325,16 +2381,16 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="63" customHeight="1">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="30">
         <v>633</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="27" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -2369,10 +2425,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="47" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="5" t="s">
         <v>74</v>
       </c>
@@ -2588,19 +2644,19 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="136">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="27">
         <v>679</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="27" t="s">
         <v>115</v>
       </c>
       <c r="F16" s="22">
@@ -2615,28 +2671,28 @@
       <c r="I16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="26" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="108" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="5">
         <v>136</v>
       </c>
@@ -2649,17 +2705,17 @@
       <c r="I17" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:15" ht="323">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="28" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="5">
@@ -2683,25 +2739,25 @@
       <c r="I18" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="28" t="s">
+      <c r="N18" s="26" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="5"/>
       <c r="D19" s="13"/>
       <c r="E19" s="5"/>
@@ -2709,11 +2765,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
     </row>
     <row r="20" spans="1:15" ht="409.6">
       <c r="A20" s="10" t="s">
@@ -2819,7 +2875,7 @@
       <c r="C22" s="6">
         <v>2123</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="24" t="s">
         <v>162</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -2834,7 +2890,7 @@
       <c r="H22" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="25" t="s">
         <v>165</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -2944,11 +3000,93 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="D26" s="4"/>
+    <row r="25" spans="1:15" ht="238">
+      <c r="A25" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1422</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="11">
+        <v>43</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="255">
+      <c r="A26" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1364</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="5">
+        <v>105</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="27" spans="1:15">
       <c r="D27" s="4"/>
@@ -2973,6 +3111,24 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
@@ -2986,24 +3142,6 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E27A36EE-9FB0-E047-A71E-675FC3FCF183}"/>
@@ -3024,6 +3162,8 @@
     <hyperlink ref="B22" r:id="rId16" xr:uid="{FB6CB3FC-3081-A64F-BF1D-560168F9B529}"/>
     <hyperlink ref="B23" r:id="rId17" xr:uid="{FF9570AC-60A1-D444-AAF7-50C94C4DB2E5}"/>
     <hyperlink ref="B24" r:id="rId18" xr:uid="{6E4A7E09-8537-8D4A-A1BD-83E05228AEC9}"/>
+    <hyperlink ref="B25" r:id="rId19" xr:uid="{A06EAAC5-2858-3344-9B3E-7B83CCAAD5BA}"/>
+    <hyperlink ref="B26" r:id="rId20" xr:uid="{66AB5E01-5AC2-F244-9D6D-B032622F3B5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7823DA1-DFE5-0D43-9F4E-F5BAE4F230D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEBFA42-F010-674C-9FFA-5BCE630A4215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1420" windowWidth="33760" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="228">
   <si>
     <t>application</t>
   </si>
@@ -1442,6 +1442,154 @@
   <si>
     <t>3 mutants, 1 of which are causing failures similar to those created by the original bug</t>
   </si>
+  <si>
+    <t>css-loader</t>
+  </si>
+  <si>
+    <t>729a314</t>
+  </si>
+  <si>
+    <t>https://github.com/webpack-contrib/css-loader</t>
+  </si>
+  <si>
+    <t>src/utils.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return decodeURIComponent(normalizedUrl);</t>
+  </si>
+  <si>
+    <t>return decodeURI(normalizedUrl);</t>
+  </si>
+  <si>
+    <t>eturn decodeURIComponent(unescape(normalizedUrl));</t>
+  </si>
+  <si>
+    <t>return decodeURI(unescape(normalizedUrl));</t>
+  </si>
+  <si>
+    <t>no effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAIL  test/loader.test.js (5.66 s)
+  ● Console
+    console.warn
+      Browserslist: caniuse-lite is outdated. Please run:
+      npx browserslist@latest --update-db
+      Why you should do it regularly:
+      https://github.com/browserslist/browserslist#browsers-data-updating
+      11 |   const { spy = jest.fn() } = this.query;
+      12 |
+    &gt; 13 |   postcss([postcssPresetEnv({ stage: 0 })])
+         |            ^
+      14 |     .process(content, {
+      15 |       // eslint-disable-next-line no-undefined
+      16 |       from: undefined,
+      at Object.oldDataWarning (node_modules/browserslist/node.js:373:15)
+      at browserslist (node_modules/browserslist/index.js:432:7)
+      at node_modules/postcss-preset-env/src/postcss.js:87:28
+      at creator (node_modules/postcss-preset-env/node_modules/postcss/lib/postcss.es6:111:34)
+      at Object.astLoader (test/helpers/ast-loader.js:13:12)
+      at LOADER_EXECUTION (node_modules/loader-runner/lib/LoaderRunner.js:132:14)
+      at runSyncOrAsync (node_modules/loader-runner/lib/LoaderRunner.js:133:4)
+      at iterateNormalLoaders (node_modules/loader-runner/lib/LoaderRunner.js:250:2)
+  ● loader › should pass queries to other loader
+    expect(received).toMatchSnapshot(hint)
+    Snapshot name: `loader should pass queries to other loader: module 1`
+    - Snapshot  - 2
+    + Received  + 2
+      // Imports
+      import ___CSS_LOADER_API_IMPORT___ from "../../src/runtime/api.js";
+      import ___CSS_LOADER_GET_URL_IMPORT___ from "../../src/runtime/getUrl.js";
+    - import ___CSS_LOADER_URL_IMPORT_0___ from "./url/image.svg?color=%23BAAFDB%3F";
+    + import ___CSS_LOADER_URL_IMPORT_0___ from "./url/image.svg?color=";
+      var ___CSS_LOADER_EXPORT___ = ___CSS_LOADER_API_IMPORT___(function(i){return i[1]});
+    - var ___CSS_LOADER_URL_REPLACEMENT_0___ = ___CSS_LOADER_GET_URL_IMPORT___(___CSS_LOADER_URL_IMPORT_0___, { hash: "#foo" });
+    + var ___CSS_LOADER_URL_REPLACEMENT_0___ = ___CSS_LOADER_GET_URL_IMPORT___(___CSS_LOADER_URL_IMPORT_0___, { hash: "#BAAFDB" });
+      // Module
+      ___CSS_LOADER_EXPORT___.push([module.id, ".example {\n    background-image: url(" + ___CSS_LOADER_URL_REPLACEMENT_0___ + ");\n}\n", ""]);
+      // Exports
+      export default ___CSS_LOADER_EXPORT___;
+      ↵
+      502 |     const stats = await compile(compiler);
+      503 |
+    &gt; 504 |     expect(getModuleSource("./other-loader-query.css", stats)).toMatchSnapshot(
+          |                                                                ^
+      505 |       "module"
+      506 |     );
+      507 |     expect(getExecutedCode("main.bundle.js", compiler, stats)).toMatchSnapshot(
+      at Object.&lt;anonymous&gt; (test/loader.test.js:504:64)
+ › 1 snapshot failed.
+ › 3 snapshots obsolete.
+   • loader should pass queries to other loader: errors 1
+   • loader should pass queries to other loader: result 1
+   • loader should pass queries to other loader: warnings 1</t>
+  </si>
+  <si>
+    <t>use Node v16, disable linter</t>
+  </si>
+  <si>
+    <t>11 mutants, of which none are causing failures identical to the original bug</t>
+  </si>
+  <si>
+    <t>10 mutants, of which none are causing failures identical to the original bug
+BUT: one is identical to the buggy line 88, which is not executed, so the mutant survives</t>
+  </si>
+  <si>
+    <t>13 mutants, of which none are causing failures identical to the original bug</t>
+  </si>
+  <si>
+    <t>12 mutants, of which none are causing failures identical to the original bug</t>
+  </si>
+  <si>
+    <t>ded2a79</t>
+  </si>
+  <si>
+    <t>src/runtime/api.js</t>
+  </si>
+  <si>
+    <t>const sourceURLs = cssMapping.sources.map(
+      (source) =&gt; `/*# sourceURL=${cssMapping.sourceRoot || ''}${source} */`
+    );</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAIL  test/runtime/api.test.js
+  ● api › should toString with a source map without "sourceRoot"
+    expect(received).toMatchSnapshot()
+    Snapshot name: `api should toString with a source map without "sourceRoot" 1`
+    - Snapshot
+    + Received
+      body { a: 1; }
+    - /*# sourceURL=./path/to/test.scss */
+    + /*# sourceURL=undefined./path/to/test.scss */
+      /*# sourceMappingURL=data:application/json;charset=utf-8;base64,eyJmaWxlIjoidGVzdC5zY3NzIiwic291cmNlcyI6WyIuL3BhdGgvdG8vdGVzdC5zY3NzIl0sIm1hcHBpbmdzIjoiQUFBQTsifQ== */
+      136 |     ]);
+      137 | 
+    &gt; 138 |     expect(m.toString()).toMatchSnapshot();
+          |                          ^
+      139 |   });
+      140 | });
+      141 | 
+      at Object.&lt;anonymous&gt; (test/runtime/api.test.js:138:26)
+      at processTicksAndRejections (node:internal/process/task_queues:96:5)
+ › 1 snapshot failed.</t>
+  </si>
+  <si>
+    <t>const sourceURLs = cssMapping.sources.map(
+      (source) =&gt; `/*# sourceURL=${cssMapping.sourceRoot}${source} */`
+    );</t>
+  </si>
+  <si>
+    <t>6 mutants, of which 3 cause the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>6 mutants, of which 4 cause the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>5 mutants, of which 3 cause the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>4 mutants, of which 3 cause the same failure as the original bug</t>
+  </si>
 </sst>
 </file>
 
@@ -1547,7 +1695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1625,9 +1773,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1638,6 +1783,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1977,8 +2131,8 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2093,19 +2247,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="77" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>24</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="5">
@@ -2120,28 +2274,28 @@
       <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="88" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="5">
         <v>46</v>
       </c>
@@ -2154,11 +2308,11 @@
       <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" spans="1:18" ht="62" customHeight="1">
       <c r="A5" s="10" t="s">
@@ -2381,16 +2535,16 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="63" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <v>633</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -2425,10 +2579,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="47" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="27"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="5" t="s">
         <v>74</v>
       </c>
@@ -2644,19 +2798,19 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="136">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <v>679</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>115</v>
       </c>
       <c r="F16" s="22">
@@ -2671,28 +2825,28 @@
       <c r="I16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="108" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="5">
         <v>136</v>
       </c>
@@ -2705,17 +2859,17 @@
       <c r="I17" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="1:15" ht="323">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="5">
@@ -2739,25 +2893,25 @@
       <c r="I18" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="30" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="5"/>
       <c r="D19" s="13"/>
       <c r="E19" s="5"/>
@@ -2765,11 +2919,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" spans="1:15" ht="409.6">
       <c r="A20" s="10" t="s">
@@ -3088,17 +3242,128 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="D27" s="4"/>
+    <row r="27" spans="1:15" ht="51">
+      <c r="A27" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="26">
+        <v>1261</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="5">
+        <v>88</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="D28" s="4"/>
+    <row r="28" spans="1:15" ht="145" customHeight="1">
+      <c r="A28" s="26"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="5">
+        <v>91</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="26"/>
     </row>
-    <row r="29" spans="1:15">
-      <c r="D29" s="4"/>
+    <row r="29" spans="1:15" ht="98" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1036</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="5">
+        <v>60</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="N29" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" s="26" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="30" spans="1:15">
       <c r="D30" s="4"/>
+      <c r="O30" s="26"/>
     </row>
     <row r="31" spans="1:15">
       <c r="D31" s="4"/>
@@ -3110,25 +3375,19 @@
       <c r="D33" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+  <mergeCells count="43">
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
@@ -3142,6 +3401,24 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E27A36EE-9FB0-E047-A71E-675FC3FCF183}"/>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEBFA42-F010-674C-9FFA-5BCE630A4215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997389D0-A7AF-0D42-A7DF-A34A0C750EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1420" windowWidth="33760" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="237">
   <si>
     <t>application</t>
   </si>
@@ -1590,6 +1590,43 @@
   <si>
     <t>4 mutants, of which 3 cause the same failure as the original bug</t>
   </si>
+  <si>
+    <t xml:space="preserve">
+lib/css-base.js</t>
+  </si>
+  <si>
+    <t>e3bb83a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			if(typeof id === "number")</t>
+  </si>
+  <si>
+    <t>if(id != null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			if(typeof item[0] !== "number" || !alreadyImportedModules[item[0]]) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			if(item[0] == null || !alreadyImportedModules[item[0]]) {</t>
+  </si>
+  <si>
+    <t>1 failing
+  1) css-base should import named modules:
+      AssertionError: expected '@media print{body { b: 2; }}body { c: 3; }@media print{body { b: 2; }}@media print{body { b: 2; }}@media print{body { d: 4; }}@media screen{body { a: 1; }}' to equal 'body { b: 2; }body { c: 3; }@media print{body { d: 4; }}@media screen{body { a: 1; }}'
+      + expected - actual
+      -@media print{body { b: 2; }}body { c: 3; }@media print{body { b: 2; }}@media print{body { b: 2; }}@media print{body { d: 4; }}@media screen{body { a: 1; }}
+      +body { b: 2; }body { c: 3; }@media print{body { d: 4; }}@media screen{body { a: 1; }}
+      at Assertion.fail (node_modules/should/cjs/should.js:258:17)
+      at Assertion.value (node_modules/should/cjs/should.js:335:19)
+      at Context.&lt;anonymous&gt; (test/cssBaseTest.js:65:26)
+      at processImmediate (node:internal/timers:466:21)</t>
+  </si>
+  <si>
+    <t>6 mutants, of which 5 cause the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>6 mutants, of which 2 cause the same failure as the original bug</t>
+  </si>
 </sst>
 </file>
 
@@ -1695,7 +1732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1775,6 +1812,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1783,15 +1826,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2131,8 +2165,8 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2250,10 +2284,10 @@
       <c r="A3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="31">
         <v>24</v>
       </c>
       <c r="D3" s="26" t="s">
@@ -2274,26 +2308,26 @@
       <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="88" customHeight="1">
       <c r="A4" s="26"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="5">
@@ -2308,11 +2342,11 @@
       <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:18" ht="62" customHeight="1">
       <c r="A5" s="10" t="s">
@@ -2535,13 +2569,13 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="63" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="31">
         <v>633</v>
       </c>
       <c r="D10" s="26" t="s">
@@ -2579,9 +2613,9 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="47" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="26"/>
       <c r="E11" s="5" t="s">
         <v>74</v>
@@ -2801,7 +2835,7 @@
       <c r="A16" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>103</v>
       </c>
       <c r="C16" s="26">
@@ -2825,25 +2859,25 @@
       <c r="I16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="M16" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="27" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="108" customHeight="1">
       <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -2859,17 +2893,17 @@
       <c r="I17" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:15" ht="323">
       <c r="A18" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="29" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="5">
@@ -2893,25 +2927,25 @@
       <c r="I18" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="30" t="s">
+      <c r="M18" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="27" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="5"/>
       <c r="D19" s="13"/>
       <c r="E19" s="5"/>
@@ -2919,11 +2953,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:15" ht="409.6">
       <c r="A20" s="10" t="s">
@@ -3246,10 +3280,10 @@
       <c r="A27" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="31">
         <v>1261</v>
       </c>
       <c r="D27" s="26" t="s">
@@ -3270,19 +3304,19 @@
       <c r="I27" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="M27" s="30" t="s">
+      <c r="M27" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="N27" s="30" t="s">
+      <c r="N27" s="27" t="s">
         <v>218</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -3291,8 +3325,8 @@
     </row>
     <row r="28" spans="1:15" ht="145" customHeight="1">
       <c r="A28" s="26"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="5">
@@ -3307,11 +3341,11 @@
       <c r="I28" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
       <c r="O28" s="26"/>
     </row>
     <row r="29" spans="1:15" ht="98" customHeight="1">
@@ -3327,7 +3361,7 @@
       <c r="D29" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="10" t="s">
         <v>220</v>
       </c>
       <c r="F29" s="5">
@@ -3342,31 +3376,96 @@
       <c r="I29" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="32" t="s">
+      <c r="L29" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="M29" s="32" t="s">
+      <c r="M29" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="N29" s="32" t="s">
+      <c r="N29" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="O29" s="26" t="s">
+      <c r="O29" s="10" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="D30" s="4"/>
-      <c r="O30" s="26"/>
+    <row r="30" spans="1:15" ht="206" customHeight="1">
+      <c r="A30" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="26">
+        <v>789</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="5">
+        <v>28</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="O30" s="26" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="D31" s="4"/>
+    <row r="31" spans="1:15" ht="170" customHeight="1">
+      <c r="A31" s="26"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="5">
+        <v>37</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="26"/>
     </row>
     <row r="32" spans="1:15">
       <c r="D32" s="4"/>
@@ -3375,19 +3474,30 @@
       <c r="D33" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A27:A28"/>
+  <mergeCells count="53">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
@@ -3401,24 +3511,23 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E27A36EE-9FB0-E047-A71E-675FC3FCF183}"/>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997389D0-A7AF-0D42-A7DF-A34A0C750EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747EBF39-3FE0-5C47-9FAC-CBA65DF02F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1420" windowWidth="33760" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="243">
   <si>
     <t>application</t>
   </si>
@@ -1627,6 +1627,36 @@
   <si>
     <t>6 mutants, of which 2 cause the same failure as the original bug</t>
   </si>
+  <si>
+    <t xml:space="preserve">
+lib/url/escape.js</t>
+  </si>
+  <si>
+    <t>d1d8221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (typeof url !== 'string') {
+        return url
+    }</t>
+  </si>
+  <si>
+    <t>(inserted code)</t>
+  </si>
+  <si>
+    <t>1 failing
+  1) url module from null-loader (empty object from webpack):
+     TypeError: url.replace is not a function
+      at escape (lib/url/escape.js:12:26)
+      at testcase.js:7:62
+      at getEvaluated (test/helpers.js:12:3)
+      at assetEvaluated (test/helpers.js:33:16)
+      at test/helpers.js:72:4
+      at Object.&lt;anonymous&gt; (lib/loader.js:135:3)
+      at lib/processCss.js:211:3</t>
+  </si>
+  <si>
+    <t>3 mutants, all cauising the same test failure as the original bug</t>
+  </si>
 </sst>
 </file>
 
@@ -1732,7 +1762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1826,6 +1856,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2165,8 +2201,8 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3399,7 +3435,7 @@
       <c r="A30" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>206</v>
       </c>
       <c r="C30" s="26">
@@ -3467,14 +3503,60 @@
       <c r="N31" s="27"/>
       <c r="O31" s="26"/>
     </row>
-    <row r="32" spans="1:15">
-      <c r="D32" s="4"/>
+    <row r="32" spans="1:15" ht="221">
+      <c r="A32" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="32">
+        <v>663</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="10">
+        <v>2</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:15">
       <c r="D33" s="4"/>
+      <c r="O33" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="54">
+    <mergeCell ref="O32:O33"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
@@ -3550,6 +3632,7 @@
     <hyperlink ref="B24" r:id="rId18" xr:uid="{6E4A7E09-8537-8D4A-A1BD-83E05228AEC9}"/>
     <hyperlink ref="B25" r:id="rId19" xr:uid="{A06EAAC5-2858-3344-9B3E-7B83CCAAD5BA}"/>
     <hyperlink ref="B26" r:id="rId20" xr:uid="{66AB5E01-5AC2-F244-9D6D-B032622F3B5E}"/>
+    <hyperlink ref="B30" r:id="rId21" xr:uid="{2C00C4A4-C55C-4A4B-9241-A74FB21466C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747EBF39-3FE0-5C47-9FAC-CBA65DF02F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87025BE-1A0B-BC4E-8DC0-435FF7DD4031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1420" windowWidth="33760" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="253">
   <si>
     <t>application</t>
   </si>
@@ -1657,6 +1657,52 @@
   <si>
     <t>3 mutants, all cauising the same test failure as the original bug</t>
   </si>
+  <si>
+    <t>https://github.com/expressjs/compression</t>
+  </si>
+  <si>
+    <t>b7d5d77</t>
+  </si>
+  <si>
+    <t>this._implicitHeader()</t>
+  </si>
+  <si>
+    <t>this.writeHead(this.statusCode)</t>
+  </si>
+  <si>
+    <t>1 failing
+  1) compression()
+       http2
+         should work with http2 server:
+     Uncaught TypeError: this._implicitHeader is not a function
+      at Http2ServerResponse.end (index.js:103:14)
+      at /Users/franktip/git/mutation-testing-data/casestudy/compression-170/compression/test/compression.js:322:13
+      at /Users/franktip/git/mutation-testing-data/casestudy/compression-170/compression/test/compression.js:732:7
+      at compression (index.js:215:5)
+      at Http2Server.&lt;anonymous&gt; (test/compression.js:725:5)
+      at Http2Server.emit (node:events:524:28)
+      at Http2Server.onServerStream (node:internal/http2/compat:974:10)
+      at Http2Server.emit (node:events:524:28)
+      at ServerHttp2Session.sessionOnStream (node:internal/http2/core:3035:19)
+      at ServerHttp2Session.emit (node:events:524:28)
+      at emit (node:internal/http2/core:332:3)
+      at process.processTicksAndRejections (node:internal/process/task_queues:85:22)</t>
+  </si>
+  <si>
+    <t>compression</t>
+  </si>
+  <si>
+    <t>10 mutants, none of which are causing the same failures as the bug</t>
+  </si>
+  <si>
+    <t>9 mutants, none of which are causing the same failures as the bug</t>
+  </si>
+  <si>
+    <t>7 mutants, none of which are causing the same failures as the bug</t>
+  </si>
+  <si>
+    <t>8 mutants, none of which are causing the same failures as the bug</t>
+  </si>
 </sst>
 </file>
 
@@ -1762,7 +1808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1772,9 +1818,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1842,12 +1885,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1857,11 +1894,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2198,17 +2235,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51ED0F3-1512-9640-9294-FF91039F967C}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="25.1640625" customWidth="1"/>
@@ -2273,134 +2310,134 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="221">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>60</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>30</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="77" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="28">
         <v>24</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="88" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="5">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="4">
         <v>46</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="1:18" ht="62" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>25</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>25</v>
       </c>
       <c r="G5" t="s">
@@ -2429,28 +2466,28 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="89" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>870</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>2069</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2473,305 +2510,305 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="161" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>391</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>1884</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>46</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="143" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>853</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>1008</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="134" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>59</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>847</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="63" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="28">
         <v>633</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>33</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="47" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="5" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>15</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="144" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>334</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>72</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="83" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>223</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>17</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>98</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>100</v>
       </c>
       <c r="O13" s="2" t="s">
@@ -2779,111 +2816,111 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="83" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>391</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>12</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>159</v>
       </c>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:18" ht="289">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>190</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="136">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>679</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>107</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2892,244 +2929,244 @@
       <c r="H16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="M16" s="27" t="s">
+      <c r="M16" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="N16" s="29" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="108" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="5">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="4">
         <v>136</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:15" ht="323">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>291</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>82</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="27" t="s">
+      <c r="M18" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="27" t="s">
+      <c r="N18" s="29" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
     </row>
     <row r="20" spans="1:15" ht="409.6">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>82</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>140</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="149" customHeight="1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>38</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>103</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>149</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="268" customHeight="1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>2123</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>1049</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="8" t="s">
         <v>170</v>
       </c>
       <c r="O22" s="2" t="s">
@@ -3137,270 +3174,270 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="123" customHeight="1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>1493</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>275</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>176</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="255">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>1376</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>22</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>185</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="238">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>1422</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>43</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>193</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="255">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>1364</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>105</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>201</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="51">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="28">
         <v>1261</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>88</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="N27" s="27" t="s">
+      <c r="N27" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="O27" s="26" t="s">
+      <c r="O27" s="25" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="145" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="5">
+      <c r="A28" s="25"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="4">
         <v>91</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="26"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="25"/>
     </row>
     <row r="29" spans="1:15" ht="98" customHeight="1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>1036</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>60</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -3412,174 +3449,232 @@
       <c r="I29" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="O29" s="9" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="206" customHeight="1">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>789</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>28</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>231</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="L30" s="27" t="s">
+      <c r="L30" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="M30" s="27" t="s">
+      <c r="M30" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="O30" s="26" t="s">
+      <c r="O30" s="25" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="170" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="5">
+      <c r="A31" s="25"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="4">
         <v>37</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="10" t="s">
         <v>233</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="26"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="25"/>
     </row>
     <row r="32" spans="1:15" ht="221">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="9">
         <v>663</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>2</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="10" t="s">
         <v>239</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="K32" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="L32" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="M32" s="33" t="s">
+      <c r="M32" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="N32" s="33" t="s">
+      <c r="N32" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="O32" s="26" t="s">
+      <c r="O32" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="4:15">
-      <c r="D33" s="4"/>
-      <c r="O33" s="26"/>
+    <row r="33" spans="1:15" ht="34" customHeight="1">
+      <c r="A33" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="25">
+        <v>170</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="4">
+        <v>84</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" ht="201" customHeight="1">
+      <c r="A34" s="25"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="4">
+        <v>103</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+  <mergeCells count="63">
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
@@ -3593,23 +3688,39 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="L30:L31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="N30:N31"/>
     <mergeCell ref="O30:O31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E27A36EE-9FB0-E047-A71E-675FC3FCF183}"/>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87025BE-1A0B-BC4E-8DC0-435FF7DD4031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886E3344-8363-8142-A472-37DF5B7886CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1420" windowWidth="33760" windowHeight="16940" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="286">
   <si>
     <t>application</t>
   </si>
@@ -1703,6 +1703,157 @@
   <si>
     <t>8 mutants, none of which are causing the same failures as the bug</t>
   </si>
+  <si>
+    <t>jsdiff</t>
+  </si>
+  <si>
+    <t>https://github.com/kpdecker/jsdiff</t>
+  </si>
+  <si>
+    <t>f38e47d</t>
+  </si>
+  <si>
+    <t>src/diff/json.js</t>
+  </si>
+  <si>
+    <t>build with "yarn"; run tests using "yarn test"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      if (obj.hasOwnProperty(key)) {</t>
+  </si>
+  <si>
+    <t>1 failing
+  1) diff/json
+       #canonicalize
+         doesn't throw on Object.create(null):
+     AssertionError: expected [Function] to not throw an error but 'TypeError: obj.hasOwnProperty is not a function' was thrown
+      at Context.&lt;anonymous&gt; (test/diff/json.js:968:25)
+      at process.processImmediate (node:internal/timers:483:21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      if (Object.prototype.hasOwnProperty.call(obj, key)) {</t>
+  </si>
+  <si>
+    <t>12 mutants, 2 of which are causing the same failures as the bug</t>
+  </si>
+  <si>
+    <t>12 mutants, 1 of which are causing the same failures as the bug</t>
+  </si>
+  <si>
+    <t>6464b29</t>
+  </si>
+  <si>
+    <t>src/diff/word.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  let tokens = value.split(/(\s+|[()[\]{}'"]|\b)/);</t>
+  </si>
+  <si>
+    <t>let tokens = value.split(/([^\S\r\n]+|[()[\]{}'"\r\n]|\b)/);</t>
+  </si>
+  <si>
+    <t>1 failing
+  1) WordDiff
+       #diffWordsWithSpace
+         should threat newline as separate token (issues #180, #211):
+      AssertionError: expected 'foo&lt;del&gt;\n&lt;/del&gt;&lt;ins&gt;\n\n\n&lt;/ins&gt;bar' to equal 'foo\n&lt;ins&gt;\n\n&lt;/ins&gt;bar'
+      + expected - actual
+      -foo&lt;del&gt;
+      -&lt;/del&gt;&lt;ins&gt;
+      +foo
+      +&lt;ins&gt;
+      -
+       &lt;/ins&gt;bar
+      at Context.&lt;anonymous&gt; (test/diff/word.js:1792:25)
+      at process.processImmediate (node:internal/timers:483:21)</t>
+  </si>
+  <si>
+    <t>6 mutants, none of which are causing the same failures as the bug</t>
+  </si>
+  <si>
+    <t>5 mutants, none of which are causing the same failures as the bug</t>
+  </si>
+  <si>
+    <t>4a899c0</t>
+  </si>
+  <si>
+    <t>if (hunk.newLines == 0) { toPos++; }</t>
+  </si>
+  <si>
+    <t>src/patch/apply.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 failing
+  1) patch/apply #applyPatch should erase a file:
+      AssertionError: expected 'line1' to equal ''
+      + expected - actual
+      -line1
+      at Context.&lt;anonymous&gt; (test/patch/apply.js:433:13)
+      at processImmediate (node:internal/timers:483:21)</t>
+  </si>
+  <si>
+    <t>3 mutants, 3 of which are causing the same failures as the bug</t>
+  </si>
+  <si>
+    <t>3 mutants, 1 of which are causing the same failures as the bug</t>
+  </si>
+  <si>
+    <t>3 mutants, 2 of which are causing the same failures as the bug</t>
+  </si>
+  <si>
+    <t>src/diff/base.js</t>
+  </si>
+  <si>
+    <t>d76ac52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 failing
+  1) patch/create #createPatch should output "no newline" at end of file message on both missing nl:
+      AssertionError: expected 'Index: test\n===================================================================\n--- test\theader1\n+++ test\theader2\n@@ -1,4 +1,4 @@\n line1\n line2\n line3\n-line4\n\\ No newline at end of file\n+line44\n' to equal 'Index: test\n===================================================================\n--- test\theader1\n+++ test\theader2\n@@ -1,4 +1,4 @@\n line1\n line2\n line3\n-line4\n\\ No newline at end of file\n+line44\n\\ No newline at end of file\n'
+      + expected - actual
+        line3
+       -line4
+       +line44
+      +\ No newline at end of file
+      at Context.&lt;anonymous&gt; (test/patch/create.js:93:121)
+      at processImmediate (node:internal/timers:483:21)
+  2) patch/create #createPatch should output only one "no newline" at end of file message on empty file:
+      AssertionError: expected 'Index: test\n===================================================================\n--- test\theader1\n+++ test\theader2\n@@ -1,0 +1,4 @@\n\\ No newline at end of file\n+line1\n+line2\n+line3\n+line4\n' to equal 'Index: test\n===================================================================\n--- test\theader1\n+++ test\theader2\n@@ -1,0 +1,4 @@\n\\ No newline at end of file\n+line1\n+line2\n+line3\n+line4\n\\ No newline at end of file\n'
+      + expected - actual
+       +line1
+       +line2
+       +line3
+       +line4
+      +\ No newline at end of file
+      at Context.&lt;anonymous&gt; (test/patch/create.js:124:94)
+      at processImmediate (node:internal/timers:483:21)</t>
+  </si>
+  <si>
+    <t>if (lines.length == 0 &amp;&amp; !oldEOFNewline) {
+              // special case: old has no eol and no trailing context; no-nl can end up before adds
+              curRange.splice(hunk.oldLines, 0, '\\ No newline at end of file');
+            } else if (!oldEOFNewline || !newEOFNewline) {</t>
+  </si>
+  <si>
+    <t>let noNlBeforeAdds = lines.length == 0 &amp;&amp; curRange.length &gt; hunk.oldLines;
+            if (!oldEOFNewline &amp;&amp; noNlBeforeAdds) {
+              // special case: old has no eol and no trailing context; no-nl can end up before adds
+              curRange.splice(hunk.oldLines, 0, '\\ No newline at end of file');
+            }
+            if ((!oldEOFNewline &amp;&amp; !noNlBeforeAdds) || !newEOFNewline) {</t>
+  </si>
+  <si>
+    <t>75, 79</t>
+  </si>
+  <si>
+    <t>6 mutants, 1 of which is causing the same failures as the bug</t>
+  </si>
+  <si>
+    <t>6 mutants, 3 of which are causing the same failures as the bug</t>
+  </si>
+  <si>
+    <t>6 mutants, 2 of which are causing the same failures as the bug</t>
+  </si>
 </sst>
 </file>
 
@@ -1808,7 +1959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1883,7 +2034,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1891,14 +2054,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2235,11 +2392,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51ED0F3-1512-9640-9294-FF91039F967C}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33:M34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2354,19 +2511,19 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="77" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="29">
         <v>24</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="4">
@@ -2381,28 +2538,28 @@
       <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="88" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="4">
         <v>46</v>
       </c>
@@ -2415,11 +2572,11 @@
       <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="62" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -2642,16 +2799,16 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="63" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="29">
         <v>633</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2686,10 +2843,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="47" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="4" t="s">
         <v>74</v>
       </c>
@@ -2905,19 +3062,19 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="136">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="26">
         <v>679</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="26" t="s">
         <v>115</v>
       </c>
       <c r="F16" s="21">
@@ -2932,28 +3089,28 @@
       <c r="I16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="N16" s="29" t="s">
+      <c r="N16" s="27" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="108" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="4">
         <v>136</v>
       </c>
@@ -2966,17 +3123,17 @@
       <c r="I17" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:15" ht="323">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="30" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="4">
@@ -3000,25 +3157,25 @@
       <c r="I18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="29" t="s">
+      <c r="M18" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="29" t="s">
+      <c r="N18" s="27" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="4"/>
       <c r="D19" s="12"/>
       <c r="E19" s="4"/>
@@ -3026,11 +3183,11 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:15" ht="409.6">
       <c r="A20" s="9" t="s">
@@ -3350,19 +3507,19 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="51">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="29">
         <v>1261</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="26" t="s">
         <v>207</v>
       </c>
       <c r="F27" s="4">
@@ -3377,31 +3534,31 @@
       <c r="I27" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="K27" s="29" t="s">
+      <c r="K27" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="L27" s="29" t="s">
+      <c r="L27" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="M27" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="N27" s="29" t="s">
+      <c r="N27" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="O27" s="25" t="s">
+      <c r="O27" s="26" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="145" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="4">
         <v>91</v>
       </c>
@@ -3414,12 +3571,12 @@
       <c r="I28" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="25"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29" spans="1:15" ht="98" customHeight="1">
       <c r="A29" s="9" t="s">
@@ -3469,19 +3626,19 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="206" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="26">
         <v>789</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="31" t="s">
         <v>228</v>
       </c>
       <c r="F30" s="4">
@@ -3496,31 +3653,31 @@
       <c r="I30" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J30" s="29" t="s">
+      <c r="J30" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="K30" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="M30" s="29" t="s">
+      <c r="M30" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="N30" s="29" t="s">
+      <c r="N30" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="O30" s="25" t="s">
+      <c r="O30" s="26" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="170" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="4">
         <v>37</v>
       </c>
@@ -3533,12 +3690,12 @@
       <c r="I31" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="25"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="26"/>
     </row>
     <row r="32" spans="1:15" ht="221">
       <c r="A32" s="10" t="s">
@@ -3588,22 +3745,22 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="34" customHeight="1">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="26">
         <v>170</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="9">
         <v>84</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -3615,30 +3772,30 @@
       <c r="I33" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="J33" s="29" t="s">
+      <c r="J33" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="K33" s="29" t="s">
+      <c r="K33" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="L33" s="29" t="s">
+      <c r="L33" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="M33" s="29" t="s">
+      <c r="M33" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="N33" s="29" t="s">
+      <c r="N33" s="27" t="s">
         <v>250</v>
       </c>
       <c r="O33" s="9"/>
     </row>
     <row r="34" spans="1:15" ht="201" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="4">
+      <c r="A34" s="26"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="9">
         <v>103</v>
       </c>
       <c r="G34" s="10" t="s">
@@ -3650,31 +3807,236 @@
       <c r="I34" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+    </row>
+    <row r="35" spans="1:15" ht="221">
+      <c r="A35" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="10">
+        <v>493</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F35" s="10">
+        <v>65</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="N35" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="150" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="4">
+        <v>217</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="9">
+        <v>36</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="134" customHeight="1">
+      <c r="A37" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="4">
+        <v>118</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F37" s="9">
+        <v>84</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="109" customHeight="1">
+      <c r="A38" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="4">
+        <v>94</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="L38" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="M38" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="N38" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>257</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="N33:N34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
@@ -3688,39 +4050,22 @@
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E27A36EE-9FB0-E047-A71E-675FC3FCF183}"/>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF03551-0E5D-2947-BB3C-C1945C8E4EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193C4485-0A33-6A4F-8B3D-5DD846C8B1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="500" windowWidth="37900" windowHeight="22400" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
+    <workbookView xWindow="3060" yWindow="500" windowWidth="37900" windowHeight="22400" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="316">
   <si>
     <t>application</t>
   </si>
@@ -55,9 +55,6 @@
   <si>
     <t>https://github.com/manuelmhtr/
 countries-and-timezones</t>
-  </si>
-  <si>
-    <t>issue#</t>
   </si>
   <si>
     <t>orig code</t>
@@ -1941,6 +1938,81 @@
   <si>
     <t>name</t>
   </si>
+  <si>
+    <t>express.js</t>
+  </si>
+  <si>
+    <t>issue/bug#</t>
+  </si>
+  <si>
+    <t>3 mutants, 1 of which is causing the same failures as the bug</t>
+  </si>
+  <si>
+    <t>3 mutants, none of which behave like the original bug</t>
+  </si>
+  <si>
+    <t>https://bugsjs.github.io/</t>
+  </si>
+  <si>
+    <t>if (!trust(this.connection.remoteAddress))</t>
+  </si>
+  <si>
+    <t>if (!trust(this.connection.remoteAddress, 0))</t>
+  </si>
+  <si>
+    <t>see json file</t>
+  </si>
+  <si>
+    <t>lib /request.js</t>
+  </si>
+  <si>
+    <t>hessian.js</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>lib /hexo/post.js</t>
+  </si>
+  <si>
+    <t>50, 207</t>
+  </si>
+  <si>
+    <t>lib /v1/encoder.js</t>
+  </si>
+  <si>
+    <t>if (is.nullOrUndefined(obj)){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (is.nullOrUndefined(obj) || (is.string(obj.$class &amp;&amp; is.nullOrUndefined(obj.$))){ </t>
+  </si>
+  <si>
+    <t>hexo</t>
+  </si>
+  <si>
+    <t>7 mutants, one of which is causing the same failures as the original bug</t>
+  </si>
+  <si>
+    <t>var slug = data.slug = slugize(data.slug, {transform: config.filename_case})</t>
+  </si>
+  <si>
+    <t>var slug = data.slug = slugize(data.slug.toString(), {transform: config.filename_case});</t>
+  </si>
+  <si>
+    <t>karma</t>
+  </si>
+  <si>
+    <t>lib /reporter. Js</t>
+  </si>
+  <si>
+    <t>file &amp;&amp; file .sourceMap</t>
+  </si>
+  <si>
+    <t>file &amp;&amp; file .sourceMap &amp;&amp; line</t>
+  </si>
+  <si>
+    <t>3 mutants, of which 1 is causing the same failures as the original bug</t>
+  </si>
 </sst>
 </file>
 
@@ -2046,7 +2118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2123,11 +2195,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3525,6 +3600,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A7A1-7F41-A6E2-E38A7F21248A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4483,13 +4563,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4835,13 +4915,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51ED0F3-1512-9640-9294-FF91039F967C}">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4873,13 +4953,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4888,43 +4968,43 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -4942,25 +5022,25 @@
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="N2" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="P2" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="M2" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="O2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>255</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>256</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -4987,22 +5067,22 @@
         <v>60</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4">
         <v>30</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="10">
         <v>1</v>
@@ -5026,52 +5106,52 @@
         <v>0</v>
       </c>
       <c r="R3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="V3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="77" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>_xlfn.CONCAT(A4,"-",D4)</f>
         <v>node-jsonfile-24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="12">
         <v>24</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="K4" s="10">
         <v>2</v>
@@ -5095,52 +5175,52 @@
         <v>0</v>
       </c>
       <c r="R4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="62" customHeight="1">
       <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f t="shared" ref="B5:B36" si="0">_xlfn.CONCAT(A5,"-",D5)</f>
+        <v>node-jsonfile-25</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="4" t="str">
-        <f t="shared" ref="B5:B32" si="0">_xlfn.CONCAT(A5,"-",D5)</f>
-        <v>node-jsonfile-25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" s="4">
         <v>25</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="4">
         <v>25</v>
       </c>
       <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K5" s="10">
         <v>0</v>
@@ -5164,52 +5244,52 @@
         <v>0</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="89" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>memfs-870</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4">
         <v>870</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="G6" s="4">
         <v>2069</v>
       </c>
       <c r="H6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="K6" s="10">
         <v>1</v>
@@ -5233,52 +5313,52 @@
         <v>0</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="V6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="161" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>memfs-391</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4">
         <v>391</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="4">
         <v>1884</v>
       </c>
       <c r="H7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="K7" s="10">
         <v>0</v>
@@ -5302,52 +5382,52 @@
         <v>0</v>
       </c>
       <c r="R7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U7" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="V7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="143" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>memfs-853</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="12">
         <v>853</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="12">
         <v>1008</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="K8" s="10">
         <v>0</v>
@@ -5368,55 +5448,55 @@
         <v>2</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="134" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>memfs-59</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4">
         <v>59</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="4">
         <v>847</v>
       </c>
       <c r="H9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="J9" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="K9" s="10">
         <v>0</v>
@@ -5440,52 +5520,52 @@
         <v>1</v>
       </c>
       <c r="R9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="U9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>simple-statistics-633</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="12">
         <v>633</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="J10" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="K10" s="10">
         <v>0</v>
@@ -5509,52 +5589,52 @@
         <v>0</v>
       </c>
       <c r="R10" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="S10" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="T10" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="U10" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="U10" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="V10" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="144" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>simple-statistics-334</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4">
         <v>334</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="G11" s="4">
         <v>72</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="K11" s="10">
         <v>0</v>
@@ -5578,55 +5658,55 @@
         <v>0</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="U11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="U11" s="8" t="s">
+      <c r="V11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="V11" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="W11" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="83" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fast-glob-223</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="4">
         <v>223</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="G12" s="4">
         <v>17</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="K12" s="10">
         <v>0</v>
@@ -5650,55 +5730,55 @@
         <v>0</v>
       </c>
       <c r="R12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="U12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="S12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="V12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="83" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fast-glob-391</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4">
         <v>391</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="G13" s="4">
         <v>12</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="K13" s="10">
         <v>0</v>
@@ -5722,53 +5802,53 @@
         <v>0</v>
       </c>
       <c r="R13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="S13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="V13" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="289">
       <c r="A14" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>node-fs-extra-190</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="4">
         <v>190</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="I14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="J14" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="K14" s="10">
         <v>0</v>
@@ -5792,52 +5872,52 @@
         <v>0</v>
       </c>
       <c r="R14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="T14" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="T14" s="8" t="s">
+      <c r="U14" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="U14" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="V14" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="409.6">
       <c r="A15" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>node-fs-extra-679</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="9">
         <v>679</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>278</v>
+      <c r="G15" s="26" t="s">
+        <v>277</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K15" s="10">
         <v>0</v>
@@ -5861,52 +5941,52 @@
         <v>3</v>
       </c>
       <c r="R15" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="S15" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="S15" s="23" t="s">
+      <c r="T15" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="T15" s="23" t="s">
+      <c r="U15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="U15" s="23" t="s">
+      <c r="V15" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="V15" s="23" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="323">
       <c r="A16" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>node-fs-extra-291</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="4">
         <v>291</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="G16" s="4">
         <v>82</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="K16" s="10">
         <v>0</v>
@@ -5930,52 +6010,52 @@
         <v>0</v>
       </c>
       <c r="R16" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="S16" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="S16" s="23" t="s">
+      <c r="T16" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="T16" s="23" t="s">
+      <c r="U16" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="U16" s="23" t="s">
+      <c r="V16" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="V16" s="23" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="409.6">
       <c r="A17" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>normalize-url-82</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="4">
         <v>82</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="10">
         <v>140</v>
       </c>
       <c r="H17" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="J17" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="K17" s="10">
         <v>0</v>
@@ -5999,55 +6079,55 @@
         <v>0</v>
       </c>
       <c r="R17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="T17" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="U17" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="T17" s="8" t="s">
+      <c r="V17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="W17" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="U17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="149" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>normalize-url-38</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="4">
         <v>38</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="4">
         <v>103</v>
       </c>
       <c r="H18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>129</v>
-      </c>
       <c r="J18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K18" s="10">
         <v>0</v>
@@ -6069,55 +6149,55 @@
         <v>0</v>
       </c>
       <c r="R18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="S18" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="T18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="U18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="T18" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="U18" s="8" t="s">
+      <c r="V18" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="V18" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="W18" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="268" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>yargs-2171</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" s="5">
         <v>2171</v>
       </c>
       <c r="E19" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="G19" s="4">
         <v>1049</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I19" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="K19" s="10">
         <v>0</v>
@@ -6141,55 +6221,55 @@
         <v>0</v>
       </c>
       <c r="R19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="S19" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="T19" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="T19" s="8" t="s">
+      <c r="U19" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="U19" s="8" t="s">
+      <c r="V19" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="V19" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="W19" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="123" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>yargs-1493</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="4">
         <v>1493</v>
       </c>
       <c r="E20" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="G20" s="4">
         <v>275</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="K20" s="10">
         <v>0</v>
@@ -6213,52 +6293,52 @@
         <v>0</v>
       </c>
       <c r="R20" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="S20" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="S20" s="8" t="s">
+      <c r="T20" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="T20" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="U20" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="255">
       <c r="A21" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>yargs-1376</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" s="4">
         <v>1376</v>
       </c>
       <c r="E21" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="G21" s="4">
         <v>22</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="K21" s="10">
         <v>1</v>
@@ -6282,52 +6362,52 @@
         <v>0</v>
       </c>
       <c r="R21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="S21" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="T21" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="T21" s="8" t="s">
+      <c r="U21" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="U21" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="V21" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="238">
       <c r="A22" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>yargs-1422</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="4">
         <v>1422</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="G22" s="10">
         <v>43</v>
       </c>
       <c r="H22" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="J22" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="K22" s="10">
         <v>0</v>
@@ -6351,52 +6431,52 @@
         <v>0</v>
       </c>
       <c r="R22" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="S22" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="S22" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="T22" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="U22" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="U22" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="V22" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="255">
       <c r="A23" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>yargs-1364</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="4">
         <v>1364</v>
       </c>
       <c r="E23" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="G23" s="4">
         <v>105</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K23" s="10">
         <v>0</v>
@@ -6420,52 +6500,52 @@
         <v>0</v>
       </c>
       <c r="R23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S23" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="S23" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="T23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="U23" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="U23" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="V23" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="51" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>css-loader-1261</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>186</v>
+      <c r="C24" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="D24" s="12">
         <v>1261</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="I24" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="J24" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="K24" s="10">
         <v>0</v>
@@ -6489,55 +6569,55 @@
         <v>0</v>
       </c>
       <c r="R24" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="S24" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="S24" s="23" t="s">
+      <c r="T24" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="T24" s="23" t="s">
+      <c r="U24" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="V24" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="U24" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="V24" s="23" t="s">
-        <v>192</v>
-      </c>
       <c r="W24" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="98" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>css-loader-1036</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D25" s="4">
         <v>1036</v>
       </c>
       <c r="E25" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="G25" s="4">
         <v>60</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="K25" s="10">
         <v>0</v>
@@ -6561,55 +6641,55 @@
         <v>0</v>
       </c>
       <c r="R25" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="S25" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="S25" s="8" t="s">
+      <c r="T25" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="T25" s="8" t="s">
+      <c r="U25" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="V25" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="U25" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="V25" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="W25" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="206" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>css-loader-789</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26" s="9">
         <v>789</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="I26" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="J26" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="K26" s="10">
         <v>0</v>
@@ -6633,55 +6713,55 @@
         <v>0</v>
       </c>
       <c r="R26" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="S26" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="S26" s="23" t="s">
-        <v>205</v>
-      </c>
       <c r="T26" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U26" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V26" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="221">
       <c r="A27" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>css-loader-663</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D27" s="9">
         <v>663</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G27" s="9">
         <v>2</v>
       </c>
       <c r="H27" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="K27" s="10">
         <v>0</v>
@@ -6705,55 +6785,55 @@
         <v>0</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W27" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="179" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>compression-170</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>212</v>
+      <c r="C28" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="D28" s="9">
         <v>170</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="K28" s="9">
         <v>0</v>
@@ -6777,53 +6857,53 @@
         <v>0</v>
       </c>
       <c r="R28" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="S28" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="S28" s="23" t="s">
+      <c r="T28" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="T28" s="23" t="s">
+      <c r="U28" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="U28" s="23" t="s">
-        <v>218</v>
-      </c>
       <c r="V28" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W28" s="9"/>
     </row>
     <row r="29" spans="1:23" ht="221">
       <c r="A29" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jsdiff-493</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" s="10">
         <v>493</v>
       </c>
       <c r="E29" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="G29" s="10">
         <v>65</v>
       </c>
       <c r="H29" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="K29" s="10">
         <v>0</v>
@@ -6847,55 +6927,55 @@
         <v>0</v>
       </c>
       <c r="R29" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="S29" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="T29" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="S29" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="T29" s="23" t="s">
-        <v>228</v>
-      </c>
       <c r="U29" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V29" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="150" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jsdiff-217</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" s="9">
         <v>217</v>
       </c>
       <c r="E30" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="G30" s="9">
         <v>36</v>
       </c>
       <c r="H30" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="J30" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="K30" s="10">
         <v>0</v>
@@ -6919,55 +6999,55 @@
         <v>0</v>
       </c>
       <c r="R30" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="S30" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="S30" s="23" t="s">
-        <v>235</v>
-      </c>
       <c r="T30" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U30" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V30" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="134" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jsdiff-118</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D31" s="9">
         <v>118</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G31" s="9">
         <v>84</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K31" s="10">
         <v>0</v>
@@ -6991,55 +7071,55 @@
         <v>0</v>
       </c>
       <c r="R31" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="S31" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="S31" s="23" t="s">
+      <c r="T31" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="U31" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="V31" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="T31" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="U31" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="V31" s="23" t="s">
-        <v>242</v>
-      </c>
       <c r="W31" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="109" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jsdiff-94</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D32" s="9">
         <v>94</v>
       </c>
       <c r="E32" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="K32" s="10">
         <v>0</v>
@@ -7063,22 +7143,270 @@
         <v>0</v>
       </c>
       <c r="R32" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="S32" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="S32" s="23" t="s">
+      <c r="T32" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="U32" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="V32" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="T32" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="U32" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="V32" s="23" t="s">
-        <v>251</v>
-      </c>
       <c r="W32" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="102">
+      <c r="A33" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>express.js-2</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G33" s="9">
+        <v>361</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" s="10">
+        <v>1</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0</v>
+      </c>
+      <c r="M33" s="10">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10">
+        <v>2</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>0</v>
+      </c>
+      <c r="R33" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="S33" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="T33" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="U33" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="V33" s="23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="85">
+      <c r="A34" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>hessian.js-4</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="9">
+        <v>4</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" s="9">
+        <v>302</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10">
+        <v>2</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
+        <v>1</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>0</v>
+      </c>
+      <c r="R34" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+    </row>
+    <row r="35" spans="1:22" ht="102">
+      <c r="A35" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>hexo-12</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" s="9">
+        <v>12</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10">
+        <v>6</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>0</v>
+      </c>
+      <c r="R35" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+    </row>
+    <row r="36" spans="1:22" ht="102">
+      <c r="A36" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>karma-4</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="D36" s="9">
+        <v>4</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" s="9">
+        <v>46</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="K36" s="10">
+        <v>1</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
+        <v>1</v>
+      </c>
+      <c r="O36" s="10">
+        <v>1</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>0</v>
+      </c>
+      <c r="R36" s="23" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -7108,8 +7436,14 @@
     <hyperlink ref="C23" r:id="rId20" xr:uid="{66AB5E01-5AC2-F244-9D6D-B032622F3B5E}"/>
     <hyperlink ref="C26" r:id="rId21" xr:uid="{2C00C4A4-C55C-4A4B-9241-A74FB21466C7}"/>
     <hyperlink ref="C29" r:id="rId22" xr:uid="{A49216BF-8F11-C948-93E1-F811BB1B459E}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{36D5AFC7-1D76-CE46-B021-863F6085CCB4}"/>
+    <hyperlink ref="C28" r:id="rId24" xr:uid="{E789F404-6791-0A47-9319-7FD94AAC66B5}"/>
+    <hyperlink ref="C33" r:id="rId25" xr:uid="{A8AA6EFD-2E9D-3E4E-85E4-8274BD837B08}"/>
+    <hyperlink ref="C34" r:id="rId26" xr:uid="{E5751908-3AF1-DA44-8A24-FF2B149FB5B7}"/>
+    <hyperlink ref="C35" r:id="rId27" xr:uid="{00B2DDE5-D07F-9B47-B3B2-0DBE98F5D303}"/>
+    <hyperlink ref="C36" r:id="rId28" xr:uid="{A69D08C0-DF6C-874B-A5E6-29B4BD6748B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId23"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193C4485-0A33-6A4F-8B3D-5DD846C8B1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B004917-509F-D948-9CA3-4DAB04B51CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="500" windowWidth="37900" windowHeight="22400" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="323">
   <si>
     <t>application</t>
   </si>
@@ -2012,6 +2012,42 @@
   </si>
   <si>
     <t>3 mutants, of which 1 is causing the same failures as the original bug</t>
+  </si>
+  <si>
+    <t>ede0f4f</t>
+  </si>
+  <si>
+    <t>this.wrapAsync(this.closeSync, [fd], callback);</t>
+  </si>
+  <si>
+    <t>const file = this.getFileByFdOrThrow(fd, 'close');
+    // NOTE: not calling closeSync because we can reset in between close and closeSync
+    this.wrapAsync(this.closeFile, [file], callback);</t>
+  </si>
+  <si>
+    <t>" FAIL  src/__tests__/volume.test.ts
+  ● volume › Volume › .reset() › Open streams should not be affected
+    EBADF: bad file descriptor, close
+      144 |
+      145 | export function createError(errorCode: string, func = '', path = '', path2 = '', Constructor = Error) {
+    &gt; 146 |   const error = new Constructor(formatError(errorCode, func, path, path2));
+          |                 ^
+      147 |   (error as any).code = errorCode;
+      148 |
+      149 |   if (path) {
+      at createError (src/node/util.ts:146:17)
+      at Volume.getFileByFdOrThrow (src/volume.ts:544:33)
+      at Volume.closeSync (src/volume.ts:822:23)
+      at Immediate.&lt;anonymous&gt; (src/volume.ts:582:25)"</t>
+  </si>
+  <si>
+    <t>11 mutants, 1 of which causes the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>11 mutants, 0 of which causes the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>11 mutants, 2 of which causes the same failure as the original bug</t>
   </si>
 </sst>
 </file>
@@ -2198,11 +2234,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2271,9 +2307,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$32</c:f>
+              <c:f>Sheet1!$B$3:$B$33</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -2296,72 +2332,75 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -2369,10 +2408,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$32</c:f>
+              <c:f>Sheet1!$K$3:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2395,7 +2434,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2428,11 +2467,11 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2461,6 +2500,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2490,9 +2532,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$32</c:f>
+              <c:f>Sheet1!$B$3:$B$33</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -2515,72 +2557,75 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -2588,10 +2633,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$32</c:f>
+              <c:f>Sheet1!$L$3:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2614,20 +2659,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2638,13 +2683,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -2659,17 +2704,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2680,6 +2725,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2709,9 +2757,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$32</c:f>
+              <c:f>Sheet1!$B$3:$B$33</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -2734,72 +2782,75 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -2807,10 +2858,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$32</c:f>
+              <c:f>Sheet1!$M$3:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2833,38 +2884,38 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2872,33 +2923,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2928,9 +2982,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$32</c:f>
+              <c:f>Sheet1!$B$3:$B$33</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -2953,72 +3007,75 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -3026,10 +3083,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$32</c:f>
+              <c:f>Sheet1!$N$3:$N$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -3052,72 +3109,75 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3150,9 +3210,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$32</c:f>
+              <c:f>Sheet1!$B$3:$B$33</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -3175,72 +3235,75 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -3248,10 +3311,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$32</c:f>
+              <c:f>Sheet1!$O$3:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3274,72 +3337,75 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3369,9 +3435,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$32</c:f>
+              <c:f>Sheet1!$B$3:$B$33</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -3394,72 +3460,75 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -3467,10 +3536,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$32</c:f>
+              <c:f>Sheet1!$P$3:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3493,19 +3562,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3516,12 +3585,12 @@
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3532,11 +3601,11 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3556,6 +3625,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3586,7 +3658,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3600,17 +3672,12 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A7A1-7F41-A6E2-E38A7F21248A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$32</c:f>
+              <c:f>Sheet1!$B$3:$B$33</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -3633,72 +3700,75 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -3706,10 +3776,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$32</c:f>
+              <c:f>Sheet1!$Q$3:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3747,11 +3817,11 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3798,6 +3868,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4563,13 +4636,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4915,13 +4988,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51ED0F3-1512-9640-9294-FF91039F967C}">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4979,15 +5052,15 @@
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
       <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5195,7 +5268,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f t="shared" ref="B5:B36" si="0">_xlfn.CONCAT(A5,"-",D5)</f>
+        <f t="shared" ref="B5:B37" si="0">_xlfn.CONCAT(A5,"-",D5)</f>
         <v>node-jsonfile-25</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -5535,217 +5608,214 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="63" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>63</v>
+    <row r="10" spans="1:26" ht="134" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>simple-statistics-633</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="12">
-        <v>633</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>267</v>
+        <v>memfs-1093</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1093</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="4">
+        <v>830</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>318</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="K10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>5</v>
+      </c>
+      <c r="O10" s="10">
         <v>2</v>
       </c>
-      <c r="N10" s="10">
-        <v>1</v>
-      </c>
-      <c r="O10" s="10">
-        <v>0</v>
-      </c>
       <c r="P10" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="10">
         <v>0</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="144" customHeight="1">
+    <row r="11" spans="1:26" ht="63" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>simple-statistics-334</v>
+        <v>simple-statistics-633</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="4">
-        <v>334</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="4">
-        <v>72</v>
+      <c r="D11" s="12">
+        <v>633</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>69</v>
+        <v>266</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>267</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="K11" s="10">
         <v>0</v>
       </c>
       <c r="L11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="10">
         <v>2</v>
       </c>
       <c r="N11" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O11" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P11" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="10">
         <v>0</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="W11" s="18" t="s">
-        <v>72</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="83" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>77</v>
+    <row r="12" spans="1:26" ht="144" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fast-glob-223</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>78</v>
+        <v>simple-statistics-334</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D12" s="4">
-        <v>223</v>
+        <v>334</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G12" s="4">
-        <v>17</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="K12" s="10">
         <v>0</v>
       </c>
       <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
         <v>2</v>
       </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
       <c r="N12" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O12" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P12" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="10">
         <v>0</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="W12" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="83" customHeight="1">
@@ -5754,46 +5824,46 @@
       </c>
       <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fast-glob-391</v>
+        <v>fast-glob-223</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="4">
-        <v>391</v>
+        <v>223</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>134</v>
+        <v>79</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="G13" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>137</v>
+        <v>83</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="K13" s="10">
         <v>0</v>
       </c>
       <c r="L13" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O13" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P13" s="10">
         <v>3</v>
@@ -5802,80 +5872,82 @@
         <v>0</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="W13" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" ht="289">
+    <row r="14" spans="1:26" ht="83" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>node-fs-extra-190</v>
+        <v>fast-glob-391</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4">
-        <v>190</v>
+        <v>391</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>93</v>
+        <v>133</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="4">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K14" s="10">
         <v>0</v>
       </c>
       <c r="L14" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O14" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="10">
         <v>0</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T14" s="8" t="s">
         <v>97</v>
@@ -5884,40 +5956,41 @@
         <v>98</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="409.6">
+    <row r="15" spans="1:26" ht="289">
       <c r="A15" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>node-fs-extra-679</v>
-      </c>
-      <c r="C15" s="11" t="s">
+        <v>node-fs-extra-190</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="9">
-        <v>679</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>99</v>
+      <c r="D15" s="4">
+        <v>190</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>274</v>
+        <v>90</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="K15" s="10">
         <v>0</v>
@@ -5926,67 +5999,67 @@
         <v>0</v>
       </c>
       <c r="M15" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O15" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P15" s="10">
         <v>0</v>
       </c>
       <c r="Q15" s="10">
-        <v>3</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="T15" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="U15" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="V15" s="23" t="s">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="323">
+    <row r="16" spans="1:26" ht="409.6">
       <c r="A16" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>node-fs-extra-291</v>
+        <v>node-fs-extra-679</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="4">
-        <v>291</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="4">
-        <v>82</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>109</v>
+      <c r="D16" s="9">
+        <v>679</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="K16" s="10">
         <v>0</v>
@@ -5995,67 +6068,67 @@
         <v>0</v>
       </c>
       <c r="M16" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O16" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P16" s="10">
         <v>0</v>
       </c>
       <c r="Q16" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="S16" s="23" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T16" s="23" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="U16" s="23" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="409.6">
+    <row r="17" spans="1:23" ht="323">
       <c r="A17" s="9" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>normalize-url-82</v>
+        <v>node-fs-extra-291</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D17" s="4">
+        <v>291</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="4">
         <v>82</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="10">
-        <v>140</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>121</v>
+      <c r="H17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="K17" s="10">
         <v>0</v>
@@ -6064,10 +6137,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O17" s="10">
         <v>0</v>
@@ -6078,126 +6151,125 @@
       <c r="Q17" s="10">
         <v>0</v>
       </c>
-      <c r="R17" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="T17" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="U17" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>124</v>
+      <c r="R17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="T17" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="U17" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="V17" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="149" customHeight="1">
+    <row r="18" spans="1:23" ht="409.6">
       <c r="A18" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>normalize-url-38</v>
+        <v>normalize-url-82</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D18" s="4">
-        <v>38</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>125</v>
+        <v>82</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="4">
-        <v>103</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>126</v>
+      <c r="G18" s="10">
+        <v>140</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="K18" s="10">
         <v>0</v>
       </c>
       <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
         <v>1</v>
       </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
       <c r="N18" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O18" s="10">
-        <v>1</v>
-      </c>
-      <c r="P18" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0</v>
+      </c>
       <c r="Q18" s="10">
         <v>0</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="W18" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="268" customHeight="1">
+    <row r="19" spans="1:23" ht="149" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>yargs-2171</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="5">
-        <v>2171</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>142</v>
+        <v>normalize-url-38</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="4">
+        <v>38</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="G19" s="4">
-        <v>1049</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>144</v>
+        <v>103</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="K19" s="10">
         <v>0</v>
@@ -6206,142 +6278,143 @@
         <v>1</v>
       </c>
       <c r="M19" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" s="10">
         <v>1</v>
       </c>
-      <c r="P19" s="10">
-        <v>6</v>
-      </c>
+      <c r="P19" s="10"/>
       <c r="Q19" s="10">
         <v>0</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="123" customHeight="1">
+    <row r="20" spans="1:23" ht="268" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>yargs-1493</v>
+        <v>yargs-2171</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="4">
-        <v>1493</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>153</v>
+      <c r="D20" s="5">
+        <v>2171</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="G20" s="4">
-        <v>275</v>
+        <v>1049</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="K20" s="10">
         <v>0</v>
       </c>
       <c r="L20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P20" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="10">
         <v>0</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="255">
+    <row r="21" spans="1:23" ht="123" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>yargs-1376</v>
+        <v>yargs-1493</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D21" s="4">
-        <v>1376</v>
+        <v>1493</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G21" s="4">
-        <v>22</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>164</v>
+        <v>275</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="10">
         <v>0</v>
@@ -6350,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O21" s="10">
         <v>3</v>
@@ -6362,55 +6435,55 @@
         <v>0</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="238">
+    <row r="22" spans="1:23" ht="255">
       <c r="A22" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>yargs-1422</v>
+        <v>yargs-1376</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="4">
-        <v>1422</v>
+        <v>1376</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22" s="10">
-        <v>43</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>172</v>
+        <v>160</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="4">
+        <v>22</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="10">
         <v>0</v>
@@ -6419,11 +6492,11 @@
         <v>0</v>
       </c>
       <c r="N22" s="10">
+        <v>7</v>
+      </c>
+      <c r="O22" s="10">
         <v>3</v>
       </c>
-      <c r="O22" s="10">
-        <v>0</v>
-      </c>
       <c r="P22" s="10">
         <v>0</v>
       </c>
@@ -6431,52 +6504,52 @@
         <v>0</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="255">
+    <row r="23" spans="1:23" ht="238">
       <c r="A23" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>yargs-1364</v>
+        <v>yargs-1422</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D23" s="4">
-        <v>1364</v>
+        <v>1422</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="4">
-        <v>105</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>180</v>
+        <v>170</v>
+      </c>
+      <c r="G23" s="10">
+        <v>43</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K23" s="10">
         <v>0</v>
@@ -6485,13 +6558,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O23" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="10">
         <v>0</v>
@@ -6500,52 +6573,52 @@
         <v>0</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="51" customHeight="1">
+    <row r="24" spans="1:23" ht="255">
       <c r="A24" s="9" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>css-loader-1261</v>
+        <v>yargs-1364</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1261</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>289</v>
+        <v>140</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1364</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="4">
+        <v>105</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="K24" s="10">
         <v>0</v>
@@ -6554,157 +6627,154 @@
         <v>0</v>
       </c>
       <c r="M24" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O24" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P24" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="10">
         <v>0</v>
       </c>
-      <c r="R24" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="S24" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T24" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="U24" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="V24" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>187</v>
+      <c r="R24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="98" customHeight="1">
+    <row r="25" spans="1:23" ht="51" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>css-loader-1036</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>css-loader-1261</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="4">
-        <v>1036</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>192</v>
+      <c r="D25" s="12">
+        <v>1261</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G25" s="4">
-        <v>60</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K25" s="10">
         <v>0</v>
       </c>
       <c r="L25" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M25" s="10">
         <v>0</v>
       </c>
       <c r="N25" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O25" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P25" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="10">
         <v>0</v>
       </c>
-      <c r="R25" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="S25" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="T25" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="U25" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="V25" s="8" t="s">
-        <v>200</v>
+      <c r="R25" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="S25" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="T25" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="U25" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="V25" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="W25" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="206" customHeight="1">
+    <row r="26" spans="1:23" ht="98" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>css-loader-789</v>
-      </c>
-      <c r="C26" s="11" t="s">
+        <v>css-loader-1036</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="9">
-        <v>789</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>280</v>
+      <c r="D26" s="4">
+        <v>1036</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="4">
+        <v>60</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="K26" s="10">
         <v>0</v>
       </c>
       <c r="L26" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M26" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="10">
         <v>0</v>
@@ -6712,69 +6782,69 @@
       <c r="Q26" s="10">
         <v>0</v>
       </c>
-      <c r="R26" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="S26" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="T26" s="23" t="s">
+      <c r="R26" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="U26" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="V26" s="23" t="s">
-        <v>197</v>
+      <c r="S26" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="W26" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="221">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:23" ht="206" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>css-loader-663</v>
-      </c>
-      <c r="C27" s="10" t="s">
+        <v>css-loader-789</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>185</v>
       </c>
       <c r="D27" s="9">
-        <v>663</v>
+        <v>789</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G27" s="9">
-        <v>2</v>
+        <v>201</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="K27" s="10">
         <v>0</v>
       </c>
       <c r="L27" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" s="10">
+        <v>5</v>
+      </c>
+      <c r="N27" s="10">
         <v>1</v>
       </c>
-      <c r="N27" s="10">
-        <v>0</v>
-      </c>
       <c r="O27" s="10">
         <v>0</v>
       </c>
@@ -6784,198 +6854,198 @@
       <c r="Q27" s="10">
         <v>0</v>
       </c>
-      <c r="R27" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="U27" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="V27" s="8" t="s">
-        <v>210</v>
+      <c r="R27" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="S27" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="T27" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="U27" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="V27" s="23" t="s">
+        <v>197</v>
       </c>
       <c r="W27" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="179" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>213</v>
+    <row r="28" spans="1:23" ht="221">
+      <c r="A28" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>compression-170</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>211</v>
+        <v>css-loader-663</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="D28" s="9">
-        <v>170</v>
+        <v>663</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <v>0</v>
-      </c>
-      <c r="N28" s="9">
-        <v>5</v>
-      </c>
-      <c r="O28" s="9">
-        <v>5</v>
-      </c>
-      <c r="P28" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>0</v>
-      </c>
-      <c r="R28" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="S28" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="T28" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="U28" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="V28" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="W28" s="9"/>
+        <v>206</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0</v>
+      </c>
+      <c r="L28" s="10">
+        <v>2</v>
+      </c>
+      <c r="M28" s="10">
+        <v>1</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="U28" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" ht="221">
-      <c r="A29" s="10" t="s">
-        <v>218</v>
+    <row r="29" spans="1:23" ht="179" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>jsdiff-493</v>
+        <v>compression-170</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29" s="10">
-        <v>493</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G29" s="10">
-        <v>65</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="K29" s="10">
-        <v>0</v>
-      </c>
-      <c r="L29" s="10">
-        <v>0</v>
-      </c>
-      <c r="M29" s="10">
-        <v>2</v>
-      </c>
-      <c r="N29" s="10">
-        <v>8</v>
-      </c>
-      <c r="O29" s="10">
-        <v>2</v>
-      </c>
-      <c r="P29" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="10">
+        <v>211</v>
+      </c>
+      <c r="D29" s="9">
+        <v>170</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>5</v>
+      </c>
+      <c r="O29" s="9">
+        <v>5</v>
+      </c>
+      <c r="P29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
         <v>0</v>
       </c>
       <c r="R29" s="23" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="S29" s="23" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="T29" s="23" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="U29" s="23" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="V29" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>222</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="W29" s="9"/>
     </row>
-    <row r="30" spans="1:23" ht="150" customHeight="1">
+    <row r="30" spans="1:23" ht="221">
       <c r="A30" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>jsdiff-217</v>
-      </c>
-      <c r="C30" s="10" t="s">
+        <v>jsdiff-493</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D30" s="9">
-        <v>217</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>228</v>
+      <c r="D30" s="10">
+        <v>493</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G30" s="9">
-        <v>36</v>
+        <v>221</v>
+      </c>
+      <c r="G30" s="10">
+        <v>65</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="K30" s="10">
         <v>0</v>
@@ -6984,13 +7054,13 @@
         <v>0</v>
       </c>
       <c r="M30" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O30" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30" s="10">
         <v>0</v>
@@ -6999,55 +7069,55 @@
         <v>0</v>
       </c>
       <c r="R30" s="23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="S30" s="23" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="T30" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="U30" s="23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="V30" s="23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="134" customHeight="1">
+    <row r="31" spans="1:23" ht="150" customHeight="1">
       <c r="A31" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>jsdiff-118</v>
+        <v>jsdiff-217</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D31" s="9">
-        <v>118</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>235</v>
+        <v>217</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G31" s="9">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K31" s="10">
         <v>0</v>
@@ -7056,10 +7126,10 @@
         <v>0</v>
       </c>
       <c r="M31" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N31" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O31" s="10">
         <v>0</v>
@@ -7071,55 +7141,55 @@
         <v>0</v>
       </c>
       <c r="R31" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="S31" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="T31" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="U31" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="V31" s="23" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="W31" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="109" customHeight="1">
+    <row r="32" spans="1:23" ht="134" customHeight="1">
       <c r="A32" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>jsdiff-94</v>
-      </c>
-      <c r="C32" s="5" t="s">
+        <v>jsdiff-118</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D32" s="9">
-        <v>94</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>243</v>
+        <v>118</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>247</v>
+        <v>237</v>
+      </c>
+      <c r="G32" s="9">
+        <v>84</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>246</v>
+        <v>208</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K32" s="10">
         <v>0</v>
@@ -7128,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O32" s="10">
         <v>0</v>
@@ -7143,67 +7213,67 @@
         <v>0</v>
       </c>
       <c r="R32" s="23" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="S32" s="23" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="T32" s="23" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="U32" s="23" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="V32" s="23" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="W32" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="102">
+    <row r="33" spans="1:23" ht="109" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="B33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>express.js-2</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>295</v>
+        <v>jsdiff-94</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="D33" s="9">
-        <v>2</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>301</v>
+        <v>94</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>243</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G33" s="9">
-        <v>361</v>
+        <v>242</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>298</v>
+        <v>246</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="K33" s="10">
+        <v>0</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0</v>
+      </c>
+      <c r="M33" s="10">
         <v>1</v>
       </c>
-      <c r="L33" s="10">
-        <v>0</v>
-      </c>
-      <c r="M33" s="10">
-        <v>0</v>
-      </c>
       <c r="N33" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O33" s="10">
         <v>0</v>
@@ -7215,65 +7285,68 @@
         <v>0</v>
       </c>
       <c r="R33" s="23" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="S33" s="23" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="T33" s="23" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="U33" s="23" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="V33" s="23" t="s">
-        <v>293</v>
+        <v>250</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="85">
+    <row r="34" spans="1:23" ht="102">
       <c r="A34" s="10" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>hessian.js-4</v>
-      </c>
-      <c r="C34" s="28" t="s">
+        <v>express.js-2</v>
+      </c>
+      <c r="C34" s="27" t="s">
         <v>295</v>
       </c>
       <c r="D34" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>301</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G34" s="9">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>298</v>
       </c>
       <c r="K34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="10">
+        <v>0</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
         <v>2</v>
       </c>
-      <c r="M34" s="10">
-        <v>0</v>
-      </c>
-      <c r="N34" s="10">
-        <v>1</v>
-      </c>
       <c r="O34" s="10">
         <v>0</v>
       </c>
@@ -7284,57 +7357,65 @@
         <v>0</v>
       </c>
       <c r="R34" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
+        <v>293</v>
+      </c>
+      <c r="S34" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="T34" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="U34" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="V34" s="23" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="35" spans="1:22" ht="102">
+    <row r="35" spans="1:23" ht="85">
       <c r="A35" s="10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>hexo-12</v>
-      </c>
-      <c r="C35" s="28" t="s">
+        <v>hessian.js-4</v>
+      </c>
+      <c r="C35" s="27" t="s">
         <v>295</v>
       </c>
       <c r="D35" s="9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>301</v>
       </c>
       <c r="F35" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" s="9">
         <v>302</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="H35" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>298</v>
       </c>
       <c r="K35" s="10">
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
+        <v>2</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10">
         <v>1</v>
       </c>
-      <c r="L35" s="10">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0</v>
-      </c>
-      <c r="N35" s="10">
-        <v>6</v>
-      </c>
       <c r="O35" s="10">
         <v>0</v>
       </c>
@@ -7345,41 +7426,41 @@
         <v>0</v>
       </c>
       <c r="R35" s="23" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
       <c r="S35" s="23"/>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
       <c r="V35" s="23"/>
     </row>
-    <row r="36" spans="1:22" ht="102">
+    <row r="36" spans="1:23" ht="102">
       <c r="A36" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>karma-4</v>
-      </c>
-      <c r="C36" s="28" t="s">
+        <v>hexo-12</v>
+      </c>
+      <c r="C36" s="27" t="s">
         <v>295</v>
       </c>
       <c r="D36" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>301</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="G36" s="9">
-        <v>46</v>
+        <v>302</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>298</v>
@@ -7394,18 +7475,79 @@
         <v>0</v>
       </c>
       <c r="N36" s="10">
+        <v>6</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>0</v>
+      </c>
+      <c r="R36" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+    </row>
+    <row r="37" spans="1:23" ht="102">
+      <c r="A37" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>karma-4</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D37" s="9">
+        <v>4</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" s="9">
+        <v>46</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="K37" s="10">
         <v>1</v>
       </c>
-      <c r="O36" s="10">
+      <c r="L37" s="10">
+        <v>0</v>
+      </c>
+      <c r="M37" s="10">
+        <v>0</v>
+      </c>
+      <c r="N37" s="10">
         <v>1</v>
       </c>
-      <c r="P36" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>0</v>
-      </c>
-      <c r="R36" s="23" t="s">
+      <c r="O37" s="10">
+        <v>1</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>0</v>
+      </c>
+      <c r="R37" s="23" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7420,30 +7562,31 @@
     <hyperlink ref="C7" r:id="rId4" xr:uid="{49750F05-4F3E-C64B-89B9-9927A24D7737}"/>
     <hyperlink ref="C8" r:id="rId5" xr:uid="{AB9282DB-2D31-EC40-9025-F65792BF479F}"/>
     <hyperlink ref="C9" r:id="rId6" xr:uid="{FB31A907-66F2-DC4D-8F4D-12BEEACD8CF7}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{AC7A5222-A141-C547-B4BA-A7E369D48987}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{41F9A05E-9545-404F-A59A-61F1736A4433}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{CA013061-61BF-484C-92F0-C139B056E531}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{85212475-E9DF-9346-B54D-00A6479F5031}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{7B51BD02-178C-1243-84F3-869E36370B44}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{D7C44975-8CD0-F54B-A507-870B5816BA89}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{7D380E9C-453B-A64F-A27A-1EF0A86A1B49}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{6685889E-162C-1147-8EC1-EA437BD2A95E}"/>
-    <hyperlink ref="C13" r:id="rId15" xr:uid="{B510CA73-1773-BE49-9F6E-5407851B6E20}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{FB6CB3FC-3081-A64F-BF1D-560168F9B529}"/>
-    <hyperlink ref="C20" r:id="rId17" xr:uid="{FF9570AC-60A1-D444-AAF7-50C94C4DB2E5}"/>
-    <hyperlink ref="C21" r:id="rId18" xr:uid="{6E4A7E09-8537-8D4A-A1BD-83E05228AEC9}"/>
-    <hyperlink ref="C22" r:id="rId19" xr:uid="{A06EAAC5-2858-3344-9B3E-7B83CCAAD5BA}"/>
-    <hyperlink ref="C23" r:id="rId20" xr:uid="{66AB5E01-5AC2-F244-9D6D-B032622F3B5E}"/>
-    <hyperlink ref="C26" r:id="rId21" xr:uid="{2C00C4A4-C55C-4A4B-9241-A74FB21466C7}"/>
-    <hyperlink ref="C29" r:id="rId22" xr:uid="{A49216BF-8F11-C948-93E1-F811BB1B459E}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{36D5AFC7-1D76-CE46-B021-863F6085CCB4}"/>
-    <hyperlink ref="C28" r:id="rId24" xr:uid="{E789F404-6791-0A47-9319-7FD94AAC66B5}"/>
-    <hyperlink ref="C33" r:id="rId25" xr:uid="{A8AA6EFD-2E9D-3E4E-85E4-8274BD837B08}"/>
-    <hyperlink ref="C34" r:id="rId26" xr:uid="{E5751908-3AF1-DA44-8A24-FF2B149FB5B7}"/>
-    <hyperlink ref="C35" r:id="rId27" xr:uid="{00B2DDE5-D07F-9B47-B3B2-0DBE98F5D303}"/>
-    <hyperlink ref="C36" r:id="rId28" xr:uid="{A69D08C0-DF6C-874B-A5E6-29B4BD6748B2}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{AC7A5222-A141-C547-B4BA-A7E369D48987}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{41F9A05E-9545-404F-A59A-61F1736A4433}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{CA013061-61BF-484C-92F0-C139B056E531}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{85212475-E9DF-9346-B54D-00A6479F5031}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{7B51BD02-178C-1243-84F3-869E36370B44}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{D7C44975-8CD0-F54B-A507-870B5816BA89}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{7D380E9C-453B-A64F-A27A-1EF0A86A1B49}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{6685889E-162C-1147-8EC1-EA437BD2A95E}"/>
+    <hyperlink ref="C14" r:id="rId15" xr:uid="{B510CA73-1773-BE49-9F6E-5407851B6E20}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{FB6CB3FC-3081-A64F-BF1D-560168F9B529}"/>
+    <hyperlink ref="C21" r:id="rId17" xr:uid="{FF9570AC-60A1-D444-AAF7-50C94C4DB2E5}"/>
+    <hyperlink ref="C22" r:id="rId18" xr:uid="{6E4A7E09-8537-8D4A-A1BD-83E05228AEC9}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{A06EAAC5-2858-3344-9B3E-7B83CCAAD5BA}"/>
+    <hyperlink ref="C24" r:id="rId20" xr:uid="{66AB5E01-5AC2-F244-9D6D-B032622F3B5E}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{2C00C4A4-C55C-4A4B-9241-A74FB21466C7}"/>
+    <hyperlink ref="C30" r:id="rId22" xr:uid="{A49216BF-8F11-C948-93E1-F811BB1B459E}"/>
+    <hyperlink ref="C25" r:id="rId23" xr:uid="{36D5AFC7-1D76-CE46-B021-863F6085CCB4}"/>
+    <hyperlink ref="C29" r:id="rId24" xr:uid="{E789F404-6791-0A47-9319-7FD94AAC66B5}"/>
+    <hyperlink ref="C34" r:id="rId25" xr:uid="{A8AA6EFD-2E9D-3E4E-85E4-8274BD837B08}"/>
+    <hyperlink ref="C35" r:id="rId26" xr:uid="{E5751908-3AF1-DA44-8A24-FF2B149FB5B7}"/>
+    <hyperlink ref="C36" r:id="rId27" xr:uid="{00B2DDE5-D07F-9B47-B3B2-0DBE98F5D303}"/>
+    <hyperlink ref="C37" r:id="rId28" xr:uid="{A69D08C0-DF6C-874B-A5E6-29B4BD6748B2}"/>
+    <hyperlink ref="C10" r:id="rId29" xr:uid="{88CB6850-3D4E-A343-8E95-923612884512}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>
--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B004917-509F-D948-9CA3-4DAB04B51CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114090F8-80F9-504C-8680-F18A23ACC70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="500" windowWidth="37900" windowHeight="22400" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="329">
   <si>
     <t>application</t>
   </si>
@@ -2048,6 +2048,168 @@
   </si>
   <si>
     <t>11 mutants, 2 of which causes the same failure as the original bug</t>
+  </si>
+  <si>
+    <t>711c4bd</t>
+  </si>
+  <si>
+    <t>src/Dirent.ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dirent.path = link.getPath();</t>
+  </si>
+  <si>
+    <t>dirent.path = link.getParentPath();</t>
+  </si>
+  <si>
+    <t>" FAIL  src/__tests__/volume/readdirSync.test.ts
+  ● readdirSync() › accepts option {withFileTypes: true}
+    expect(received).toEqual(expected) // deep equality
+    - Expected  - 3
+    + Received  + 3
+      Array [
+        Object {
+          ""mode"": 33206,
+          ""name"": ""af"",
+    -     ""path"": ""/x"",
+    +     ""path"": ""/x/af"",
+        },
+        Object {
+          ""mode"": 16895,
+          ""name"": ""b"",
+    -     ""path"": ""/x"",
+    +     ""path"": ""/x/b"",
+        },
+        Object {
+          ""mode"": 16895,
+          ""name"": ""c"",
+    -     ""path"": ""/x"",
+    +     ""path"": ""/x/c"",
+        },
+      ]
+      67 |       return { ...dirent };
+      68 |     });
+    &gt; 69 |     expect(mapped).toEqual([
+         |                    ^
+      70 |       { mode: 33206, name: 'af', path: '/x' },
+      71 |       { mode: 16895, name: 'b', path: '/x' },
+      72 |       { mode: 16895, name: 'c', path: '/x' },
+      at Object.&lt;anonymous&gt; (src/__tests__/volume/readdirSync.test.ts:69:20)
+  ● readdirSync() › accepts option {recursive: true}
+    expect(received).toEqual(expected) // deep equality
+    - Expected  - 9
+    + Received  + 9
+      Array [
+    -   ""af1"",
+    -   ""af2"",
+    -   ""b"",
+    -   ""b/bf1"",
+    -   ""b/bf2"",
+    -   ""c"",
+    +   ""af1/af1"",
+    +   ""af2/af2"",
+    +   ""b/b"",
+    +   ""b/bf1/bf1"",
+    +   ""b/bf2/bf2"",
+        ""c/c"",
+    -   ""c/c/.cf0"",
+    -   ""c/c/cf1"",
+    -   ""c/c/cf2"",
+    +   ""c/c/.cf0/.cf0"",
+    +   ""c/c/c"",
+    +   ""c/c/cf1/cf1"",
+    +   ""c/c/cf2/cf2"",
+      ]
+      86 |     const all = vol.readdirSync('/y', { recursive: true });
+      87 |     (all as any).sort();
+    &gt; 88 |     expect(all).toEqual(['af1', 'af2', 'b', 'b/bf1', 'b/bf2', 'c', 'c/c', 'c/c/.cf0', 'c/c/cf1', 'c/c/cf2']);
+         |                 ^
+      89 |   });
+      90 |
+      91 |   it('accepts option {recursive: true, withFileTypes: true}', () =&gt; {
+      at Object.&lt;anonymous&gt; (src/__tests__/volume/readdirSync.test.ts:88:17)
+  ● readdirSync() › accepts option {recursive: true, withFileTypes: true}
+    expect(received).toEqual(expected) // deep equality
+    - Expected  - 13
+    + Received  + 13
+      Array [
+        Object {
+          ""mode"": 33206,
+          ""name"": ""af1"",
+    -     ""path"": ""/z"",
+    +     ""path"": ""/z/af1"",
+        },
+        Object {
+          ""mode"": 33206,
+          ""name"": ""af2"",
+    -     ""path"": ""/z"",
+    +     ""path"": ""/z/af2"",
+        },
+        Object {
+          ""mode"": 16895,
+          ""name"": ""b"",
+    -     ""path"": ""/z"",
+    -   },
+    -   Object {
+    -     ""mode"": 16895,
+    -     ""name"": ""c"",
+    -     ""path"": ""/z"",
+    +     ""path"": ""/z/b"",
+        },
+        Object {
+          ""mode"": 33206,
+          ""name"": ""bf1"",
+    -     ""path"": ""/z/b"",
+    +     ""path"": ""/z/b/bf1"",
+        },
+        Object {
+          ""mode"": 33206,
+          ""name"": ""bf2"",
+    -     ""path"": ""/z/b"",
+    +     ""path"": ""/z/b/bf2"",
+        },
+        Object {
+          ""mode"": 16895,
+          ""name"": ""c"",
+          ""path"": ""/z/c"",
+    +   },
+    +   Object {
+    +     ""mode"": 16895,
+    +     ""name"": ""c"",
+    +     ""path"": ""/z/c/c"",
+        },
+        Object {
+          ""mode"": 33206,
+          ""name"": "".cf0"",
+    -     ""path"": ""/z/c/c"",
+    +     ""path"": ""/z/c/c/.cf0"",
+        },
+        Object {
+          ""mode"": 33206,
+          ""name"": ""cf1"",
+    -     ""path"": ""/z/c/c"",
+    +     ""path"": ""/z/c/c/cf1"",
+        },
+        Object {
+          ""mode"": 33206,
+          ""name"": ""cf2"",
+    -     ""path"": ""/z/c/c"",
+    +     ""path"": ""/z/c/c/cf2"",
+        },
+      ]
+      105 |       })
+      106 |       .sort((a, b) =&gt; a.path.localeCompare(b.path));
+    &gt; 107 |     expect(mapped).toEqual([
+          |                    ^
+      108 |       { mode: 33206, name: 'af1', path: '/z' },
+      109 |       { mode: 33206, name: 'af2', path: '/z' },
+      110 |       { mode: 16895, name: 'b', path: '/z' },
+      at Object.&lt;anonymous&gt; (src/__tests__/volume/readdirSync.test.ts:107:20)
+Test Suites: 1 failed, 49 passed, 50 total
+Tests:       3 failed, 16 skipped, 869 passed, 888 total"</t>
+  </si>
+  <si>
+    <t>3 mutants, of which 1 is identical to the original bug</t>
   </si>
 </sst>
 </file>
@@ -2307,9 +2469,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$33</c:f>
+              <c:f>Sheet1!$B$3:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -2332,75 +2494,78 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>memfs-1093</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -2408,10 +2573,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$33</c:f>
+              <c:f>Sheet1!$K$3:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2437,7 +2602,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2470,11 +2635,11 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2503,6 +2668,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2532,9 +2700,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$33</c:f>
+              <c:f>Sheet1!$B$3:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -2557,75 +2725,78 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>memfs-1093</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -2633,10 +2804,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$33</c:f>
+              <c:f>Sheet1!$L$3:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2662,20 +2833,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2686,13 +2857,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -2707,17 +2878,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2728,6 +2899,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2757,9 +2931,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$33</c:f>
+              <c:f>Sheet1!$B$3:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -2782,75 +2956,78 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>memfs-1093</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -2858,10 +3035,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$33</c:f>
+              <c:f>Sheet1!$M$3:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2887,38 +3064,38 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2926,33 +3103,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2982,9 +3162,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$33</c:f>
+              <c:f>Sheet1!$B$3:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -3007,75 +3187,78 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>memfs-1093</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -3083,10 +3266,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$33</c:f>
+              <c:f>Sheet1!$N$3:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -3109,75 +3292,78 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3210,9 +3396,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$33</c:f>
+              <c:f>Sheet1!$B$3:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -3235,75 +3421,78 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>memfs-1093</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -3311,10 +3500,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$33</c:f>
+              <c:f>Sheet1!$O$3:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3337,75 +3526,78 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3435,9 +3627,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$33</c:f>
+              <c:f>Sheet1!$B$3:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -3460,75 +3652,78 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>memfs-1093</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -3536,10 +3731,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$33</c:f>
+              <c:f>Sheet1!$P$3:$P$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3562,22 +3757,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3588,12 +3783,12 @@
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3604,11 +3799,11 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3628,6 +3823,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3658,7 +3856,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="13"/>
+            <c:idx val="14"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3675,9 +3873,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$33</c:f>
+              <c:f>Sheet1!$B$3:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
@@ -3700,75 +3898,78 @@
                   <c:v>memfs-59</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>memfs-1093</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>simple-statistics-334</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>fast-glob-223</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>fast-glob-391</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>node-fs-extra-190</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>node-fs-extra-679</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>node-fs-extra-291</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>normalize-url-82</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>normalize-url-38</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>yargs-2171</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>yargs-1493</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>yargs-1422</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>yargs-1364</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>css-loader-1261</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>css-loader-1036</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>css-loader-789</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>css-loader-663</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>compression-170</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>jsdiff-493</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>jsdiff-217</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>jsdiff-118</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
@@ -3776,10 +3977,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$33</c:f>
+              <c:f>Sheet1!$Q$3:$Q$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3820,11 +4021,11 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3871,6 +4072,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4636,13 +4840,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4988,13 +5192,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51ED0F3-1512-9640-9294-FF91039F967C}">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10:E10"/>
+      <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5268,7 +5472,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f t="shared" ref="B5:B37" si="0">_xlfn.CONCAT(A5,"-",D5)</f>
+        <f t="shared" ref="B5:B38" si="0">_xlfn.CONCAT(A5,"-",D5)</f>
         <v>node-jsonfile-25</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -5613,281 +5817,278 @@
         <v>35</v>
       </c>
       <c r="B10" s="4" t="str">
+        <f t="shared" ref="B10" si="1">_xlfn.CONCAT(A10,"-",D10)</f>
+        <v>memfs-1024</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1024</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="4">
+        <v>18</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="134" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>memfs-1093</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>1093</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="4">
         <v>830</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
         <v>5</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O11" s="10">
         <v>2</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P11" s="10">
         <v>3</v>
       </c>
-      <c r="Q10" s="10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="8" t="s">
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S11" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T11" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="U11" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="V11" s="8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="63" customHeight="1">
-      <c r="A11" s="10" t="s">
+    <row r="12" spans="1:26" ht="63" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>simple-statistics-633</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <v>633</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I12" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K11" s="10">
-        <v>0</v>
-      </c>
-      <c r="L11" s="10">
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
         <v>1</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M12" s="10">
         <v>2</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N12" s="10">
         <v>1</v>
       </c>
-      <c r="O11" s="10">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
         <v>2</v>
       </c>
-      <c r="Q11" s="10">
-        <v>0</v>
-      </c>
-      <c r="R11" s="8" t="s">
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S12" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="T12" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="U11" s="8" t="s">
+      <c r="U12" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="V11" s="8" t="s">
+      <c r="V12" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="144" customHeight="1">
-      <c r="A12" s="10" t="s">
+    <row r="13" spans="1:26" ht="144" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>simple-statistics-334</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="4">
         <v>334</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <v>72</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="10">
-        <v>0</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
         <v>2</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N13" s="10">
         <v>5</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O13" s="10">
         <v>3</v>
       </c>
-      <c r="P12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8" t="s">
+      <c r="P13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="U12" s="8" t="s">
+      <c r="U13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="V12" s="8" t="s">
+      <c r="V13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="W12" s="18" t="s">
+      <c r="W13" s="18" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="83" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>fast-glob-223</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="4">
-        <v>223</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="4">
-        <v>17</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0</v>
-      </c>
-      <c r="L13" s="10">
-        <v>2</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <v>7</v>
-      </c>
-      <c r="O13" s="10">
-        <v>4</v>
-      </c>
-      <c r="P13" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>0</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="83" customHeight="1">
@@ -5896,46 +6097,46 @@
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>fast-glob-391</v>
+        <v>fast-glob-223</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="4">
-        <v>391</v>
+        <v>223</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>134</v>
+        <v>79</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="G14" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>137</v>
+        <v>83</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="K14" s="10">
         <v>0</v>
       </c>
       <c r="L14" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O14" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P14" s="10">
         <v>3</v>
@@ -5944,80 +6145,82 @@
         <v>0</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="W14" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" ht="289">
+    <row r="15" spans="1:26" ht="83" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>node-fs-extra-190</v>
+        <v>fast-glob-391</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D15" s="4">
-        <v>190</v>
+        <v>391</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>93</v>
+        <v>133</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="4">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="K15" s="10">
         <v>0</v>
       </c>
       <c r="L15" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O15" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q15" s="10">
         <v>0</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T15" s="8" t="s">
         <v>97</v>
@@ -6026,40 +6229,41 @@
         <v>98</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>96</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="409.6">
+    <row r="16" spans="1:26" ht="289">
       <c r="A16" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>node-fs-extra-679</v>
-      </c>
-      <c r="C16" s="11" t="s">
+        <v>node-fs-extra-190</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="9">
-        <v>679</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>99</v>
+      <c r="D16" s="4">
+        <v>190</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>274</v>
+        <v>90</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="K16" s="10">
         <v>0</v>
@@ -6068,67 +6272,67 @@
         <v>0</v>
       </c>
       <c r="M16" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O16" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P16" s="10">
         <v>0</v>
       </c>
       <c r="Q16" s="10">
-        <v>3</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="T16" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="U16" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="V16" s="23" t="s">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="323">
+    <row r="17" spans="1:23" ht="409.6">
       <c r="A17" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>node-fs-extra-291</v>
+        <v>node-fs-extra-679</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="4">
-        <v>291</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="4">
-        <v>82</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>109</v>
+      <c r="D17" s="9">
+        <v>679</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="K17" s="10">
         <v>0</v>
@@ -6137,67 +6341,67 @@
         <v>0</v>
       </c>
       <c r="M17" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O17" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17" s="10">
         <v>0</v>
       </c>
       <c r="Q17" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T17" s="23" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="U17" s="23" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="V17" s="23" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="409.6">
+    <row r="18" spans="1:23" ht="323">
       <c r="A18" s="9" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>normalize-url-82</v>
+        <v>node-fs-extra-291</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D18" s="4">
+        <v>291</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="4">
         <v>82</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="10">
-        <v>140</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>121</v>
+      <c r="H18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="K18" s="10">
         <v>0</v>
@@ -6206,10 +6410,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O18" s="10">
         <v>0</v>
@@ -6220,126 +6424,125 @@
       <c r="Q18" s="10">
         <v>0</v>
       </c>
-      <c r="R18" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="U18" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="V18" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="W18" s="8" t="s">
-        <v>124</v>
+      <c r="R18" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="S18" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="T18" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="U18" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="V18" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="149" customHeight="1">
+    <row r="19" spans="1:23" ht="409.6">
       <c r="A19" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>normalize-url-38</v>
+        <v>normalize-url-82</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D19" s="4">
-        <v>38</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>125</v>
+        <v>82</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="4">
-        <v>103</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>126</v>
+      <c r="G19" s="10">
+        <v>140</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="K19" s="10">
         <v>0</v>
       </c>
       <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
         <v>1</v>
       </c>
-      <c r="M19" s="10">
-        <v>0</v>
-      </c>
       <c r="N19" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O19" s="10">
-        <v>1</v>
-      </c>
-      <c r="P19" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0</v>
+      </c>
       <c r="Q19" s="10">
         <v>0</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="W19" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="268" customHeight="1">
+    <row r="20" spans="1:23" ht="149" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>yargs-2171</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="5">
-        <v>2171</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>142</v>
+        <v>normalize-url-38</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="4">
+        <v>38</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="G20" s="4">
-        <v>1049</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>144</v>
+        <v>103</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="K20" s="10">
         <v>0</v>
@@ -6348,142 +6551,143 @@
         <v>1</v>
       </c>
       <c r="M20" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O20" s="10">
         <v>1</v>
       </c>
-      <c r="P20" s="10">
-        <v>6</v>
-      </c>
+      <c r="P20" s="10"/>
       <c r="Q20" s="10">
         <v>0</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="123" customHeight="1">
+    <row r="21" spans="1:23" ht="268" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>yargs-1493</v>
+        <v>yargs-2171</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="4">
-        <v>1493</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>153</v>
+      <c r="D21" s="5">
+        <v>2171</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="G21" s="4">
-        <v>275</v>
+        <v>1049</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="K21" s="10">
         <v>0</v>
       </c>
       <c r="L21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N21" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P21" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q21" s="10">
         <v>0</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="255">
+    <row r="22" spans="1:23" ht="123" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>yargs-1376</v>
+        <v>yargs-1493</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="4">
-        <v>1376</v>
+        <v>1493</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G22" s="4">
-        <v>22</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>164</v>
+        <v>275</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K22" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="10">
         <v>0</v>
@@ -6492,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O22" s="10">
         <v>3</v>
@@ -6504,55 +6708,55 @@
         <v>0</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="238">
+    <row r="23" spans="1:23" ht="255">
       <c r="A23" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>yargs-1422</v>
+        <v>yargs-1376</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D23" s="4">
-        <v>1422</v>
+        <v>1376</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="10">
-        <v>43</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>172</v>
+        <v>160</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="4">
+        <v>22</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K23" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="10">
         <v>0</v>
@@ -6561,11 +6765,11 @@
         <v>0</v>
       </c>
       <c r="N23" s="10">
+        <v>7</v>
+      </c>
+      <c r="O23" s="10">
         <v>3</v>
       </c>
-      <c r="O23" s="10">
-        <v>0</v>
-      </c>
       <c r="P23" s="10">
         <v>0</v>
       </c>
@@ -6573,52 +6777,52 @@
         <v>0</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="255">
+    <row r="24" spans="1:23" ht="238">
       <c r="A24" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>yargs-1364</v>
+        <v>yargs-1422</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D24" s="4">
-        <v>1364</v>
+        <v>1422</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24" s="4">
-        <v>105</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>180</v>
+        <v>170</v>
+      </c>
+      <c r="G24" s="10">
+        <v>43</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K24" s="10">
         <v>0</v>
@@ -6627,13 +6831,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O24" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="10">
         <v>0</v>
@@ -6642,52 +6846,52 @@
         <v>0</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="51" customHeight="1">
+    <row r="25" spans="1:23" ht="255">
       <c r="A25" s="9" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>css-loader-1261</v>
+        <v>yargs-1364</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1261</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>289</v>
+        <v>140</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1364</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="4">
+        <v>105</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="K25" s="10">
         <v>0</v>
@@ -6696,157 +6900,154 @@
         <v>0</v>
       </c>
       <c r="M25" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O25" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P25" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="10">
         <v>0</v>
       </c>
-      <c r="R25" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="S25" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T25" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="U25" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="V25" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="W25" s="9" t="s">
-        <v>187</v>
+      <c r="R25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="98" customHeight="1">
+    <row r="26" spans="1:23" ht="51" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>css-loader-1036</v>
-      </c>
-      <c r="C26" s="5" t="s">
+        <v>css-loader-1261</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="4">
-        <v>1036</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>192</v>
+      <c r="D26" s="12">
+        <v>1261</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G26" s="4">
-        <v>60</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="K26" s="10">
         <v>0</v>
       </c>
       <c r="L26" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M26" s="10">
         <v>0</v>
       </c>
       <c r="N26" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O26" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P26" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="10">
         <v>0</v>
       </c>
-      <c r="R26" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="T26" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="U26" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="V26" s="8" t="s">
-        <v>200</v>
+      <c r="R26" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="S26" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="T26" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="U26" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="V26" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="W26" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="206" customHeight="1">
+    <row r="27" spans="1:23" ht="98" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>css-loader-789</v>
-      </c>
-      <c r="C27" s="11" t="s">
+        <v>css-loader-1036</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="9">
-        <v>789</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>280</v>
+      <c r="D27" s="4">
+        <v>1036</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="4">
+        <v>60</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="K27" s="10">
         <v>0</v>
       </c>
       <c r="L27" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M27" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N27" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P27" s="10">
         <v>0</v>
@@ -6854,69 +7055,69 @@
       <c r="Q27" s="10">
         <v>0</v>
       </c>
-      <c r="R27" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="S27" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="T27" s="23" t="s">
+      <c r="R27" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="U27" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="V27" s="23" t="s">
-        <v>197</v>
+      <c r="S27" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="W27" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="221">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:23" ht="206" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>css-loader-663</v>
-      </c>
-      <c r="C28" s="10" t="s">
+        <v>css-loader-789</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>185</v>
       </c>
       <c r="D28" s="9">
-        <v>663</v>
+        <v>789</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" s="9">
-        <v>2</v>
+        <v>201</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="K28" s="10">
         <v>0</v>
       </c>
       <c r="L28" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28" s="10">
+        <v>5</v>
+      </c>
+      <c r="N28" s="10">
         <v>1</v>
       </c>
-      <c r="N28" s="10">
-        <v>0</v>
-      </c>
       <c r="O28" s="10">
         <v>0</v>
       </c>
@@ -6926,198 +7127,198 @@
       <c r="Q28" s="10">
         <v>0</v>
       </c>
-      <c r="R28" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="S28" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="U28" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="V28" s="8" t="s">
-        <v>210</v>
+      <c r="R28" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="S28" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="T28" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="U28" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="V28" s="23" t="s">
+        <v>197</v>
       </c>
       <c r="W28" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="179" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>213</v>
+    <row r="29" spans="1:23" ht="221">
+      <c r="A29" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>compression-170</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>211</v>
+        <v>css-loader-663</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="D29" s="9">
-        <v>170</v>
+        <v>663</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-      <c r="N29" s="9">
-        <v>5</v>
-      </c>
-      <c r="O29" s="9">
-        <v>5</v>
-      </c>
-      <c r="P29" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>0</v>
-      </c>
-      <c r="R29" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="S29" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="T29" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="U29" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="V29" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="W29" s="9"/>
+        <v>206</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="9">
+        <v>2</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10">
+        <v>2</v>
+      </c>
+      <c r="M29" s="10">
+        <v>1</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="W29" s="9" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" ht="221">
-      <c r="A30" s="10" t="s">
-        <v>218</v>
+    <row r="30" spans="1:23" ht="179" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>jsdiff-493</v>
+        <v>compression-170</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="10">
-        <v>493</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G30" s="10">
-        <v>65</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="K30" s="10">
-        <v>0</v>
-      </c>
-      <c r="L30" s="10">
-        <v>0</v>
-      </c>
-      <c r="M30" s="10">
-        <v>2</v>
-      </c>
-      <c r="N30" s="10">
-        <v>8</v>
-      </c>
-      <c r="O30" s="10">
-        <v>2</v>
-      </c>
-      <c r="P30" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="10">
+        <v>211</v>
+      </c>
+      <c r="D30" s="9">
+        <v>170</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0</v>
+      </c>
+      <c r="N30" s="9">
+        <v>5</v>
+      </c>
+      <c r="O30" s="9">
+        <v>5</v>
+      </c>
+      <c r="P30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
         <v>0</v>
       </c>
       <c r="R30" s="23" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="S30" s="23" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="T30" s="23" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="U30" s="23" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="V30" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>222</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="W30" s="9"/>
     </row>
-    <row r="31" spans="1:23" ht="150" customHeight="1">
+    <row r="31" spans="1:23" ht="221">
       <c r="A31" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>jsdiff-217</v>
-      </c>
-      <c r="C31" s="10" t="s">
+        <v>jsdiff-493</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="9">
-        <v>217</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>228</v>
+      <c r="D31" s="10">
+        <v>493</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G31" s="9">
-        <v>36</v>
+        <v>221</v>
+      </c>
+      <c r="G31" s="10">
+        <v>65</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="K31" s="10">
         <v>0</v>
@@ -7126,13 +7327,13 @@
         <v>0</v>
       </c>
       <c r="M31" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O31" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" s="10">
         <v>0</v>
@@ -7141,55 +7342,55 @@
         <v>0</v>
       </c>
       <c r="R31" s="23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="S31" s="23" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="T31" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="U31" s="23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="V31" s="23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="W31" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="134" customHeight="1">
+    <row r="32" spans="1:23" ht="150" customHeight="1">
       <c r="A32" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>jsdiff-118</v>
+        <v>jsdiff-217</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D32" s="9">
-        <v>118</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>235</v>
+        <v>217</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G32" s="9">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K32" s="10">
         <v>0</v>
@@ -7198,10 +7399,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O32" s="10">
         <v>0</v>
@@ -7213,55 +7414,55 @@
         <v>0</v>
       </c>
       <c r="R32" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="S32" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="T32" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="U32" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="V32" s="23" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="W32" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="109" customHeight="1">
+    <row r="33" spans="1:23" ht="134" customHeight="1">
       <c r="A33" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>jsdiff-94</v>
-      </c>
-      <c r="C33" s="5" t="s">
+        <v>jsdiff-118</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D33" s="9">
-        <v>94</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>243</v>
+        <v>118</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>247</v>
+        <v>237</v>
+      </c>
+      <c r="G33" s="9">
+        <v>84</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>246</v>
+        <v>208</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K33" s="10">
         <v>0</v>
@@ -7270,10 +7471,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O33" s="10">
         <v>0</v>
@@ -7285,67 +7486,67 @@
         <v>0</v>
       </c>
       <c r="R33" s="23" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="S33" s="23" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="T33" s="23" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="U33" s="23" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="V33" s="23" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="W33" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="102">
+    <row r="34" spans="1:23" ht="109" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="B34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>express.js-2</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>295</v>
+        <v>jsdiff-94</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="D34" s="9">
-        <v>2</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>301</v>
+        <v>94</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>243</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G34" s="9">
-        <v>361</v>
+        <v>242</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>298</v>
+        <v>246</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="K34" s="10">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0</v>
+      </c>
+      <c r="M34" s="10">
         <v>1</v>
       </c>
-      <c r="L34" s="10">
-        <v>0</v>
-      </c>
-      <c r="M34" s="10">
-        <v>0</v>
-      </c>
       <c r="N34" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O34" s="10">
         <v>0</v>
@@ -7357,65 +7558,68 @@
         <v>0</v>
       </c>
       <c r="R34" s="23" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="S34" s="23" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="T34" s="23" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="U34" s="23" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="V34" s="23" t="s">
-        <v>293</v>
+        <v>250</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="85">
+    <row r="35" spans="1:23" ht="102">
       <c r="A35" s="10" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>hessian.js-4</v>
+        <v>express.js-2</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>295</v>
       </c>
       <c r="D35" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>301</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G35" s="9">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>298</v>
       </c>
       <c r="K35" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10">
         <v>2</v>
       </c>
-      <c r="M35" s="10">
-        <v>0</v>
-      </c>
-      <c r="N35" s="10">
-        <v>1</v>
-      </c>
       <c r="O35" s="10">
         <v>0</v>
       </c>
@@ -7426,57 +7630,65 @@
         <v>0</v>
       </c>
       <c r="R35" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
+        <v>293</v>
+      </c>
+      <c r="S35" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="T35" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="U35" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="V35" s="23" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" ht="102">
+    <row r="36" spans="1:23" ht="85">
       <c r="A36" s="10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>hexo-12</v>
+        <v>hessian.js-4</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>295</v>
       </c>
       <c r="D36" s="9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>301</v>
       </c>
       <c r="F36" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" s="9">
         <v>302</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="H36" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>298</v>
       </c>
       <c r="K36" s="10">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
+        <v>2</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
         <v>1</v>
       </c>
-      <c r="L36" s="10">
-        <v>0</v>
-      </c>
-      <c r="M36" s="10">
-        <v>0</v>
-      </c>
-      <c r="N36" s="10">
-        <v>6</v>
-      </c>
       <c r="O36" s="10">
         <v>0</v>
       </c>
@@ -7487,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="23" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
@@ -7496,32 +7708,32 @@
     </row>
     <row r="37" spans="1:23" ht="102">
       <c r="A37" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>karma-4</v>
+        <v>hexo-12</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>295</v>
       </c>
       <c r="D37" s="9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>301</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="G37" s="9">
-        <v>46</v>
+        <v>302</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>298</v>
@@ -7536,18 +7748,79 @@
         <v>0</v>
       </c>
       <c r="N37" s="10">
+        <v>6</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>0</v>
+      </c>
+      <c r="R37" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+    </row>
+    <row r="38" spans="1:23" ht="102">
+      <c r="A38" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>karma-4</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" s="9">
+        <v>4</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="G38" s="9">
+        <v>46</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" s="10">
         <v>1</v>
       </c>
-      <c r="O37" s="10">
+      <c r="L38" s="10">
+        <v>0</v>
+      </c>
+      <c r="M38" s="10">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
         <v>1</v>
       </c>
-      <c r="P37" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="10">
-        <v>0</v>
-      </c>
-      <c r="R37" s="23" t="s">
+      <c r="O38" s="10">
+        <v>1</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>0</v>
+      </c>
+      <c r="R38" s="23" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7562,31 +7835,32 @@
     <hyperlink ref="C7" r:id="rId4" xr:uid="{49750F05-4F3E-C64B-89B9-9927A24D7737}"/>
     <hyperlink ref="C8" r:id="rId5" xr:uid="{AB9282DB-2D31-EC40-9025-F65792BF479F}"/>
     <hyperlink ref="C9" r:id="rId6" xr:uid="{FB31A907-66F2-DC4D-8F4D-12BEEACD8CF7}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{AC7A5222-A141-C547-B4BA-A7E369D48987}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{41F9A05E-9545-404F-A59A-61F1736A4433}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{CA013061-61BF-484C-92F0-C139B056E531}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{85212475-E9DF-9346-B54D-00A6479F5031}"/>
-    <hyperlink ref="C16" r:id="rId11" xr:uid="{7B51BD02-178C-1243-84F3-869E36370B44}"/>
-    <hyperlink ref="C17" r:id="rId12" xr:uid="{D7C44975-8CD0-F54B-A507-870B5816BA89}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{7D380E9C-453B-A64F-A27A-1EF0A86A1B49}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{6685889E-162C-1147-8EC1-EA437BD2A95E}"/>
-    <hyperlink ref="C14" r:id="rId15" xr:uid="{B510CA73-1773-BE49-9F6E-5407851B6E20}"/>
-    <hyperlink ref="C20" r:id="rId16" xr:uid="{FB6CB3FC-3081-A64F-BF1D-560168F9B529}"/>
-    <hyperlink ref="C21" r:id="rId17" xr:uid="{FF9570AC-60A1-D444-AAF7-50C94C4DB2E5}"/>
-    <hyperlink ref="C22" r:id="rId18" xr:uid="{6E4A7E09-8537-8D4A-A1BD-83E05228AEC9}"/>
-    <hyperlink ref="C23" r:id="rId19" xr:uid="{A06EAAC5-2858-3344-9B3E-7B83CCAAD5BA}"/>
-    <hyperlink ref="C24" r:id="rId20" xr:uid="{66AB5E01-5AC2-F244-9D6D-B032622F3B5E}"/>
-    <hyperlink ref="C27" r:id="rId21" xr:uid="{2C00C4A4-C55C-4A4B-9241-A74FB21466C7}"/>
-    <hyperlink ref="C30" r:id="rId22" xr:uid="{A49216BF-8F11-C948-93E1-F811BB1B459E}"/>
-    <hyperlink ref="C25" r:id="rId23" xr:uid="{36D5AFC7-1D76-CE46-B021-863F6085CCB4}"/>
-    <hyperlink ref="C29" r:id="rId24" xr:uid="{E789F404-6791-0A47-9319-7FD94AAC66B5}"/>
-    <hyperlink ref="C34" r:id="rId25" xr:uid="{A8AA6EFD-2E9D-3E4E-85E4-8274BD837B08}"/>
-    <hyperlink ref="C35" r:id="rId26" xr:uid="{E5751908-3AF1-DA44-8A24-FF2B149FB5B7}"/>
-    <hyperlink ref="C36" r:id="rId27" xr:uid="{00B2DDE5-D07F-9B47-B3B2-0DBE98F5D303}"/>
-    <hyperlink ref="C37" r:id="rId28" xr:uid="{A69D08C0-DF6C-874B-A5E6-29B4BD6748B2}"/>
-    <hyperlink ref="C10" r:id="rId29" xr:uid="{88CB6850-3D4E-A343-8E95-923612884512}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{AC7A5222-A141-C547-B4BA-A7E369D48987}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{41F9A05E-9545-404F-A59A-61F1736A4433}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{CA013061-61BF-484C-92F0-C139B056E531}"/>
+    <hyperlink ref="C16" r:id="rId10" xr:uid="{85212475-E9DF-9346-B54D-00A6479F5031}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{7B51BD02-178C-1243-84F3-869E36370B44}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{D7C44975-8CD0-F54B-A507-870B5816BA89}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{7D380E9C-453B-A64F-A27A-1EF0A86A1B49}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{6685889E-162C-1147-8EC1-EA437BD2A95E}"/>
+    <hyperlink ref="C15" r:id="rId15" xr:uid="{B510CA73-1773-BE49-9F6E-5407851B6E20}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{FB6CB3FC-3081-A64F-BF1D-560168F9B529}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{FF9570AC-60A1-D444-AAF7-50C94C4DB2E5}"/>
+    <hyperlink ref="C23" r:id="rId18" xr:uid="{6E4A7E09-8537-8D4A-A1BD-83E05228AEC9}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{A06EAAC5-2858-3344-9B3E-7B83CCAAD5BA}"/>
+    <hyperlink ref="C25" r:id="rId20" xr:uid="{66AB5E01-5AC2-F244-9D6D-B032622F3B5E}"/>
+    <hyperlink ref="C28" r:id="rId21" xr:uid="{2C00C4A4-C55C-4A4B-9241-A74FB21466C7}"/>
+    <hyperlink ref="C31" r:id="rId22" xr:uid="{A49216BF-8F11-C948-93E1-F811BB1B459E}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{36D5AFC7-1D76-CE46-B021-863F6085CCB4}"/>
+    <hyperlink ref="C30" r:id="rId24" xr:uid="{E789F404-6791-0A47-9319-7FD94AAC66B5}"/>
+    <hyperlink ref="C35" r:id="rId25" xr:uid="{A8AA6EFD-2E9D-3E4E-85E4-8274BD837B08}"/>
+    <hyperlink ref="C36" r:id="rId26" xr:uid="{E5751908-3AF1-DA44-8A24-FF2B149FB5B7}"/>
+    <hyperlink ref="C37" r:id="rId27" xr:uid="{00B2DDE5-D07F-9B47-B3B2-0DBE98F5D303}"/>
+    <hyperlink ref="C38" r:id="rId28" xr:uid="{A69D08C0-DF6C-874B-A5E6-29B4BD6748B2}"/>
+    <hyperlink ref="C11" r:id="rId29" xr:uid="{88CB6850-3D4E-A343-8E95-923612884512}"/>
+    <hyperlink ref="C10" r:id="rId30" xr:uid="{5AE14BDB-4C2C-CE48-B7F2-5C6F0C06DA96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId30"/>
+  <drawing r:id="rId31"/>
 </worksheet>
 </file>
--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114090F8-80F9-504C-8680-F18A23ACC70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0831C2EC-E17F-AA42-989A-B12724E84720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="500" windowWidth="37900" windowHeight="22400" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="339">
   <si>
     <t>application</t>
   </si>
@@ -2210,6 +2210,83 @@
   </si>
   <si>
     <t>3 mutants, of which 1 is identical to the original bug</t>
+  </si>
+  <si>
+    <t>htmlparser2</t>
+  </si>
+  <si>
+    <t>https://github.com/fb55/htmlparser2</t>
+  </si>
+  <si>
+    <t>214ab08</t>
+  </si>
+  <si>
+    <t>src/Tokenizer.ts</t>
+  </si>
+  <si>
+    <t>370, 373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (c === "s" || c === "S") {
+====
+} else if (c === "t" || c === "T") {</t>
+  </si>
+  <si>
+    <t>if (this.special !== Special.Title &amp;&amp; (c === "s" || c === "S")) {
+====
+ } else if (
+                this.special === Special.Title &amp;&amp;
+                (c === "t" || c === "T")
+            ) {
+                this._state = State.BeforeSpec</t>
+  </si>
+  <si>
+    <t>o	FAIL  src/__tests__/events.ts
+o	  ● Events › &lt;/title&gt; in &lt;script&gt; (#745)
+o	
+o	    expect(received).toStrictEqual(expected) // deep equality
+o	
+o	    - Expected  - 1
+o	    + Received  + 1
+o	
+o	    @@ -12,11 +12,11 @@
+o	          ],
+o	          "event": "opentag",
+o	        },
+o	        Object {
+o	          "data": Array [
+o	    -       "'&lt;/title&gt;'",
+o	    +       "''",
+o	          ],
+o	          "event": "text",
+o	        },
+o	        Object {
+o	          "data": Array [
+o	
+o	       95 |             expect(actual).toMatchSnapshot();
+o	       96 |         } else {
+o	    &gt;  97 |             expect(actual).toStrictEqual(file.expected);
+o	          |                            ^
+o	       98 |         }
+o	       99 | 
+o	      100 |         if (repeated) done();
+o	
+o	      at src/__fixtures__/test-helper.ts:97:28
+o	      at onend (src/__fixtures__/test-helper.ts:48:13)
+o	      at CollectingHandler.func (src/CollectingHandler.ts:12:49)
+o	      at CollectingHandler.MultiplexHandler.onend (src/MultiplexHandler.ts:55:14)
+o	      at Parser.onend (src/Parser.ts:426:23)
+o	      at Tokenizer.finish (src/Tokenizer.ts:892:18)
+o	      at Tokenizer.end (src/Tokenizer.ts:283:32)
+o	      at Parser.end (src/Parser.ts:468:24)
+o	      at Object.writeToParser (src/__fixtures__/test-helper.ts:25:12)
+o	      at src/__tests__/events.ts:4:12</t>
+  </si>
+  <si>
+    <t>6 mutants, none of which is causing the same failures as the original bug</t>
+  </si>
+  <si>
+    <t>6 mutants, 1 of which is causing the same failures as the original bug</t>
   </si>
 </sst>
 </file>
@@ -3870,6 +3947,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B91C-1041-8B90-212890027164}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4840,13 +4922,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5192,13 +5274,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51ED0F3-1512-9640-9294-FF91039F967C}">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V10" sqref="V10"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5472,7 +5554,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f t="shared" ref="B5:B38" si="0">_xlfn.CONCAT(A5,"-",D5)</f>
+        <f t="shared" ref="B5:B39" si="0">_xlfn.CONCAT(A5,"-",D5)</f>
         <v>node-jsonfile-25</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -7822,6 +7904,75 @@
       </c>
       <c r="R38" s="23" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="409.6">
+      <c r="A39" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>htmlparser2-746</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="9">
+        <v>746</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" t="s">
+        <v>333</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10">
+        <v>0</v>
+      </c>
+      <c r="M39" s="10">
+        <v>1</v>
+      </c>
+      <c r="N39" s="10">
+        <v>3</v>
+      </c>
+      <c r="O39" s="10">
+        <v>1</v>
+      </c>
+      <c r="P39" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>0</v>
+      </c>
+      <c r="R39" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="S39" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="T39" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="U39" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="V39" s="23" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0831C2EC-E17F-AA42-989A-B12724E84720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8330A62E-59B7-4C49-80B7-5D72F78A4385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="500" windowWidth="37900" windowHeight="22400" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="347">
   <si>
     <t>application</t>
   </si>
@@ -2287,6 +2287,45 @@
   </si>
   <si>
     <t>6 mutants, 1 of which is causing the same failures as the original bug</t>
+  </si>
+  <si>
+    <t>04c411c</t>
+  </si>
+  <si>
+    <t>this.updatePosition(1);</t>
+  </si>
+  <si>
+    <t>this.updatePosition(2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ● API › should update the position
+    expect(received).toBe(expected) // Object.is equality
+    Expected: 19
+    Received: 20
+      102 |         p.parseChunk("&lt;/select&gt;");
+      103 |
+    &gt; 104 |         expect(p.startIndex).toBe(19);
+          |                              ^
+      105 |         expect(p.endIndex).toBe(27);
+      106 |     });
+      107 |
+      at Object.&lt;anonymous&gt; (src/Parser.spec.ts:104:30)
+Test Suites: 1 failed, 6 passed, 7 total
+Tests:       1 failed, 63 passed, 64 total
+Snapshots:   10 passed, 10 total
+Time:        2.768 s, estimated 3 s</t>
+  </si>
+  <si>
+    <t>src/Parser.ts</t>
+  </si>
+  <si>
+    <t>4 mutants, 1 of which is identical to the original bug</t>
+  </si>
+  <si>
+    <t>4 mutants, none of which cause the same failures as the original bug</t>
+  </si>
+  <si>
+    <t>3 mutants, none of which cause the same failures as the original bug</t>
   </si>
 </sst>
 </file>
@@ -4921,15 +4960,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5274,13 +5313,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51ED0F3-1512-9640-9294-FF91039F967C}">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5554,7 +5593,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f t="shared" ref="B5:B39" si="0">_xlfn.CONCAT(A5,"-",D5)</f>
+        <f t="shared" ref="B5:B40" si="0">_xlfn.CONCAT(A5,"-",D5)</f>
         <v>node-jsonfile-25</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -7973,6 +8012,75 @@
       </c>
       <c r="V39" s="23" t="s">
         <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="388">
+      <c r="A40" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>htmlparser2-913</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40" s="9">
+        <v>913</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G40" s="4">
+        <v>289</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="K40" s="10">
+        <v>1</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0</v>
+      </c>
+      <c r="M40" s="10">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
+        <v>1</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0</v>
+      </c>
+      <c r="P40" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>0</v>
+      </c>
+      <c r="R40" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="S40" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="T40" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="U40" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="V40" s="23" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8330A62E-59B7-4C49-80B7-5D72F78A4385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC0E286-47A9-9C42-9420-F01C55D49265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="500" windowWidth="37900" windowHeight="22400" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="366">
   <si>
     <t>application</t>
   </si>
@@ -2326,6 +2326,119 @@
   </si>
   <si>
     <t>3 mutants, none of which cause the same failures as the original bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fast-xml-parser </t>
+  </si>
+  <si>
+    <t>https://github.com/NaturalIntelligence/fast-xml-parser</t>
+  </si>
+  <si>
+    <t>b0ea635</t>
+  </si>
+  <si>
+    <t>src/xmlbuilder/json2xml.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> let textValue = this.options.tagValueProcessor(key, val);
+  textValue = this.replaceEntitiesValue(textValue);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   const textValue = this.replaceEntitiesValue(val);</t>
+  </si>
+  <si>
+    <t>Failures:
+1) XMLBuilder should not double encode tag values
+  Message:
+    Expected '&lt;a&gt;
+      &lt;element&gt;
+        &lt;subelement staticMessage="bar"&gt;foo &amp;amp; bar&lt;/subelement&gt;
+      &lt;/element&gt;
+      &lt;only_text_array&gt;text &amp;amp;amp; value&lt;/only_text_array&gt;
+      &lt;regular_array f="abc"&gt;text &amp;amp; value&lt;/regular_array&gt;
+      &lt;only_text_obj&gt;another text &amp;amp;amp; val&lt;/only_text_obj&gt;
+    &lt;/a&gt;
+    ' to equal '&lt;a&gt;
+      &lt;element&gt;
+        &lt;subelement staticMessage="bar"&gt;foo &amp;amp; bar&lt;/subelement&gt;
+      &lt;/element&gt;
+      &lt;only_text_array&gt;text &amp;amp; value&lt;/only_text_array&gt;
+      &lt;regular_array f="abc"&gt;text &amp;amp; value&lt;/regular_array&gt;
+      &lt;only_text_obj&gt;another text &amp;amp; val&lt;/only_text_obj&gt;
+    &lt;/a&gt;
+    '.
+  Stack:
+    Error: Expected '&lt;a&gt;
+      &lt;element&gt;
+        &lt;subelement staticMessage="bar"&gt;foo &amp;amp; bar&lt;/subelement&gt;
+      &lt;/element&gt;
+      &lt;only_text_array&gt;text &amp;amp;amp; value&lt;/only_text_array&gt;
+      &lt;regular_array f="abc"&gt;text &amp;amp; value&lt;/regular_array&gt;
+      &lt;only_text_obj&gt;another text &amp;amp;amp; val&lt;/only_text_obj&gt;
+    &lt;/a&gt;
+    ' to equal '&lt;a&gt;
+      &lt;element&gt;
+        &lt;subelement staticMessage="bar"&gt;foo &amp;amp; bar&lt;/subelement&gt;
+      &lt;/element&gt;
+      &lt;only_text_array&gt;text &amp;amp; value&lt;/only_text_array&gt;
+      &lt;regular_array f="abc"&gt;text &amp;amp; value&lt;/regular_array&gt;
+      &lt;only_text_obj&gt;another text &amp;amp; val&lt;/only_text_obj&gt;
+    &lt;/a&gt;
+    '.
+        at &lt;Jasmine&gt;
+        at UserContext.&lt;anonymous&gt; (/Users/franktip/git/mutation-testing-data/casestudy/fast-xml-parser-595/fast-xml-parser/spec/j2x_spec.js:44:44)
+        at &lt;Jasmine&gt;</t>
+  </si>
+  <si>
+    <t>3 mutants, none of which causes the same test failure as the original bug</t>
+  </si>
+  <si>
+    <t>4 mutants, none of which causes the same test failure as the original bug</t>
+  </si>
+  <si>
+    <t>ea5d544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+src/xmlstr2xmlnode.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        val = val.replace(/0+$/,"");</t>
+  </si>
+  <si>
+    <t>val = val.replace(/\.?0+$/, "");</t>
+  </si>
+  <si>
+    <t>Failures:
+1) XMLParser should parse number ending in .0 for parseTrueNumberOnly:true
+  Message:
+    Expected $.rootNode.floatTag0 = '0.' to equal 0.
+    Expected $.rootNode.floatTag1 = '1.' to equal 1.
+    Expected $.rootNode.floatTag2 = '2.' to equal 2.
+    Expected $.rootNode.floatTag3['@_float'] = '3.' to equal 3.
+  Stack:
+    Error: Expected $.rootNode.floatTag0 = '0.' to equal 0.
+    Expected $.rootNode.floatTag1 = '1.' to equal 1.
+    Expected $.rootNode.floatTag2 = '2.' to equal 2.
+    Expected $.rootNode.floatTag3['@_float'] = '3.' to equal 3.
+        at &lt;Jasmine&gt;
+        at UserContext.&lt;anonymous&gt; (/Users/franktip/git/mutation-testing-data/casestudy/fast-xml-parser-595/fast-xml-parser/spec/xmlParser_spec.js:109:24)
+        at &lt;Jasmine&gt;</t>
+  </si>
+  <si>
+    <t>8 mutants, of which one causes the same tes tfailure as the original bug</t>
+  </si>
+  <si>
+    <t>8 mutants, none of which  cause the same tes tfailure as the original bug</t>
+  </si>
+  <si>
+    <t>6 mutants, none of which  cause the same tes tfailure as the original bug</t>
+  </si>
+  <si>
+    <t>12 mutants,  of which 5  cause the same tes tfailure as the original bug</t>
+  </si>
+  <si>
+    <t>10 mutants,  of which 1  causes the same tes tfailure as the original bug</t>
   </si>
 </sst>
 </file>
@@ -5313,13 +5426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51ED0F3-1512-9640-9294-FF91039F967C}">
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5593,7 +5706,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f t="shared" ref="B5:B40" si="0">_xlfn.CONCAT(A5,"-",D5)</f>
+        <f t="shared" ref="B5:B41" si="0">_xlfn.CONCAT(A5,"-",D5)</f>
         <v>node-jsonfile-25</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -8081,6 +8194,144 @@
       </c>
       <c r="V40" s="23" t="s">
         <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="179" customHeight="1">
+      <c r="A41" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>fast-xml-parser -426</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D41" s="10">
+        <v>426</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="G41" s="10">
+        <v>195</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10">
+        <v>1</v>
+      </c>
+      <c r="M41" s="10">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10">
+        <v>3</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0</v>
+      </c>
+      <c r="P41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>0</v>
+      </c>
+      <c r="R41" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="S41" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="T41" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="U41" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="V41" s="23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="409.6">
+      <c r="A42" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B42" s="10" t="str">
+        <f t="shared" ref="B42" si="2">_xlfn.CONCAT(A42,"-",D42)</f>
+        <v>fast-xml-parser -234</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D42" s="10">
+        <v>234</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G42" s="4">
+        <v>192</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+      <c r="L42" s="10">
+        <v>0</v>
+      </c>
+      <c r="M42" s="10">
+        <v>1</v>
+      </c>
+      <c r="N42" s="10">
+        <v>7</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0</v>
+      </c>
+      <c r="P42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>0</v>
+      </c>
+      <c r="R42" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="S42" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="T42" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="U42" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="V42" s="23" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC0E286-47A9-9C42-9420-F01C55D49265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5442DEF1-89E0-3B4A-BEA4-D020E4119A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="500" windowWidth="37900" windowHeight="22400" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -858,9 +858,6 @@
     <t>17 mutants, 2 produce the same failure as the original bug</t>
   </si>
   <si>
-    <t>node-fs-extra</t>
-  </si>
-  <si>
     <t>https://github.com/jprichardson/node-fs-extra</t>
   </si>
   <si>
@@ -2439,6 +2436,9 @@
   </si>
   <si>
     <t>10 mutants,  of which 1  causes the same tes tfailure as the original bug</t>
+  </si>
+  <si>
+    <t>fs-extra</t>
   </si>
 </sst>
 </file>
@@ -2698,208 +2698,214 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$34</c:f>
+              <c:f>Sheet1!$B$8:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>express.js-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fast-glob-223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fast-glob-391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fast-xml-parser -234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fast-xml-parser -426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fs-extra-190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fs-extra-291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fs-extra-679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hessian.js-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>hexo-12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>htmlparser2-746</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>htmlparser2-913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>jsdiff-94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>jsdiff-118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>jsdiff-217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>jsdiff-493</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>karma-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>memfs-59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>memfs-391</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>memfs-853</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>memfs-870</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>node-jsonfile-24</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="25">
                   <c:v>node-jsonfile-25</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="26">
+                  <c:v>normalize-url-38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>normalize-url-82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>simple-statistics-334</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>node-fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>node-fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>node-fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>yargs-2171</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>yargs-1493</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
+                  <c:v>yargs-1364</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>yargs-1422</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>css-loader-1261</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>css-loader-1036</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>css-loader-789</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>css-loader-663</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>compression-170</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$34</c:f>
+              <c:f>Sheet1!$K$8:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2929,114 +2935,117 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$34</c:f>
+              <c:f>Sheet1!$B$8:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>express.js-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fast-glob-223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fast-glob-391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fast-xml-parser -234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fast-xml-parser -426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fs-extra-190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fs-extra-291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fs-extra-679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hessian.js-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>hexo-12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>htmlparser2-746</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>htmlparser2-913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>jsdiff-94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>jsdiff-118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>jsdiff-217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>jsdiff-493</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>karma-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>memfs-59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>memfs-391</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>memfs-853</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>memfs-870</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>node-jsonfile-24</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="25">
                   <c:v>node-jsonfile-25</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="26">
+                  <c:v>normalize-url-38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>normalize-url-82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>simple-statistics-334</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>node-fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>node-fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>node-fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>yargs-2171</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>yargs-1493</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
+                  <c:v>yargs-1364</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>yargs-1422</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>css-loader-1261</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>css-loader-1036</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>css-loader-789</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>css-loader-663</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>compression-170</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$34</c:f>
+              <c:f>Sheet1!$L$8:$L$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3044,10 +3053,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3065,59 +3074,59 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3125,12 +3134,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3160,114 +3172,117 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$34</c:f>
+              <c:f>Sheet1!$B$8:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>express.js-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fast-glob-223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fast-glob-391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fast-xml-parser -234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fast-xml-parser -426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fs-extra-190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fs-extra-291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fs-extra-679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hessian.js-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>hexo-12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>htmlparser2-746</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>htmlparser2-913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>jsdiff-94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>jsdiff-118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>jsdiff-217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>jsdiff-493</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>karma-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>memfs-59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>memfs-391</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>memfs-853</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>memfs-870</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>node-jsonfile-24</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="25">
                   <c:v>node-jsonfile-25</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="26">
+                  <c:v>normalize-url-38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>normalize-url-82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>simple-statistics-334</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>node-fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>node-fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>node-fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>yargs-2171</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>yargs-1493</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
+                  <c:v>yargs-1364</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>yargs-1422</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>css-loader-1261</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>css-loader-1036</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>css-loader-789</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>css-loader-663</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>compression-170</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$34</c:f>
+              <c:f>Sheet1!$M$8:$M$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3275,67 +3290,67 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -3344,25 +3359,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3391,149 +3409,152 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$34</c:f>
+              <c:f>Sheet1!$B$8:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>express.js-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fast-glob-223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fast-glob-391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fast-xml-parser -234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fast-xml-parser -426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fs-extra-190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fs-extra-291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fs-extra-679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hessian.js-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>hexo-12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>htmlparser2-746</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>htmlparser2-913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>jsdiff-94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>jsdiff-118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>jsdiff-217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>jsdiff-493</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>karma-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>memfs-59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>memfs-391</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>memfs-853</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>memfs-870</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>node-jsonfile-24</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="25">
                   <c:v>node-jsonfile-25</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="26">
+                  <c:v>normalize-url-38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>normalize-url-82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>simple-statistics-334</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>node-fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>node-fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>node-fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>yargs-2171</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>yargs-1493</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
+                  <c:v>yargs-1364</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>yargs-1422</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>css-loader-1261</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>css-loader-1036</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>css-loader-789</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>css-loader-663</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>compression-170</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$34</c:f>
+              <c:f>Sheet1!$N$8:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -3542,58 +3563,61 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3625,208 +3649,214 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$34</c:f>
+              <c:f>Sheet1!$B$8:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>express.js-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fast-glob-223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fast-glob-391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fast-xml-parser -234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fast-xml-parser -426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fs-extra-190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fs-extra-291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fs-extra-679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hessian.js-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>hexo-12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>htmlparser2-746</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>htmlparser2-913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>jsdiff-94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>jsdiff-118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>jsdiff-217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>jsdiff-493</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>karma-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>memfs-59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>memfs-391</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>memfs-853</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>memfs-870</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>node-jsonfile-24</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="25">
                   <c:v>node-jsonfile-25</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="26">
+                  <c:v>normalize-url-38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>normalize-url-82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>simple-statistics-334</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>node-fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>node-fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>node-fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>yargs-2171</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>yargs-1493</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
+                  <c:v>yargs-1364</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>yargs-1422</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>css-loader-1261</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>css-loader-1036</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>css-loader-789</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>css-loader-663</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>compression-170</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$34</c:f>
+              <c:f>Sheet1!$O$8:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3856,114 +3886,117 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$34</c:f>
+              <c:f>Sheet1!$B$8:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>express.js-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fast-glob-223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fast-glob-391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fast-xml-parser -234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fast-xml-parser -426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fs-extra-190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fs-extra-291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fs-extra-679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hessian.js-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>hexo-12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>htmlparser2-746</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>htmlparser2-913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>jsdiff-94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>jsdiff-118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>jsdiff-217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>jsdiff-493</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>karma-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>memfs-59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>memfs-391</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>memfs-853</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>memfs-870</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>node-jsonfile-24</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="25">
                   <c:v>node-jsonfile-25</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="26">
+                  <c:v>normalize-url-38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>normalize-url-82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>simple-statistics-334</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>node-fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>node-fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>node-fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>yargs-2171</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>yargs-1493</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
+                  <c:v>yargs-1364</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>yargs-1422</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>css-loader-1261</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>css-loader-1036</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>css-loader-789</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>css-loader-663</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>compression-170</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$34</c:f>
+              <c:f>Sheet1!$P$8:$P$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3971,90 +4004,93 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="20">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="23">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4085,7 +4121,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="14"/>
+            <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -4099,122 +4135,120 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B91C-1041-8B90-212890027164}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$34</c:f>
+              <c:f>Sheet1!$B$8:$B$40</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>countries-and-timezones-60</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>express.js-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fast-glob-223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fast-glob-391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fast-xml-parser -234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fast-xml-parser -426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fs-extra-190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fs-extra-291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fs-extra-679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>hessian.js-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>hexo-12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>htmlparser2-746</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>htmlparser2-913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>jsdiff-94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>jsdiff-118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>jsdiff-217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>jsdiff-493</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>karma-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>memfs-59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>memfs-391</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>memfs-853</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>memfs-870</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>memfs-1024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>memfs-1093</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>node-jsonfile-24</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="25">
                   <c:v>node-jsonfile-25</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="26">
+                  <c:v>normalize-url-38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>normalize-url-82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>simple-statistics-334</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>simple-statistics-633</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>node-fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>node-fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>node-fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>yargs-2171</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>yargs-1493</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
+                  <c:v>yargs-1364</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>yargs-1376</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>yargs-1422</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>css-loader-1261</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>css-loader-1036</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>css-loader-789</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>css-loader-663</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>compression-170</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>jsdiff-94</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$34</c:f>
+              <c:f>Sheet1!$Q$8:$Q$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4234,44 +4268,44 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4309,6 +4343,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5429,10 +5466,10 @@
   <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42:I42"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5464,13 +5501,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5491,7 +5528,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
@@ -5533,25 +5570,25 @@
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="M2" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="N2" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="P2" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="M2" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="O2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>254</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>255</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -5564,51 +5601,51 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="221">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
+      <c r="A3" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>_xlfn.CONCAT(A3,"-",D3)</f>
-        <v>countries-and-timezones-60</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>60</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>26</v>
+        <v>css-loader-663</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="9">
+        <v>663</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>2</v>
+      </c>
+      <c r="M3" s="10">
         <v>1</v>
       </c>
-      <c r="L3" s="10">
-        <v>3</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
       <c r="N3" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" s="10">
         <v>0</v>
@@ -5617,67 +5654,70 @@
         <v>0</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>18</v>
+        <v>209</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="77" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>_xlfn.CONCAT(A4,"-",D4)</f>
-        <v>node-jsonfile-24</v>
+        <v>css-loader-789</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="12">
-        <v>24</v>
+        <v>184</v>
+      </c>
+      <c r="D4" s="9">
+        <v>789</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
+        <v>201</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>262</v>
+        <v>277</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K4" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" s="10">
         <v>0</v>
       </c>
       <c r="M4" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O4" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P4" s="10">
         <v>0</v>
@@ -5685,68 +5725,71 @@
       <c r="Q4" s="10">
         <v>0</v>
       </c>
-      <c r="R4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>29</v>
+      <c r="R4" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="V4" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="62" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f t="shared" ref="B5:B41" si="0">_xlfn.CONCAT(A5,"-",D5)</f>
-        <v>node-jsonfile-25</v>
+        <f>_xlfn.CONCAT(A5,"-",D5)</f>
+        <v>css-loader-1036</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="D5" s="4">
-        <v>25</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>30</v>
+        <v>1036</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="G5" s="4">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="K5" s="10">
         <v>0</v>
       </c>
       <c r="L5" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" s="10">
         <v>0</v>
@@ -5754,272 +5797,278 @@
       <c r="Q5" s="10">
         <v>0</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>34</v>
+      <c r="R5" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="89" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>memfs-870</v>
+        <f>_xlfn.CONCAT(A6,"-",D6)</f>
+        <v>css-loader-1261</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="4">
-        <v>870</v>
+        <v>184</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1261</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2069</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>185</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>5</v>
+      </c>
+      <c r="O6" s="10">
+        <v>5</v>
+      </c>
+      <c r="P6" s="10">
         <v>1</v>
       </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
-        <v>3</v>
-      </c>
-      <c r="N6" s="10">
-        <v>4</v>
-      </c>
-      <c r="O6" s="10">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <v>2</v>
-      </c>
       <c r="Q6" s="10">
         <v>0</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>42</v>
+      <c r="R6" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="U6" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="161" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>memfs-391</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4">
-        <v>391</v>
+        <f>_xlfn.CONCAT(A7,"-",D7)</f>
+        <v>compression-170</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="9">
+        <v>170</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1884</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>4</v>
-      </c>
-      <c r="N7" s="10">
-        <v>3</v>
-      </c>
-      <c r="O7" s="10">
-        <v>1</v>
-      </c>
-      <c r="P7" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>5</v>
+      </c>
+      <c r="O7" s="9">
+        <v>5</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="T7" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="U7" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="V7" s="23" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="143" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>35</v>
+      <c r="A8" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>memfs-853</v>
+        <f>_xlfn.CONCAT(A8,"-",D8)</f>
+        <v>countries-and-timezones-60</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="12">
-        <v>853</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="12">
-        <v>1008</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>53</v>
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>60</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P8" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>273</v>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="134" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>35</v>
+      <c r="A9" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>memfs-59</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="4">
-        <v>59</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="4">
-        <v>847</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>59</v>
+        <f>_xlfn.CONCAT(A9,"-",D9)</f>
+        <v>express.js-2</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="9">
+        <v>361</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="K9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="10">
         <v>0</v>
       </c>
       <c r="M9" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" s="10">
         <v>0</v>
@@ -6028,139 +6077,140 @@
         <v>0</v>
       </c>
       <c r="Q9" s="10">
-        <v>1</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="U9" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="V9" s="23" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="134" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f t="shared" ref="B10" si="1">_xlfn.CONCAT(A10,"-",D10)</f>
-        <v>memfs-1024</v>
+        <f>_xlfn.CONCAT(A10,"-",D10)</f>
+        <v>fast-glob-223</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4">
-        <v>1024</v>
+        <v>223</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="G10" s="4">
-        <v>18</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>326</v>
+        <v>17</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="K10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="10">
         <v>0</v>
       </c>
       <c r="N10" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O10" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P10" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="10">
         <v>0</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>328</v>
+        <v>85</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>328</v>
+        <v>85</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="134" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>memfs-1093</v>
+        <f>_xlfn.CONCAT(A11,"-",D11)</f>
+        <v>fast-glob-391</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D11" s="4">
-        <v>1093</v>
+        <v>391</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>38</v>
+        <v>132</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G11" s="4">
-        <v>830</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>319</v>
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>3</v>
+      </c>
+      <c r="M11" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
       <c r="N11" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O11" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11" s="10">
         <v>3</v>
@@ -6169,136 +6219,136 @@
         <v>0</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>321</v>
+        <v>96</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>322</v>
+        <v>97</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>322</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="63" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>simple-statistics-633</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="12">
-        <v>633</v>
+        <v>346</v>
+      </c>
+      <c r="B12" s="10" t="str">
+        <f t="shared" ref="B12" si="0">_xlfn.CONCAT(A12,"-",D12)</f>
+        <v>fast-xml-parser -234</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="10">
+        <v>234</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>65</v>
+        <v>355</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>267</v>
+        <v>356</v>
+      </c>
+      <c r="G12" s="4">
+        <v>192</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>268</v>
+        <v>359</v>
       </c>
       <c r="K12" s="10">
         <v>0</v>
       </c>
       <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
         <v>1</v>
       </c>
-      <c r="M12" s="10">
-        <v>2</v>
-      </c>
       <c r="N12" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O12" s="10">
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="10">
         <v>0</v>
       </c>
-      <c r="R12" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="V12" s="8" t="s">
-        <v>272</v>
+      <c r="R12" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="T12" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="U12" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="V12" s="23" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="144" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>simple-statistics-334</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="4">
-        <v>334</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="4">
-        <v>72</v>
+        <v>346</v>
+      </c>
+      <c r="B13" s="10" t="str">
+        <f>_xlfn.CONCAT(A13,"-",D13)</f>
+        <v>fast-xml-parser -426</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="10">
+        <v>426</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="G13" s="10">
+        <v>195</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>70</v>
+        <v>350</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="K13" s="10">
         <v>0</v>
       </c>
       <c r="L13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O13" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13" s="10">
         <v>0</v>
@@ -6306,348 +6356,339 @@
       <c r="Q13" s="10">
         <v>0</v>
       </c>
-      <c r="R13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="W13" s="18" t="s">
-        <v>72</v>
+      <c r="R13" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="U13" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="V13" s="23" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="83" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>fast-glob-223</v>
+        <f>_xlfn.CONCAT(A14,"-",D14)</f>
+        <v>fs-extra-190</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D14" s="4">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="4">
-        <v>17</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="K14" s="10">
         <v>0</v>
       </c>
       <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
         <v>2</v>
       </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
       <c r="N14" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O14" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P14" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="10">
         <v>0</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="83" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="B15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>fast-glob-391</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>78</v>
+        <f>_xlfn.CONCAT(A15,"-",D15)</f>
+        <v>fs-extra-291</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D15" s="4">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G15" s="4">
+        <v>82</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>5</v>
+      </c>
+      <c r="N15" s="10">
+        <v>8</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="T15" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="U15" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="409.6">
+      <c r="A16" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>_xlfn.CONCAT(A16,"-",D16)</f>
+        <v>fs-extra-679</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="9">
+        <v>679</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <v>3</v>
+      </c>
+      <c r="N16" s="10">
+        <v>2</v>
+      </c>
+      <c r="O16" s="10">
+        <v>4</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>3</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="T16" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="U16" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="V16" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="85">
+      <c r="A17" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f>_xlfn.CONCAT(A17,"-",D17)</f>
+        <v>hessian.js-4</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="9">
+        <v>4</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="9">
+        <v>302</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
+        <v>2</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>1</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+    </row>
+    <row r="18" spans="1:23" ht="102">
+      <c r="A18" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>_xlfn.CONCAT(A18,"-",D18)</f>
+        <v>hexo-12</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="9">
         <v>12</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="K15" s="10">
-        <v>0</v>
-      </c>
-      <c r="L15" s="10">
-        <v>3</v>
-      </c>
-      <c r="M15" s="10">
+      <c r="E18" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="K18" s="10">
         <v>1</v>
       </c>
-      <c r="N15" s="10">
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>0</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="W15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="289">
-      <c r="A16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>node-fs-extra-190</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="4">
-        <v>190</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="10">
-        <v>0</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10">
-        <v>2</v>
-      </c>
-      <c r="N16" s="10">
-        <v>5</v>
-      </c>
-      <c r="O16" s="10">
-        <v>1</v>
-      </c>
-      <c r="P16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>0</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="409.6">
-      <c r="A17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>node-fs-extra-679</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="9">
-        <v>679</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="K17" s="10">
-        <v>0</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10">
-        <v>3</v>
-      </c>
-      <c r="N17" s="10">
-        <v>2</v>
-      </c>
-      <c r="O17" s="10">
-        <v>4</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>3</v>
-      </c>
-      <c r="R17" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="S17" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="T17" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="U17" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="V17" s="23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="323">
-      <c r="A18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>node-fs-extra-291</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="4">
-        <v>291</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="4">
-        <v>82</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0</v>
-      </c>
       <c r="L18" s="10">
         <v>0</v>
       </c>
       <c r="M18" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N18" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O18" s="10">
         <v>0</v>
@@ -6659,52 +6700,44 @@
         <v>0</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="S18" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="T18" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="U18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="V18" s="23" t="s">
-        <v>115</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
     </row>
     <row r="19" spans="1:23" ht="409.6">
-      <c r="A19" s="9" t="s">
-        <v>116</v>
+      <c r="A19" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="B19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>normalize-url-82</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="4">
-        <v>82</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>118</v>
+        <f>_xlfn.CONCAT(A19,"-",D19)</f>
+        <v>htmlparser2-746</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="9">
+        <v>746</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>330</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="10">
-        <v>140</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>121</v>
+        <v>331</v>
+      </c>
+      <c r="G19" t="s">
+        <v>332</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="K19" s="10">
         <v>0</v>
@@ -6716,209 +6749,202 @@
         <v>1</v>
       </c>
       <c r="N19" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="10">
         <v>0</v>
       </c>
-      <c r="R19" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="U19" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="V19" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="W19" s="8" t="s">
-        <v>124</v>
+      <c r="R19" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T19" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="U19" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="V19" s="23" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="149" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>116</v>
+      <c r="A20" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="B20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>normalize-url-38</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="4">
-        <v>38</v>
+        <f>_xlfn.CONCAT(A20,"-",D20)</f>
+        <v>htmlparser2-913</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="9">
+        <v>913</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>24</v>
+        <v>338</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="G20" s="4">
-        <v>103</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>126</v>
+        <v>289</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="K20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
         <v>1</v>
       </c>
-      <c r="M20" s="10">
-        <v>0</v>
-      </c>
-      <c r="N20" s="10">
-        <v>5</v>
-      </c>
       <c r="O20" s="10">
-        <v>1</v>
-      </c>
-      <c r="P20" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <v>2</v>
+      </c>
       <c r="Q20" s="10">
         <v>0</v>
       </c>
-      <c r="R20" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="V20" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="W20" s="8" t="s">
-        <v>124</v>
+      <c r="R20" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="T20" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="U20" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="V20" s="23" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="268" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>139</v>
+      <c r="A21" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="B21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>yargs-2171</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2171</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1049</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>144</v>
+        <f>_xlfn.CONCAT(A21,"-",D21)</f>
+        <v>jsdiff-94</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="9">
+        <v>94</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="K21" s="10">
         <v>0</v>
       </c>
       <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
         <v>1</v>
       </c>
-      <c r="M21" s="10">
-        <v>3</v>
-      </c>
       <c r="N21" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="10">
         <v>0</v>
       </c>
-      <c r="R21" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="U21" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="V21" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>151</v>
+      <c r="R21" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="T21" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="U21" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="V21" s="23" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="123" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>139</v>
+      <c r="A22" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="B22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>yargs-1493</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1493</v>
+        <f>_xlfn.CONCAT(A22,"-",D22)</f>
+        <v>jsdiff-118</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="9">
+        <v>118</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="4">
-        <v>275</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>154</v>
+        <v>234</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="9">
+        <v>84</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="K22" s="10">
         <v>0</v>
@@ -6927,217 +6953,220 @@
         <v>0</v>
       </c>
       <c r="M22" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="10">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>0</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="T22" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="U22" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="404">
+      <c r="A23" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>_xlfn.CONCAT(A23,"-",D23)</f>
+        <v>jsdiff-217</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" s="9">
+        <v>217</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" s="9">
+        <v>36</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0</v>
+      </c>
+      <c r="L23" s="10">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
+        <v>6</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>0</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="S23" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="T23" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="U23" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="V23" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="221">
+      <c r="A24" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>_xlfn.CONCAT(A24,"-",D24)</f>
+        <v>jsdiff-493</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="10">
+        <v>493</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" s="10">
+        <v>65</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
         <v>2</v>
       </c>
-      <c r="O22" s="10">
-        <v>3</v>
-      </c>
-      <c r="P22" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>0</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="T22" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="V22" s="8" t="s">
-        <v>158</v>
+      <c r="N24" s="10">
+        <v>8</v>
+      </c>
+      <c r="O24" s="10">
+        <v>2</v>
+      </c>
+      <c r="P24" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>0</v>
+      </c>
+      <c r="R24" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="S24" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="T24" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="U24" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="255">
-      <c r="A23" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>yargs-1376</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1376</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="4">
-        <v>22</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K23" s="10">
+    <row r="25" spans="1:23" ht="102">
+      <c r="A25" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>_xlfn.CONCAT(A25,"-",D25)</f>
+        <v>karma-4</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="9">
+        <v>4</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" s="9">
+        <v>46</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="K25" s="10">
         <v>1</v>
       </c>
-      <c r="L23" s="10">
-        <v>0</v>
-      </c>
-      <c r="M23" s="10">
-        <v>0</v>
-      </c>
-      <c r="N23" s="10">
-        <v>7</v>
-      </c>
-      <c r="O23" s="10">
-        <v>3</v>
-      </c>
-      <c r="P23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>0</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="T23" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="V23" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="238">
-      <c r="A24" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>yargs-1422</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1422</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="10">
-        <v>43</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K24" s="10">
-        <v>0</v>
-      </c>
-      <c r="L24" s="10">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0</v>
-      </c>
-      <c r="N24" s="10">
-        <v>3</v>
-      </c>
-      <c r="O24" s="10">
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="10">
-        <v>0</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="T24" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="U24" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="V24" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="255">
-      <c r="A25" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>yargs-1364</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1364</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="4">
-        <v>105</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="K25" s="10">
-        <v>0</v>
-      </c>
       <c r="L25" s="10">
         <v>0</v>
       </c>
       <c r="M25" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="10">
         <v>1</v>
@@ -7148,53 +7177,41 @@
       <c r="Q25" s="10">
         <v>0</v>
       </c>
-      <c r="R25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="S25" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="T25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="U25" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="V25" s="8" t="s">
-        <v>181</v>
+      <c r="R25" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="51" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>css-loader-1261</v>
+        <f>_xlfn.CONCAT(A26,"-",D26)</f>
+        <v>memfs-59</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="12">
-        <v>1261</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>184</v>
+        <v>36</v>
+      </c>
+      <c r="D26" s="4">
+        <v>59</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>289</v>
+        <v>38</v>
+      </c>
+      <c r="G26" s="4">
+        <v>847</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K26" s="10">
         <v>0</v>
@@ -7203,431 +7220,421 @@
         <v>0</v>
       </c>
       <c r="M26" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O26" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="10">
         <v>1</v>
       </c>
-      <c r="Q26" s="10">
-        <v>0</v>
-      </c>
-      <c r="R26" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="S26" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="T26" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="U26" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="V26" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>187</v>
+      <c r="R26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="W26" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="98" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>css-loader-1036</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>185</v>
+        <f t="shared" ref="B27:B40" si="1">_xlfn.CONCAT(A27,"-",D27)</f>
+        <v>memfs-391</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D27" s="4">
-        <v>1036</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>192</v>
+        <v>391</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="G27" s="4">
-        <v>60</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>194</v>
+        <v>1884</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="K27" s="10">
         <v>0</v>
       </c>
       <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
         <v>4</v>
       </c>
-      <c r="M27" s="10">
-        <v>0</v>
-      </c>
       <c r="N27" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27" s="10">
+        <v>1</v>
+      </c>
+      <c r="P27" s="10">
         <v>2</v>
       </c>
-      <c r="P27" s="10">
-        <v>0</v>
-      </c>
       <c r="Q27" s="10">
         <v>0</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="W27" s="9" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="206" customHeight="1">
+    <row r="28" spans="1:23" ht="152" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>css-loader-789</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="9">
-        <v>789</v>
+        <f t="shared" si="1"/>
+        <v>memfs-853</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="12">
+        <v>853</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>280</v>
+        <v>51</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1008</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>281</v>
+        <v>53</v>
       </c>
       <c r="K28" s="10">
         <v>0</v>
       </c>
       <c r="L28" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="10">
+        <v>1</v>
+      </c>
+      <c r="N28" s="10">
         <v>5</v>
       </c>
-      <c r="N28" s="10">
+      <c r="O28" s="10">
+        <v>6</v>
+      </c>
+      <c r="P28" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="U28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="178" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>_xlfn.CONCAT(A29,"-",D29)</f>
+        <v>memfs-870</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4">
+        <v>870</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2069</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="10">
         <v>1</v>
       </c>
-      <c r="O28" s="10">
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="10">
-        <v>0</v>
-      </c>
-      <c r="R28" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="S28" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="T28" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="U28" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="V28" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="W28" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="221">
-      <c r="A29" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>css-loader-663</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="9">
-        <v>663</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="L29" s="10">
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <v>3</v>
+      </c>
+      <c r="N29" s="10">
+        <v>4</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
         <v>2</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K29" s="10">
-        <v>0</v>
-      </c>
-      <c r="L29" s="10">
-        <v>2</v>
-      </c>
-      <c r="M29" s="10">
-        <v>1</v>
-      </c>
-      <c r="N29" s="10">
-        <v>0</v>
-      </c>
-      <c r="O29" s="10">
-        <v>0</v>
-      </c>
-      <c r="P29" s="10">
-        <v>0</v>
-      </c>
       <c r="Q29" s="10">
         <v>0</v>
       </c>
-      <c r="R29" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="S29" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="T29" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="U29" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="V29" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="W29" s="9" t="s">
-        <v>187</v>
+      <c r="R29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="179" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>compression-170</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D30" s="9">
-        <v>170</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>212</v>
+        <f t="shared" ref="B30" si="2">_xlfn.CONCAT(A30,"-",D30)</f>
+        <v>memfs-1024</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1024</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0</v>
-      </c>
-      <c r="L30" s="9">
-        <v>0</v>
-      </c>
-      <c r="M30" s="9">
-        <v>0</v>
-      </c>
-      <c r="N30" s="9">
+        <v>323</v>
+      </c>
+      <c r="G30" s="4">
+        <v>18</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0</v>
+      </c>
+      <c r="M30" s="10">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
+        <v>1</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0</v>
+      </c>
+      <c r="P30" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="U30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="409.6">
+      <c r="A31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>memfs-1093</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1093</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="4">
+        <v>830</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
         <v>5</v>
-      </c>
-      <c r="O30" s="9">
-        <v>5</v>
-      </c>
-      <c r="P30" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="9">
-        <v>0</v>
-      </c>
-      <c r="R30" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="S30" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="T30" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="U30" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="V30" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="W30" s="9"/>
-    </row>
-    <row r="31" spans="1:23" ht="221">
-      <c r="A31" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>jsdiff-493</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D31" s="10">
-        <v>493</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="10">
-        <v>65</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="K31" s="10">
-        <v>0</v>
-      </c>
-      <c r="L31" s="10">
-        <v>0</v>
-      </c>
-      <c r="M31" s="10">
-        <v>2</v>
-      </c>
-      <c r="N31" s="10">
-        <v>8</v>
       </c>
       <c r="O31" s="10">
         <v>2</v>
       </c>
       <c r="P31" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="10">
         <v>0</v>
       </c>
-      <c r="R31" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="S31" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="T31" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="U31" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="V31" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>222</v>
+      <c r="R31" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="150" customHeight="1">
-      <c r="A32" s="10" t="s">
-        <v>218</v>
+      <c r="A32" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>jsdiff-217</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D32" s="9">
-        <v>217</v>
+        <f>_xlfn.CONCAT(A32,"-",D32)</f>
+        <v>node-jsonfile-24</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="12">
+        <v>24</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G32" s="9">
-        <v>36</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>231</v>
+        <v>23</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="K32" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32" s="10">
         <v>0</v>
@@ -7636,10 +7643,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O32" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P32" s="10">
         <v>0</v>
@@ -7647,68 +7654,65 @@
       <c r="Q32" s="10">
         <v>0</v>
       </c>
-      <c r="R32" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="S32" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="T32" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="U32" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="V32" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>222</v>
+      <c r="R32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V32" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="134" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>218</v>
+      <c r="A33" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>jsdiff-118</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" s="9">
-        <v>118</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G33" s="9">
-        <v>84</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>236</v>
+        <f>_xlfn.CONCAT(A33,"-",D33)</f>
+        <v>node-jsonfile-25</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="4">
+        <v>25</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="4">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="K33" s="10">
         <v>0</v>
       </c>
       <c r="L33" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="10">
         <v>0</v>
@@ -7719,137 +7723,129 @@
       <c r="Q33" s="10">
         <v>0</v>
       </c>
-      <c r="R33" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="S33" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="T33" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="U33" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="V33" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>222</v>
+      <c r="R33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="109" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>218</v>
+      <c r="A34" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="B34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>jsdiff-94</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D34" s="9">
-        <v>94</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>243</v>
+        <f>_xlfn.CONCAT(A34,"-",D34)</f>
+        <v>normalize-url-38</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="4">
+        <v>38</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>247</v>
+        <v>24</v>
+      </c>
+      <c r="G34" s="4">
+        <v>103</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="K34" s="10">
         <v>0</v>
       </c>
       <c r="L34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="10">
         <v>5</v>
       </c>
       <c r="O34" s="10">
-        <v>0</v>
-      </c>
-      <c r="P34" s="10">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P34" s="10"/>
       <c r="Q34" s="10">
         <v>0</v>
       </c>
-      <c r="R34" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="S34" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="T34" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="U34" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="V34" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="W34" s="5" t="s">
-        <v>222</v>
+      <c r="R34" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="U34" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="102">
-      <c r="A35" s="10" t="s">
-        <v>291</v>
+    <row r="35" spans="1:23" ht="133" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="B35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>express.js-2</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="D35" s="9">
-        <v>2</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>301</v>
+        <f>_xlfn.CONCAT(A35,"-",D35)</f>
+        <v>normalize-url-82</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="4">
+        <v>82</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G35" s="9">
-        <v>361</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>298</v>
+        <v>24</v>
+      </c>
+      <c r="G35" s="10">
+        <v>140</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="K35" s="10">
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
         <v>1</v>
-      </c>
-      <c r="L35" s="10">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0</v>
       </c>
       <c r="N35" s="10">
         <v>2</v>
@@ -7863,187 +7859,206 @@
       <c r="Q35" s="10">
         <v>0</v>
       </c>
-      <c r="R35" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="S35" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="T35" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="U35" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="V35" s="23" t="s">
-        <v>293</v>
+      <c r="R35" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="U35" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="85">
+    <row r="36" spans="1:23" ht="213" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="B36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>hessian.js-4</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="D36" s="9">
-        <v>4</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="G36" s="9">
-        <v>302</v>
+        <f>_xlfn.CONCAT(A36,"-",D36)</f>
+        <v>simple-statistics-334</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="4">
+        <v>334</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="4">
+        <v>72</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>298</v>
+        <v>68</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="K36" s="10">
         <v>0</v>
       </c>
       <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="10">
         <v>2</v>
       </c>
-      <c r="M36" s="10">
-        <v>0</v>
-      </c>
       <c r="N36" s="10">
+        <v>5</v>
+      </c>
+      <c r="O36" s="10">
+        <v>3</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="U36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="V36" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="188" customHeight="1">
+      <c r="A37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>simple-statistics-633</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="12">
+        <v>633</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0</v>
+      </c>
+      <c r="L37" s="10">
         <v>1</v>
       </c>
-      <c r="O36" s="10">
-        <v>0</v>
-      </c>
-      <c r="P36" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>0</v>
-      </c>
-      <c r="R36" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
+      <c r="M37" s="10">
+        <v>2</v>
+      </c>
+      <c r="N37" s="10">
+        <v>1</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="37" spans="1:23" ht="102">
-      <c r="A37" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="B37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>hexo-12</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="D37" s="9">
-        <v>12</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="K37" s="10">
-        <v>1</v>
-      </c>
-      <c r="L37" s="10">
-        <v>0</v>
-      </c>
-      <c r="M37" s="10">
-        <v>0</v>
-      </c>
-      <c r="N37" s="10">
-        <v>6</v>
-      </c>
-      <c r="O37" s="10">
-        <v>0</v>
-      </c>
-      <c r="P37" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="10">
-        <v>0</v>
-      </c>
-      <c r="R37" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-    </row>
-    <row r="38" spans="1:23" ht="102">
-      <c r="A38" s="10" t="s">
-        <v>311</v>
+    <row r="38" spans="1:23" ht="131" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="B38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>karma-4</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="D38" s="9">
-        <v>4</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>301</v>
+        <f>_xlfn.CONCAT(A38,"-",D38)</f>
+        <v>yargs-1364</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1364</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="G38" s="9">
-        <v>46</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>298</v>
+        <v>176</v>
+      </c>
+      <c r="G38" s="4">
+        <v>105</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="K38" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="10">
         <v>0</v>
       </c>
       <c r="M38" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="10">
         <v>1</v>
@@ -8054,284 +8069,306 @@
       <c r="Q38" s="10">
         <v>0</v>
       </c>
-      <c r="R38" s="23" t="s">
-        <v>315</v>
+      <c r="R38" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="U38" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="V38" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="409.6">
-      <c r="A39" s="10" t="s">
-        <v>329</v>
+    <row r="39" spans="1:23" ht="164" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="B39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>htmlparser2-746</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="D39" s="9">
-        <v>746</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="G39" t="s">
-        <v>333</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>335</v>
+        <f t="shared" si="1"/>
+        <v>yargs-1376</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1376</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="4">
+        <v>22</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>336</v>
+        <v>162</v>
       </c>
       <c r="K39" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="10">
         <v>0</v>
       </c>
       <c r="M39" s="10">
+        <v>0</v>
+      </c>
+      <c r="N39" s="10">
+        <v>7</v>
+      </c>
+      <c r="O39" s="10">
+        <v>3</v>
+      </c>
+      <c r="P39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>0</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="165" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>yargs-1422</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1422</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="10">
+        <v>43</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0</v>
+      </c>
+      <c r="M40" s="10">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
+        <v>3</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0</v>
+      </c>
+      <c r="P40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>0</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="V40" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="160" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <f>_xlfn.CONCAT(A41,"-",D41)</f>
+        <v>yargs-1493</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1493</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="4">
+        <v>275</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0</v>
+      </c>
+      <c r="M41" s="10">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10">
+        <v>2</v>
+      </c>
+      <c r="O41" s="10">
+        <v>3</v>
+      </c>
+      <c r="P41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>0</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="W41" s="9"/>
+    </row>
+    <row r="42" spans="1:23" ht="222" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f>_xlfn.CONCAT(A42,"-",D42)</f>
+        <v>yargs-2171</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2171</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1049</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+      <c r="L42" s="10">
         <v>1</v>
       </c>
-      <c r="N39" s="10">
+      <c r="M42" s="10">
         <v>3</v>
       </c>
-      <c r="O39" s="10">
+      <c r="N42" s="10">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10">
         <v>1</v>
       </c>
-      <c r="P39" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="10">
-        <v>0</v>
-      </c>
-      <c r="R39" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="S39" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="T39" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="U39" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="V39" s="23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="388">
-      <c r="A40" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>htmlparser2-913</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="D40" s="9">
-        <v>913</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G40" s="4">
-        <v>289</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="K40" s="10">
-        <v>1</v>
-      </c>
-      <c r="L40" s="10">
-        <v>0</v>
-      </c>
-      <c r="M40" s="10">
-        <v>0</v>
-      </c>
-      <c r="N40" s="10">
-        <v>1</v>
-      </c>
-      <c r="O40" s="10">
-        <v>0</v>
-      </c>
-      <c r="P40" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>0</v>
-      </c>
-      <c r="R40" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="S40" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="T40" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="U40" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="V40" s="23" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="179" customHeight="1">
-      <c r="A41" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B41" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>fast-xml-parser -426</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D41" s="10">
-        <v>426</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="G41" s="10">
-        <v>195</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="K41" s="10">
-        <v>0</v>
-      </c>
-      <c r="L41" s="10">
-        <v>1</v>
-      </c>
-      <c r="M41" s="10">
-        <v>0</v>
-      </c>
-      <c r="N41" s="10">
-        <v>3</v>
-      </c>
-      <c r="O41" s="10">
-        <v>0</v>
-      </c>
-      <c r="P41" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="10">
-        <v>0</v>
-      </c>
-      <c r="R41" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="S41" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="T41" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="U41" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="V41" s="23" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="409.6">
-      <c r="A42" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="B42" s="10" t="str">
-        <f t="shared" ref="B42" si="2">_xlfn.CONCAT(A42,"-",D42)</f>
-        <v>fast-xml-parser -234</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D42" s="10">
-        <v>234</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G42" s="4">
-        <v>192</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="K42" s="10">
-        <v>0</v>
-      </c>
-      <c r="L42" s="10">
-        <v>0</v>
-      </c>
-      <c r="M42" s="10">
-        <v>1</v>
-      </c>
-      <c r="N42" s="10">
-        <v>7</v>
-      </c>
-      <c r="O42" s="10">
-        <v>0</v>
-      </c>
       <c r="P42" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q42" s="10">
         <v>0</v>
       </c>
-      <c r="R42" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="S42" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="T42" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="U42" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="V42" s="23" t="s">
-        <v>365</v>
+      <c r="R42" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="S42" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="T42" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="U42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="V42" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -8339,36 +8376,36 @@
     <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{E27A36EE-9FB0-E047-A71E-675FC3FCF183}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{BB0E88E7-2737-EA46-8905-ECDF69E651D7}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{4362D82B-9522-AC46-B768-A8231654B4A3}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{49750F05-4F3E-C64B-89B9-9927A24D7737}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{AB9282DB-2D31-EC40-9025-F65792BF479F}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{FB31A907-66F2-DC4D-8F4D-12BEEACD8CF7}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{AC7A5222-A141-C547-B4BA-A7E369D48987}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{41F9A05E-9545-404F-A59A-61F1736A4433}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{CA013061-61BF-484C-92F0-C139B056E531}"/>
-    <hyperlink ref="C16" r:id="rId10" xr:uid="{85212475-E9DF-9346-B54D-00A6479F5031}"/>
-    <hyperlink ref="C17" r:id="rId11" xr:uid="{7B51BD02-178C-1243-84F3-869E36370B44}"/>
-    <hyperlink ref="C18" r:id="rId12" xr:uid="{D7C44975-8CD0-F54B-A507-870B5816BA89}"/>
-    <hyperlink ref="C19" r:id="rId13" xr:uid="{7D380E9C-453B-A64F-A27A-1EF0A86A1B49}"/>
-    <hyperlink ref="C20" r:id="rId14" xr:uid="{6685889E-162C-1147-8EC1-EA437BD2A95E}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{B510CA73-1773-BE49-9F6E-5407851B6E20}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{FB6CB3FC-3081-A64F-BF1D-560168F9B529}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{FF9570AC-60A1-D444-AAF7-50C94C4DB2E5}"/>
-    <hyperlink ref="C23" r:id="rId18" xr:uid="{6E4A7E09-8537-8D4A-A1BD-83E05228AEC9}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{A06EAAC5-2858-3344-9B3E-7B83CCAAD5BA}"/>
-    <hyperlink ref="C25" r:id="rId20" xr:uid="{66AB5E01-5AC2-F244-9D6D-B032622F3B5E}"/>
-    <hyperlink ref="C28" r:id="rId21" xr:uid="{2C00C4A4-C55C-4A4B-9241-A74FB21466C7}"/>
-    <hyperlink ref="C31" r:id="rId22" xr:uid="{A49216BF-8F11-C948-93E1-F811BB1B459E}"/>
-    <hyperlink ref="C26" r:id="rId23" xr:uid="{36D5AFC7-1D76-CE46-B021-863F6085CCB4}"/>
-    <hyperlink ref="C30" r:id="rId24" xr:uid="{E789F404-6791-0A47-9319-7FD94AAC66B5}"/>
-    <hyperlink ref="C35" r:id="rId25" xr:uid="{A8AA6EFD-2E9D-3E4E-85E4-8274BD837B08}"/>
-    <hyperlink ref="C36" r:id="rId26" xr:uid="{E5751908-3AF1-DA44-8A24-FF2B149FB5B7}"/>
-    <hyperlink ref="C37" r:id="rId27" xr:uid="{00B2DDE5-D07F-9B47-B3B2-0DBE98F5D303}"/>
-    <hyperlink ref="C38" r:id="rId28" xr:uid="{A69D08C0-DF6C-874B-A5E6-29B4BD6748B2}"/>
-    <hyperlink ref="C11" r:id="rId29" xr:uid="{88CB6850-3D4E-A343-8E95-923612884512}"/>
-    <hyperlink ref="C10" r:id="rId30" xr:uid="{5AE14BDB-4C2C-CE48-B7F2-5C6F0C06DA96}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{E27A36EE-9FB0-E047-A71E-675FC3FCF183}"/>
+    <hyperlink ref="C32" r:id="rId2" xr:uid="{BB0E88E7-2737-EA46-8905-ECDF69E651D7}"/>
+    <hyperlink ref="C29" r:id="rId3" xr:uid="{4362D82B-9522-AC46-B768-A8231654B4A3}"/>
+    <hyperlink ref="C27" r:id="rId4" xr:uid="{49750F05-4F3E-C64B-89B9-9927A24D7737}"/>
+    <hyperlink ref="C28" r:id="rId5" xr:uid="{AB9282DB-2D31-EC40-9025-F65792BF479F}"/>
+    <hyperlink ref="C26" r:id="rId6" xr:uid="{FB31A907-66F2-DC4D-8F4D-12BEEACD8CF7}"/>
+    <hyperlink ref="C37" r:id="rId7" xr:uid="{AC7A5222-A141-C547-B4BA-A7E369D48987}"/>
+    <hyperlink ref="C36" r:id="rId8" xr:uid="{41F9A05E-9545-404F-A59A-61F1736A4433}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{CA013061-61BF-484C-92F0-C139B056E531}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{85212475-E9DF-9346-B54D-00A6479F5031}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{7B51BD02-178C-1243-84F3-869E36370B44}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{D7C44975-8CD0-F54B-A507-870B5816BA89}"/>
+    <hyperlink ref="C35" r:id="rId13" xr:uid="{7D380E9C-453B-A64F-A27A-1EF0A86A1B49}"/>
+    <hyperlink ref="C34" r:id="rId14" xr:uid="{6685889E-162C-1147-8EC1-EA437BD2A95E}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{B510CA73-1773-BE49-9F6E-5407851B6E20}"/>
+    <hyperlink ref="C42" r:id="rId16" xr:uid="{FB6CB3FC-3081-A64F-BF1D-560168F9B529}"/>
+    <hyperlink ref="C41" r:id="rId17" xr:uid="{FF9570AC-60A1-D444-AAF7-50C94C4DB2E5}"/>
+    <hyperlink ref="C39" r:id="rId18" xr:uid="{6E4A7E09-8537-8D4A-A1BD-83E05228AEC9}"/>
+    <hyperlink ref="C40" r:id="rId19" xr:uid="{A06EAAC5-2858-3344-9B3E-7B83CCAAD5BA}"/>
+    <hyperlink ref="C38" r:id="rId20" xr:uid="{66AB5E01-5AC2-F244-9D6D-B032622F3B5E}"/>
+    <hyperlink ref="C4" r:id="rId21" xr:uid="{2C00C4A4-C55C-4A4B-9241-A74FB21466C7}"/>
+    <hyperlink ref="C24" r:id="rId22" xr:uid="{A49216BF-8F11-C948-93E1-F811BB1B459E}"/>
+    <hyperlink ref="C6" r:id="rId23" xr:uid="{36D5AFC7-1D76-CE46-B021-863F6085CCB4}"/>
+    <hyperlink ref="C7" r:id="rId24" xr:uid="{E789F404-6791-0A47-9319-7FD94AAC66B5}"/>
+    <hyperlink ref="C9" r:id="rId25" xr:uid="{A8AA6EFD-2E9D-3E4E-85E4-8274BD837B08}"/>
+    <hyperlink ref="C17" r:id="rId26" xr:uid="{E5751908-3AF1-DA44-8A24-FF2B149FB5B7}"/>
+    <hyperlink ref="C18" r:id="rId27" xr:uid="{00B2DDE5-D07F-9B47-B3B2-0DBE98F5D303}"/>
+    <hyperlink ref="C25" r:id="rId28" xr:uid="{A69D08C0-DF6C-874B-A5E6-29B4BD6748B2}"/>
+    <hyperlink ref="C31" r:id="rId29" xr:uid="{88CB6850-3D4E-A343-8E95-923612884512}"/>
+    <hyperlink ref="C30" r:id="rId30" xr:uid="{5AE14BDB-4C2C-CE48-B7F2-5C6F0C06DA96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId31"/>

--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5442DEF1-89E0-3B4A-BEA4-D020E4119A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006E7A04-4855-4C4D-8EB1-F1DAAC02613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="500" windowWidth="37900" windowHeight="22400" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -4135,6 +4135,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2C4F-4643-B290-F82CEC772BBA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -5466,10 +5471,10 @@
   <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5605,7 +5610,7 @@
         <v>182</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f>_xlfn.CONCAT(A3,"-",D3)</f>
+        <f t="shared" ref="B3:B11" si="0">_xlfn.CONCAT(A3,"-",D3)</f>
         <v>css-loader-663</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -5677,7 +5682,7 @@
         <v>182</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>_xlfn.CONCAT(A4,"-",D4)</f>
+        <f t="shared" si="0"/>
         <v>css-loader-789</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -5744,15 +5749,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="62" customHeight="1">
+    <row r="5" spans="1:26" ht="95" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>182</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f>_xlfn.CONCAT(A5,"-",D5)</f>
+        <f t="shared" si="0"/>
         <v>css-loader-1036</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>184</v>
       </c>
       <c r="D5" s="4">
@@ -5821,7 +5826,7 @@
         <v>182</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>_xlfn.CONCAT(A6,"-",D6)</f>
+        <f t="shared" si="0"/>
         <v>css-loader-1261</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -5893,7 +5898,7 @@
         <v>212</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>_xlfn.CONCAT(A7,"-",D7)</f>
+        <f t="shared" si="0"/>
         <v>compression-170</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -5962,7 +5967,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>_xlfn.CONCAT(A8,"-",D8)</f>
+        <f t="shared" si="0"/>
         <v>countries-and-timezones-60</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -6031,7 +6036,7 @@
         <v>290</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>_xlfn.CONCAT(A9,"-",D9)</f>
+        <f t="shared" si="0"/>
         <v>express.js-2</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -6100,7 +6105,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>_xlfn.CONCAT(A10,"-",D10)</f>
+        <f t="shared" si="0"/>
         <v>fast-glob-223</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -6170,7 +6175,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f>_xlfn.CONCAT(A11,"-",D11)</f>
+        <f t="shared" si="0"/>
         <v>fast-glob-391</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -6239,7 +6244,7 @@
         <v>346</v>
       </c>
       <c r="B12" s="10" t="str">
-        <f t="shared" ref="B12" si="0">_xlfn.CONCAT(A12,"-",D12)</f>
+        <f t="shared" ref="B12" si="1">_xlfn.CONCAT(A12,"-",D12)</f>
         <v>fast-xml-parser -234</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -6308,7 +6313,7 @@
         <v>346</v>
       </c>
       <c r="B13" s="10" t="str">
-        <f>_xlfn.CONCAT(A13,"-",D13)</f>
+        <f t="shared" ref="B13:B26" si="2">_xlfn.CONCAT(A13,"-",D13)</f>
         <v>fast-xml-parser -426</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -6377,7 +6382,7 @@
         <v>365</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f>_xlfn.CONCAT(A14,"-",D14)</f>
+        <f t="shared" si="2"/>
         <v>fs-extra-190</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -6446,7 +6451,7 @@
         <v>365</v>
       </c>
       <c r="B15" s="4" t="str">
-        <f>_xlfn.CONCAT(A15,"-",D15)</f>
+        <f t="shared" si="2"/>
         <v>fs-extra-291</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -6518,7 +6523,7 @@
         <v>365</v>
       </c>
       <c r="B16" s="4" t="str">
-        <f>_xlfn.CONCAT(A16,"-",D16)</f>
+        <f t="shared" si="2"/>
         <v>fs-extra-679</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -6590,7 +6595,7 @@
         <v>299</v>
       </c>
       <c r="B17" s="4" t="str">
-        <f>_xlfn.CONCAT(A17,"-",D17)</f>
+        <f t="shared" si="2"/>
         <v>hessian.js-4</v>
       </c>
       <c r="C17" s="27" t="s">
@@ -6651,7 +6656,7 @@
         <v>306</v>
       </c>
       <c r="B18" s="4" t="str">
-        <f>_xlfn.CONCAT(A18,"-",D18)</f>
+        <f t="shared" si="2"/>
         <v>hexo-12</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -6712,7 +6717,7 @@
         <v>328</v>
       </c>
       <c r="B19" s="4" t="str">
-        <f>_xlfn.CONCAT(A19,"-",D19)</f>
+        <f t="shared" si="2"/>
         <v>htmlparser2-746</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -6781,7 +6786,7 @@
         <v>328</v>
       </c>
       <c r="B20" s="4" t="str">
-        <f>_xlfn.CONCAT(A20,"-",D20)</f>
+        <f t="shared" si="2"/>
         <v>htmlparser2-913</v>
       </c>
       <c r="C20" s="27" t="s">
@@ -6850,7 +6855,7 @@
         <v>217</v>
       </c>
       <c r="B21" s="4" t="str">
-        <f>_xlfn.CONCAT(A21,"-",D21)</f>
+        <f t="shared" si="2"/>
         <v>jsdiff-94</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -6919,7 +6924,7 @@
         <v>217</v>
       </c>
       <c r="B22" s="4" t="str">
-        <f>_xlfn.CONCAT(A22,"-",D22)</f>
+        <f t="shared" si="2"/>
         <v>jsdiff-118</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -6988,7 +6993,7 @@
         <v>217</v>
       </c>
       <c r="B23" s="4" t="str">
-        <f>_xlfn.CONCAT(A23,"-",D23)</f>
+        <f t="shared" si="2"/>
         <v>jsdiff-217</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -7057,7 +7062,7 @@
         <v>217</v>
       </c>
       <c r="B24" s="4" t="str">
-        <f>_xlfn.CONCAT(A24,"-",D24)</f>
+        <f t="shared" si="2"/>
         <v>jsdiff-493</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -7129,7 +7134,7 @@
         <v>310</v>
       </c>
       <c r="B25" s="4" t="str">
-        <f>_xlfn.CONCAT(A25,"-",D25)</f>
+        <f t="shared" si="2"/>
         <v>karma-4</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -7186,7 +7191,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="4" t="str">
-        <f>_xlfn.CONCAT(A26,"-",D26)</f>
+        <f t="shared" si="2"/>
         <v>memfs-59</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -7258,7 +7263,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="4" t="str">
-        <f t="shared" ref="B27:B40" si="1">_xlfn.CONCAT(A27,"-",D27)</f>
+        <f t="shared" ref="B27:B40" si="3">_xlfn.CONCAT(A27,"-",D27)</f>
         <v>memfs-391</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -7327,7 +7332,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>memfs-853</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -7465,7 +7470,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="4" t="str">
-        <f t="shared" ref="B30" si="2">_xlfn.CONCAT(A30,"-",D30)</f>
+        <f t="shared" ref="B30" si="4">_xlfn.CONCAT(A30,"-",D30)</f>
         <v>memfs-1024</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -7537,7 +7542,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>memfs-1093</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -7949,7 +7954,7 @@
         <v>63</v>
       </c>
       <c r="B37" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>simple-statistics-633</v>
       </c>
       <c r="C37" s="11" t="s">
@@ -8093,7 +8098,7 @@
         <v>138</v>
       </c>
       <c r="B39" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yargs-1376</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -8165,7 +8170,7 @@
         <v>138</v>
       </c>
       <c r="B40" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>yargs-1422</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -8406,8 +8411,9 @@
     <hyperlink ref="C25" r:id="rId28" xr:uid="{A69D08C0-DF6C-874B-A5E6-29B4BD6748B2}"/>
     <hyperlink ref="C31" r:id="rId29" xr:uid="{88CB6850-3D4E-A343-8E95-923612884512}"/>
     <hyperlink ref="C30" r:id="rId30" xr:uid="{5AE14BDB-4C2C-CE48-B7F2-5C6F0C06DA96}"/>
+    <hyperlink ref="C5" r:id="rId31" xr:uid="{0A39F3D9-23B4-C046-AB35-0012C879ABE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId32"/>
 </worksheet>
 </file>
--- a/casestudy/casestudy-results.xlsx
+++ b/casestudy/casestudy-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006E7A04-4855-4C4D-8EB1-F1DAAC02613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321AC66A-41F3-9249-8AF3-BEA897255156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="500" windowWidth="37900" windowHeight="22400" xr2:uid="{C52E8BFD-6907-DC4C-AC9A-6C7792B188BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="401">
   <si>
     <t>application</t>
   </si>
@@ -91,15 +91,6 @@
   </si>
   <si>
     <t>run5</t>
-  </si>
-  <si>
-    <t>10 mutants, 3 of which produce the same test failure as the original bug</t>
-  </si>
-  <si>
-    <t>10 mutants, 2 of which produce the same test failure as the original bug</t>
-  </si>
-  <si>
-    <t>10 mutants, including the original bug, and 3 of which produce the same test failure as the original bug</t>
   </si>
   <si>
     <t>node-jsonfile</t>
@@ -127,15 +118,6 @@
       </t>
   </si>
   <si>
-    <t>11 mutants, of which 2 are identical to each of the parts of the original bug</t>
-  </si>
-  <si>
-    <t>12 mutants, of which 3 are identical to parts of the original bug</t>
-  </si>
-  <si>
-    <t>12 mutants, 1 of which is identical to part of the original bug</t>
-  </si>
-  <si>
     <t>afaba5d</t>
   </si>
   <si>
@@ -154,9 +136,6 @@
       at Object.readFileSync (index.js:29:30)
       at Context.&lt;anonymous&gt; (test.js:158:25)
       at process.processImmediate (node:internal/timers:483:21)</t>
-  </si>
-  <si>
-    <t>3 mutants, 2 of which cause the same test failure as the original bug</t>
   </si>
   <si>
     <t>memfs</t>
@@ -509,12 +488,6 @@
       at Object.&lt;anonymous&gt; (src/__tests__/volume.test.ts:1099:21)"</t>
   </si>
   <si>
-    <t>12 mutants, two cause the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>10 mutants, 2 cause the same failure as the original bug, 1 is the original bug</t>
-  </si>
-  <si>
     <t>301f2d1</t>
   </si>
   <si>
@@ -540,18 +513,6 @@
       at Volume.Object.&lt;anonymous&gt;.Volume.utimesBase (src/volume.ts:1538:23)
       at Volume.Object.&lt;anonymous&gt;.Volume.utimesSync (src/volume.ts:1547:14)
       at Object.&lt;anonymous&gt; (src/__tests__/volume.test.ts:960:21)</t>
-  </si>
-  <si>
-    <t>10 mutants, 4 of which cause the same failures as the original bug</t>
-  </si>
-  <si>
-    <t>13 mutants, 4 cause failures identical to those caused by the original bug, 1 is the original bug</t>
-  </si>
-  <si>
-    <t>11 mutants, 3 cause failures identical to those caused by the original bug</t>
-  </si>
-  <si>
-    <t>10 mutants, 2 cause the same failure as the original bug</t>
   </si>
   <si>
     <t>8b021b3</t>
@@ -590,12 +551,6 @@
       at Object.&lt;anonymous&gt; (src/__tests__/volume.test.ts:10:1)</t>
   </si>
   <si>
-    <t>15 mutants, 1 of which causes the same test failure as the original bug</t>
-  </si>
-  <si>
-    <t>15 mutants, NONE produced behaviors similar to the original bug</t>
-  </si>
-  <si>
     <t>b90c016</t>
   </si>
   <si>
@@ -631,15 +586,6 @@
       at node:internal/streams/writable:936:13
       at processTicksAndRejections (node:internal/process/task_queues:82:21)
  RUNS  src/__tests__/volume/ReadStream.test.ts</t>
-  </si>
-  <si>
-    <t>4 mutants, 1 of which causes the same test failure as the original bug</t>
-  </si>
-  <si>
-    <t>3 mutants, 1 of which causes the same test failure as the original bug</t>
-  </si>
-  <si>
-    <t>4 mutants, 2 of which causes the same test failure as the original bug</t>
   </si>
   <si>
     <t>simple-statistics</t>
@@ -803,18 +749,6 @@
     <t>package.json, remove "npm run lint &amp;" on line 32</t>
   </si>
   <si>
-    <t>12 mutants, 2 of which produce the same test failure as the original bug</t>
-  </si>
-  <si>
-    <t>12 mutants, 1 of which produce the same test failure as the original bug</t>
-  </si>
-  <si>
-    <t>10 mutants, 1 of which produce the same test failure as the original bug</t>
-  </si>
-  <si>
-    <t>11 mutants, 1 of which produce the same test failure as the original bug</t>
-  </si>
-  <si>
     <t>fast-glob</t>
   </si>
   <si>
@@ -852,12 +786,6 @@
 +               // "noUnusedParameters": true,</t>
   </si>
   <si>
-    <t>16 mutants, 2 produce the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>17 mutants, 2 produce the same failure as the original bug</t>
-  </si>
-  <si>
     <t>https://github.com/jprichardson/node-fs-extra</t>
   </si>
   <si>
@@ -893,37 +821,10 @@
       at Context.&lt;anonymous&gt; (lib/copy-sync/__tests__/copy-sync-file.test.js:191:18)</t>
   </si>
   <si>
-    <t>8  mutants, 2 produce the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>10  mutants, 4 produce the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>8  mutants, 4 produce the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>8  mutants, 3 produce the same failure as the original bug</t>
-  </si>
-  <si>
     <t>7c251d6</t>
   </si>
   <si>
     <t>lib/util/stat.js</t>
-  </si>
-  <si>
-    <t>12  mutants, of which 3 produce the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>13  mutants, of which 2 produce the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>9 mutants, of which 0 produce the same test failures as the original bug</t>
-  </si>
-  <si>
-    <t>13  mutants, of which 1 produce the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>13  mutants, of which 3 produce the same failure as the original bug</t>
   </si>
   <si>
     <t>2e7f755</t>
@@ -947,21 +848,6 @@
       at lib/copy/ncp.js:122:11
       at node_modules/graceful-fs/polyfills.js:254:20
       at FSReqCallback.oncomplete (node:fs:188:23)</t>
-  </si>
-  <si>
-    <t>13  mutants, of which 5 produce the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>15  mutants, of which 6 produce the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>14  mutants, of which 5 produce the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>13  mutants, of which 6 produce the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>14  mutants, of which 8 produce the same failure as the original bug</t>
   </si>
   <si>
     <t>normalize-url</t>
@@ -1004,12 +890,6 @@
   processEmit [as emit] (node_modules/nyc/node_modules/signal-exit/index.js:155:32)</t>
   </si>
   <si>
-    <t>3  mutants, of which 1  produces the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>3  mutants, of which 1  produces the same failures as the original bug</t>
-  </si>
-  <si>
     <t>NOTE: disable "xo" in "npm run test" script; disable failing tests for invalid URLs</t>
   </si>
   <si>
@@ -1034,18 +914,6 @@
   </si>
   <si>
     <t>if (opts.stripWWW &amp;&amp; /^www\.([a-z\-\d]{2,63})\.([a-z\.]{2,5})$/.test(urlObj.hostname)) {</t>
-  </si>
-  <si>
-    <t>7  mutants, of which 1  produces the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>7  mutants, of which 0  produce the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>6  mutants, of which 2 produce the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>8  mutants, of which 2 produce the same failure as the original bug</t>
   </si>
   <si>
     <t>eb55d1d</t>
@@ -1078,9 +946,6 @@
       at process.processImmediate (node:internal/timers:483:21)</t>
   </si>
   <si>
-    <t>10  mutants, 3 produce the same failure as the original bug</t>
-  </si>
-  <si>
     <t>yargs</t>
   </si>
   <si>
@@ -1111,21 +976,6 @@
       +--arg Old description [string] [default: "new"]
       at Context.&lt;anonymous&gt; (test/usage.cjs:4866:15)
       at process.processImmediate (node:internal/timers:483:21)</t>
-  </si>
-  <si>
-    <t>11 mutants, of which 4 cause the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>10 mutants, of which 3 cause the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>11 mutants, of which 3 cause the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>12 mutants, of which 4 cause the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>12 mutants, of which 2 cause the same failure as the original bug</t>
   </si>
   <si>
     <t>this.describe(key, desc);</t>
@@ -1192,15 +1042,6 @@
       at process.processImmediate (node:internal/timers:483:21)</t>
   </si>
   <si>
-    <t>5 mutants, none causing the same test failures as the original bug</t>
-  </si>
-  <si>
-    <t>6 mutants, of which 2 are causing the same test failures as the original bug</t>
-  </si>
-  <si>
-    <t>3 mutants, none causing the same test failures as the original bug</t>
-  </si>
-  <si>
     <t>3d26d11</t>
   </si>
   <si>
@@ -1225,18 +1066,6 @@
     <t>if (Object.prototype.hasOwnProperty.call(config, 'extends')) {</t>
   </si>
   <si>
-    <t>11 mutants, 1 is identical to the original bug; none of the others create similar failures</t>
-  </si>
-  <si>
-    <t>10 mutants, 1 is identical to the original bug; none of the others create similar failures</t>
-  </si>
-  <si>
-    <t>9 mutants, 1 is identical to the original bug; none of the others create similar failures</t>
-  </si>
-  <si>
-    <t>8 mutants, 1 is identical to the original bug; none of the others create similar failures</t>
-  </si>
-  <si>
     <t>9a42b63</t>
   </si>
   <si>
@@ -1260,12 +1089,6 @@
       at /Users/franktip/git/mutation-testing-data/casestudy/yargs-2171/yargs/test/middleware.js:173:28</t>
   </si>
   <si>
-    <t>3 mutants, none of which are causing failures similar to those created by the original bug</t>
-  </si>
-  <si>
-    <t>2 mutants, none of which are causing failures similar to those created by the original bug</t>
-  </si>
-  <si>
     <t>35d777c</t>
   </si>
   <si>
@@ -1287,12 +1110,6 @@
     <t>if ((currentContext.commands.length &gt; 0) || (commandKeys.length &gt; 0)) {</t>
   </si>
   <si>
-    <t>3 mutants, 2 of which are causing failures similar to those created by the original bug</t>
-  </si>
-  <si>
-    <t>3 mutants, 1 of which are causing failures similar to those created by the original bug</t>
-  </si>
-  <si>
     <t>css-loader</t>
   </si>
   <si>
@@ -1306,19 +1123,6 @@
   </si>
   <si>
     <t>use Node v16, disable linter</t>
-  </si>
-  <si>
-    <t>11 mutants, of which none are causing failures identical to the original bug</t>
-  </si>
-  <si>
-    <t>10 mutants, of which none are causing failures identical to the original bug
-BUT: one is identical to the buggy line 88, which is not executed, so the mutant survives</t>
-  </si>
-  <si>
-    <t>13 mutants, of which none are causing failures identical to the original bug</t>
-  </si>
-  <si>
-    <t>12 mutants, of which none are causing failures identical to the original bug</t>
   </si>
   <si>
     <t>ded2a79</t>
@@ -1359,29 +1163,11 @@
     );</t>
   </si>
   <si>
-    <t>6 mutants, of which 3 cause the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>6 mutants, of which 4 cause the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>5 mutants, of which 3 cause the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>4 mutants, of which 3 cause the same failure as the original bug</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 lib/css-base.js</t>
   </si>
   <si>
     <t>e3bb83a</t>
-  </si>
-  <si>
-    <t>6 mutants, of which 5 cause the same failure as the original bug</t>
-  </si>
-  <si>
-    <t>6 mutants, of which 2 cause the same failure as the original bug</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1411,9 +1197,6 @@
       at lib/processCss.js:211:3</t>
   </si>
   <si>
-    <t>3 mutants, all cauising the same test failure as the original bug</t>
-  </si>
-  <si>
     <t>https://github.com/expressjs/compression</t>
   </si>
   <si>
@@ -1421,18 +1204,6 @@
   </si>
   <si>
     <t>compression</t>
-  </si>
-  <si>
-    <t>10 mutants, none of which are causing the same failures as the bug</t>
-  </si>
-  <si>
-    <t>9 mutants, none of which are causing the same failures as the bug</t>
-  </si>
-  <si>
-    <t>7 mutants, none of which are causing the same failures as the bug</t>
-  </si>
-  <si>
-    <t>8 mutants, none of which are causing the same failures as the bug</t>
   </si>
   <si>
     <t>jsdiff</t>
@@ -1463,12 +1234,6 @@
   </si>
   <si>
     <t xml:space="preserve">      if (Object.prototype.hasOwnProperty.call(obj, key)) {</t>
-  </si>
-  <si>
-    <t>12 mutants, 2 of which are causing the same failures as the bug</t>
-  </si>
-  <si>
-    <t>12 mutants, 1 of which are causing the same failures as the bug</t>
   </si>
   <si>
     <t>6464b29</t>
@@ -1499,12 +1264,6 @@
       at process.processImmediate (node:internal/timers:483:21)</t>
   </si>
   <si>
-    <t>6 mutants, none of which are causing the same failures as the bug</t>
-  </si>
-  <si>
-    <t>5 mutants, none of which are causing the same failures as the bug</t>
-  </si>
-  <si>
     <t>4a899c0</t>
   </si>
   <si>
@@ -1521,15 +1280,6 @@
       -line1
       at Context.&lt;anonymous&gt; (test/patch/apply.js:433:13)
       at processImmediate (node:internal/timers:483:21)</t>
-  </si>
-  <si>
-    <t>3 mutants, 3 of which are causing the same failures as the bug</t>
-  </si>
-  <si>
-    <t>3 mutants, 1 of which are causing the same failures as the bug</t>
-  </si>
-  <si>
-    <t>3 mutants, 2 of which are causing the same failures as the bug</t>
   </si>
   <si>
     <t>src/diff/base.js</t>
@@ -1577,15 +1327,6 @@
     <t>75, 79</t>
   </si>
   <si>
-    <t>6 mutants, 1 of which is causing the same failures as the bug</t>
-  </si>
-  <si>
-    <t>6 mutants, 3 of which are causing the same failures as the bug</t>
-  </si>
-  <si>
-    <t>6 mutants, 2 of which are causing the same failures as the bug</t>
-  </si>
-  <si>
     <t>original bug</t>
   </si>
   <si>
@@ -1610,9 +1351,6 @@
   </si>
   <si>
     <t>invalid</t>
-  </si>
-  <si>
-    <t>15 mutants, 2 of which causes the same test failure as the original bug</t>
   </si>
   <si>
     <t>14
@@ -1722,29 +1460,6 @@
  ✖ expect truthy value"</t>
   </si>
   <si>
-    <t>3 mutants, 2 of which cause the same test failure as the original bug
-====
-3 mutants, 1 of which cause the same test failure as the original bug</t>
-  </si>
-  <si>
-    <t>3 mutants, 2 of which cause the same test failure as the original bug
-====
-3 mutants, none of which are the same as the failure caused by the original test</t>
-  </si>
-  <si>
-    <t>3 mutants, 1 of which cause the same test failure as the original bug
-====
-3 mutants, none of which are the same as the failure caused by the original test</t>
-  </si>
-  <si>
-    <t>3 mutants, 1 of which cause the same test failure as the original bug
-====
-3 mutants, 1 of which cause the same test failure as the original bug</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>no failure
 ===
 1 failing
@@ -1942,12 +1657,6 @@
     <t>issue/bug#</t>
   </si>
   <si>
-    <t>3 mutants, 1 of which is causing the same failures as the bug</t>
-  </si>
-  <si>
-    <t>3 mutants, none of which behave like the original bug</t>
-  </si>
-  <si>
     <t>https://bugsjs.github.io/</t>
   </si>
   <si>
@@ -1987,9 +1696,6 @@
     <t>hexo</t>
   </si>
   <si>
-    <t>7 mutants, one of which is causing the same failures as the original bug</t>
-  </si>
-  <si>
     <t>var slug = data.slug = slugize(data.slug, {transform: config.filename_case})</t>
   </si>
   <si>
@@ -2006,9 +1712,6 @@
   </si>
   <si>
     <t>file &amp;&amp; file .sourceMap &amp;&amp; line</t>
-  </si>
-  <si>
-    <t>3 mutants, of which 1 is causing the same failures as the original bug</t>
   </si>
   <si>
     <t>ede0f4f</t>
@@ -2206,9 +1909,6 @@
 Tests:       3 failed, 16 skipped, 869 passed, 888 total"</t>
   </si>
   <si>
-    <t>3 mutants, of which 1 is identical to the original bug</t>
-  </si>
-  <si>
     <t>htmlparser2</t>
   </si>
   <si>
@@ -2280,12 +1980,6 @@
 o	      at src/__tests__/events.ts:4:12</t>
   </si>
   <si>
-    <t>6 mutants, none of which is causing the same failures as the original bug</t>
-  </si>
-  <si>
-    <t>6 mutants, 1 of which is causing the same failures as the original bug</t>
-  </si>
-  <si>
     <t>04c411c</t>
   </si>
   <si>
@@ -2314,15 +2008,6 @@
   </si>
   <si>
     <t>src/Parser.ts</t>
-  </si>
-  <si>
-    <t>4 mutants, 1 of which is identical to the original bug</t>
-  </si>
-  <si>
-    <t>4 mutants, none of which cause the same failures as the original bug</t>
-  </si>
-  <si>
-    <t>3 mutants, none of which cause the same failures as the original bug</t>
   </si>
   <si>
     <t xml:space="preserve">fast-xml-parser </t>
@@ -2387,12 +2072,6 @@
         at &lt;Jasmine&gt;</t>
   </si>
   <si>
-    <t>3 mutants, none of which causes the same test failure as the original bug</t>
-  </si>
-  <si>
-    <t>4 mutants, none of which causes the same test failure as the original bug</t>
-  </si>
-  <si>
     <t>ea5d544</t>
   </si>
   <si>
@@ -2423,22 +2102,1303 @@
         at &lt;Jasmine&gt;</t>
   </si>
   <si>
-    <t>8 mutants, of which one causes the same tes tfailure as the original bug</t>
-  </si>
-  <si>
-    <t>8 mutants, none of which  cause the same tes tfailure as the original bug</t>
-  </si>
-  <si>
-    <t>6 mutants, none of which  cause the same tes tfailure as the original bug</t>
-  </si>
-  <si>
-    <t>12 mutants,  of which 5  cause the same tes tfailure as the original bug</t>
-  </si>
-  <si>
-    <t>10 mutants,  of which 1  causes the same tes tfailure as the original bug</t>
-  </si>
-  <si>
     <t>fs-extra</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 1
+Different: 0
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 2
+Different: 0
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 5
+Different: 1
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 3
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 2
+Different: 2
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 3
+Different: 2
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 4
+Superset: 0
+Different: 0
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 3
+Superset: 0
+Different: 0
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 4
+Superset: 0
+Different: 1
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 3
+Superset: 0
+Different: 0
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 5
+Surviving: 5
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1*
+SameFail: 0
+Superset: 0
+Different: 5
+Surviving: 3
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 7
+Surviving: 6
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 6
+Surviving: 4
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 6
+Surviving: 6
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 5
+Surviving: 5
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 3
+Surviving: 5
+Invalid: 0
+Other: 1</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 4
+Surviving: 3
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 4
+Surviving: 4
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 8
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 3
+Superset: 0
+Different: 4
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 3
+Superset: 0
+Different: 6
+Surviving: 0
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 0
+Different: 6
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 4
+Superset: 0
+Different: 6
+Surviving: 0
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 3
+Superset: 0
+Different: 5
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 2
+Different: 0
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 1
+Different: 1
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 1
+Superset: 2
+Different: 1
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 2
+Different: 0
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 2
+Superset: 2
+Different: 0
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 0
+Different: 7
+Surviving: 4
+Invalid: 3
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 0
+Different: 6
+Surviving: 4
+Invalid: 4
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 0
+Different: 7
+Surviving: 4
+Invalid: 4
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 3
+Superset: 1
+Different: 1
+Surviving: 0
+Invalid: 3
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 3
+Superset: 1
+Different: 0
+Surviving: 0
+Invalid: 4
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 3
+Superset: 1
+Different: 2
+Surviving: 0
+Invalid: 2
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 1
+Different: 1
+Surviving: 0
+Invalid: 4
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 1
+Different: 1
+Surviving: 0
+Invalid: 6
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 7
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 8
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 6
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 5
+Different: 7
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 8
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 0
+Different: 3
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 0
+Different: 2
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 3
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 1
+Surviving: 2
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 5
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 4
+Different: 5
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 3
+Different: 4
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 3
+Different: 4
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 4
+Different: 4
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 5
+Different: 8
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 6
+Different: 9
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 5
+Different: 9
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 6
+Different: 7
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 8
+Different: 6
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 3
+Different: 2
+Surviving: 4
+Invalid: 0
+Other: 3</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 4
+Surviving: 3
+Invalid: 0
+Other: 4</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 3
+Surviving: 3
+Invalid: 0
+Other: 3</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 3
+Surviving: 4
+Invalid: 1
+Other: 4</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 3
+Different: 4
+Surviving: 2
+Invalid: 0
+Other: 4</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 0
+Different: 1
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 0
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 0
+Different: 11
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 0
+Different: 9
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 9
+Surviving: 3
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 0
+Different: 9
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 3
+Surviving: 1
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 4
+Surviving: 0
+Invalid: 2
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 3
+Surviving: 0
+Invalid: 2
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 0
+Different: 1
+Surviving: 0
+Invalid: 2
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 3
+Surviving: 0
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 5
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 3
+Different: 3
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 4
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 3
+Different: 0
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 2
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 1
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 5
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 8
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 7
+Surviving: 3
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 8
+Surviving: 2
+Invalid: 0
+Other: 1</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 7
+Surviving: 2
+Invalid: 0
+Other: 1</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 8
+Surviving: 3
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 0
+Different: 1
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 1
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 0
+Different: 0
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 2
+Surviving: 0
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 2
+Surviving: 0
+Invalid: 0
+Other: 1</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 1
+Surviving: 0
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 3
+Different: 1
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 1
+Surviving: 0
+Invalid: 0
+Other: 1</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 4
+Different: 3
+Surviving: 1
+Invalid: 2
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 4
+Different: 2
+Surviving: 1
+Invalid: 5
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 3
+Different: 2
+Surviving: 1
+Invalid: 5
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 2
+Surviving: 1
+Invalid: 5
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 3
+Surviving: 1
+Invalid: 5
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 1
+Different: 5
+Surviving: 6
+Invalid: 2
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 7
+Surviving: 6
+Invalid: 3
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 8
+Surviving: 5
+Invalid: 2
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 0
+Different: 7
+Surviving: 6
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 0
+Different: 8
+Surviving: 5
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 3
+Different: 4
+Surviving: 0
+Invalid: 2
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 6
+Surviving: 0
+Invalid: 4
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 6
+Surviving: 0
+Invalid: 2
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 2
+Different: 5
+Surviving: 0
+Invalid: 2
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 7
+Surviving: 0
+Invalid: 3
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 0
+Different: 1
+Surviving: 0
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 1
+Surviving: 0
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 1
+Surviving: 0
+Invalid: 2
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 0
+Different: 5
+Surviving: 2
+Invalid: 3
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 0
+Different: 6
+Surviving: 2
+Invalid: 3
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 5
+Surviving: 1
+Invalid: 4
+Other: 1</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 0
+Different: 2
+Surviving: 2
+Invalid: 5
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 0
+Different: 5
+Surviving: 3
+Invalid: 1
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 1
+Different: 1
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 0
+Different: 5
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 5
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 0
+Different: 2
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 0
+Different: 5
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 1
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 5
+Surviving: 3
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 7
+Surviving: 4
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 5
+Surviving: 4
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 1
+Different: 8
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 2
+Different: 1
+Surviving: 0
+Invalid: 2
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 1
+Surviving: 1
+Invalid: 2
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 0
+Different: 1
+Surviving: 1
+Invalid: 3
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 2
+Superset: 0
+Different: 1
+Surviving: 0
+Invalid: 3
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 0
+Surviving: 1
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 0
+Different: 7
+Surviving: 3
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 0
+Different: 7
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 0
+Different: 6
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 1
+SameFail: 0
+Superset: 0
+Different: 5
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 2
+Surviving: 0
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 2
+Surviving: 3
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 0
+Different: 2
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 2
+Surviving: 2
+Invalid: 0
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 0
+Superset: 2
+Different: 1
+Surviving: 0
+Invalid: 7
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 3
+Different: 0
+Surviving: 1
+Invalid: 6
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 2
+Different: 0
+Surviving: 0
+Invalid: 7
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 2
+Different: 0
+Surviving: 0
+Invalid: 8
+Other: 0</t>
+  </si>
+  <si>
+    <t>OrigBug: 0
+SameFail: 1
+Superset: 3
+Different: 1
+Surviving: 0
+Invalid: 7
+Other: 0</t>
   </si>
 </sst>
 </file>
@@ -2545,7 +3505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2613,9 +3573,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2647,2508 +3604,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.4849392203651377E-2"/>
-          <c:y val="1.5176472915759907E-2"/>
-          <c:w val="0.92957630024113458"/>
-          <c:h val="0.54012697625395256"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>original bug</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$8:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>countries-and-timezones-60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>express.js-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fast-xml-parser -234</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fast-xml-parser -426</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>hessian.js-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>hexo-12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>htmlparser2-746</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>htmlparser2-913</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>jsdiff-94</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>karma-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>node-jsonfile-24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>node-jsonfile-25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>simple-statistics-633</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>yargs-1376</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>yargs-1422</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$K$8:$K$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1269-1246-9ED1-491BE2CFE5B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>same failure(s)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$8:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>countries-and-timezones-60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>express.js-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fast-xml-parser -234</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fast-xml-parser -426</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>hessian.js-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>hexo-12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>htmlparser2-746</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>htmlparser2-913</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>jsdiff-94</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>karma-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>node-jsonfile-24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>node-jsonfile-25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>simple-statistics-633</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>yargs-1376</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>yargs-1422</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$8:$L$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1269-1246-9ED1-491BE2CFE5B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>superset of failures(s)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$8:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>countries-and-timezones-60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>express.js-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fast-xml-parser -234</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fast-xml-parser -426</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>hessian.js-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>hexo-12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>htmlparser2-746</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>htmlparser2-913</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>jsdiff-94</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>karma-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>node-jsonfile-24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>node-jsonfile-25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>simple-statistics-633</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>yargs-1376</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>yargs-1422</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$8:$M$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1269-1246-9ED1-491BE2CFE5B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>different failure</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$8:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>countries-and-timezones-60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>express.js-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fast-xml-parser -234</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fast-xml-parser -426</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>hessian.js-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>hexo-12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>htmlparser2-746</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>htmlparser2-913</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>jsdiff-94</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>karma-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>node-jsonfile-24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>node-jsonfile-25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>simple-statistics-633</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>yargs-1376</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>yargs-1422</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$8:$N$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9124-8746-ACA4-E88F79E53EC9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>surviving</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$8:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>countries-and-timezones-60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>express.js-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fast-xml-parser -234</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fast-xml-parser -426</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>hessian.js-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>hexo-12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>htmlparser2-746</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>htmlparser2-913</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>jsdiff-94</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>karma-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>node-jsonfile-24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>node-jsonfile-25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>simple-statistics-633</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>yargs-1376</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>yargs-1422</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$8:$O$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1269-1246-9ED1-491BE2CFE5B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>invalid</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$8:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>countries-and-timezones-60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>express.js-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fast-xml-parser -234</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fast-xml-parser -426</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>hessian.js-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>hexo-12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>htmlparser2-746</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>htmlparser2-913</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>jsdiff-94</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>karma-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>node-jsonfile-24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>node-jsonfile-25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>simple-statistics-633</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>yargs-1376</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>yargs-1422</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$P$8:$P$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1269-1246-9ED1-491BE2CFE5B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>other</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-2C4F-4643-B290-F82CEC772BBA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$8:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>countries-and-timezones-60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>express.js-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fast-glob-223</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>fast-glob-391</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fast-xml-parser -234</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fast-xml-parser -426</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fs-extra-190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>fs-extra-291</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>fs-extra-679</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>hessian.js-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>hexo-12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>htmlparser2-746</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>htmlparser2-913</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>jsdiff-94</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>jsdiff-118</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>jsdiff-217</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>jsdiff-493</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>karma-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>memfs-59</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>memfs-391</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>memfs-853</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>memfs-870</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>memfs-1024</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>memfs-1093</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>node-jsonfile-24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>node-jsonfile-25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>normalize-url-38</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>normalize-url-82</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>simple-statistics-334</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>simple-statistics-633</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>yargs-1364</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>yargs-1376</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>yargs-1422</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$8:$Q$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1269-1246-9ED1-491BE2CFE5B8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="15"/>
-        <c:overlap val="100"/>
-        <c:axId val="1175595167"/>
-        <c:axId val="1175884703"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1175595167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1175884703"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1175884703"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1175595167"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFED2E5C-8E03-DCEA-730D-2CBA17B8B26C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5471,10 +3926,10 @@
   <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5506,13 +3961,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5521,7 +3976,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -5532,15 +3987,15 @@
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="K1" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
       <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5557,7 +4012,7 @@
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -5575,25 +4030,25 @@
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>254</v>
+        <v>164</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -5605,37 +4060,37 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="221">
+    <row r="3" spans="1:26" ht="130" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="B3" s="4" t="str">
         <f t="shared" ref="B3:B11" si="0">_xlfn.CONCAT(A3,"-",D3)</f>
         <v>css-loader-663</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="D3" s="9">
         <v>663</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="G3" s="9">
         <v>2</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="K3" s="10">
         <v>0</v>
@@ -5658,56 +4113,56 @@
       <c r="Q3" s="10">
         <v>0</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>209</v>
+      <c r="R3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="77" customHeight="1">
+    <row r="4" spans="1:26" ht="123" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="B4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>css-loader-789</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="D4" s="9">
         <v>789</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="K4" s="10">
         <v>0</v>
@@ -5730,56 +4185,56 @@
       <c r="Q4" s="10">
         <v>0</v>
       </c>
-      <c r="R4" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="S4" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="T4" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="U4" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="V4" s="23" t="s">
-        <v>196</v>
+      <c r="R4" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>262</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="95" customHeight="1">
+    <row r="5" spans="1:26" ht="131" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>css-loader-1036</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="D5" s="4">
         <v>1036</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="G5" s="4">
         <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="K5" s="10">
         <v>0</v>
@@ -5802,56 +4257,56 @@
       <c r="Q5" s="10">
         <v>0</v>
       </c>
-      <c r="R5" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>199</v>
+      <c r="R5" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="89" customHeight="1">
+    <row r="6" spans="1:26" ht="138" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>css-loader-1261</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="D6" s="12">
         <v>1261</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="K6" s="10">
         <v>0</v>
@@ -5874,56 +4329,56 @@
       <c r="Q6" s="10">
         <v>0</v>
       </c>
-      <c r="R6" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="S6" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="T6" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="U6" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="V6" s="23" t="s">
-        <v>190</v>
+      <c r="R6" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>271</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="161" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>compression-170</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="D7" s="9">
         <v>170</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
@@ -5946,20 +4401,20 @@
       <c r="Q7" s="9">
         <v>0</v>
       </c>
-      <c r="R7" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="S7" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="T7" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="U7" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="V7" s="23" t="s">
-        <v>214</v>
+      <c r="R7" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="V7" s="17" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="143" customHeight="1">
@@ -5992,7 +4447,7 @@
         <v>9</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K8" s="10">
         <v>1</v>
@@ -6015,53 +4470,53 @@
       <c r="Q8" s="10">
         <v>0</v>
       </c>
-      <c r="R8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>18</v>
+      <c r="R8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="134" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>express.js-2</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>294</v>
+      <c r="C9" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="D9" s="9">
         <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="G9" s="9">
         <v>361</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="K9" s="10">
         <v>1</v>
@@ -6070,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9" s="10">
         <v>0</v>
@@ -6084,53 +4539,53 @@
       <c r="Q9" s="10">
         <v>0</v>
       </c>
-      <c r="R9" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="S9" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="T9" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="U9" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="V9" s="23" t="s">
-        <v>292</v>
+      <c r="R9" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="134" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fast-glob-223</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D10" s="4">
         <v>223</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="G10" s="4">
         <v>17</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="K10" s="10">
         <v>0</v>
@@ -6153,54 +4608,54 @@
       <c r="Q10" s="10">
         <v>0</v>
       </c>
-      <c r="R10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>85</v>
+      <c r="R10" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="134" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fast-glob-391</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4">
         <v>391</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="G11" s="4">
         <v>12</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="K11" s="10">
         <v>0</v>
@@ -6223,53 +4678,53 @@
       <c r="Q11" s="10">
         <v>0</v>
       </c>
-      <c r="R11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="V11" s="8" t="s">
-        <v>137</v>
+      <c r="R11" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="63" customHeight="1">
+    <row r="12" spans="1:26" ht="130" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>346</v>
+        <v>244</v>
       </c>
       <c r="B12" s="10" t="str">
         <f t="shared" ref="B12" si="1">_xlfn.CONCAT(A12,"-",D12)</f>
         <v>fast-xml-parser -234</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>347</v>
+        <v>245</v>
       </c>
       <c r="D12" s="10">
         <v>234</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>355</v>
+        <v>251</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>356</v>
+        <v>252</v>
       </c>
       <c r="G12" s="4">
         <v>192</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>357</v>
+        <v>253</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>358</v>
+        <v>254</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="K12" s="10">
         <v>0</v>
@@ -6292,53 +4747,53 @@
       <c r="Q12" s="10">
         <v>0</v>
       </c>
-      <c r="R12" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="S12" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="T12" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="U12" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="V12" s="23" t="s">
-        <v>364</v>
+      <c r="R12" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="144" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>346</v>
+        <v>244</v>
       </c>
       <c r="B13" s="10" t="str">
         <f t="shared" ref="B13:B26" si="2">_xlfn.CONCAT(A13,"-",D13)</f>
-        <v>fast-xml-parser -426</v>
+        <v>fast-xml-parser -595</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>347</v>
+        <v>245</v>
       </c>
       <c r="D13" s="10">
-        <v>426</v>
+        <v>595</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>348</v>
+        <v>246</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>349</v>
+        <v>247</v>
       </c>
       <c r="G13" s="10">
         <v>195</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>350</v>
+        <v>248</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>351</v>
+        <v>249</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>352</v>
+        <v>250</v>
       </c>
       <c r="K13" s="10">
         <v>0</v>
@@ -6361,53 +4816,53 @@
       <c r="Q13" s="10">
         <v>0</v>
       </c>
-      <c r="R13" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="S13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="T13" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="U13" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="V13" s="23" t="s">
-        <v>354</v>
+      <c r="R13" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="U13" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="V13" s="17" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="83" customHeight="1">
+    <row r="14" spans="1:26" ht="116" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>365</v>
+        <v>256</v>
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>fs-extra-190</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4">
         <v>190</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="K14" s="10">
         <v>0</v>
@@ -6430,53 +4885,53 @@
       <c r="Q14" s="10">
         <v>0</v>
       </c>
-      <c r="R14" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>95</v>
+      <c r="R14" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="83" customHeight="1">
+    <row r="15" spans="1:26" ht="129" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>365</v>
+        <v>256</v>
       </c>
       <c r="B15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>fs-extra-291</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4">
         <v>291</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="G15" s="4">
         <v>82</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="K15" s="10">
         <v>0</v>
@@ -6499,56 +4954,56 @@
       <c r="Q15" s="10">
         <v>0</v>
       </c>
-      <c r="R15" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="T15" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="U15" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="V15" s="23" t="s">
-        <v>114</v>
+      <c r="R15" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="U15" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="V15" s="17" t="s">
+        <v>313</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="409.6">
+    <row r="16" spans="1:26" ht="136" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>365</v>
+        <v>256</v>
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>fs-extra-679</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D16" s="9">
         <v>679</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>276</v>
+        <v>71</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>184</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="K16" s="10">
         <v>0</v>
@@ -6571,56 +5026,56 @@
       <c r="Q16" s="10">
         <v>3</v>
       </c>
-      <c r="R16" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="T16" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="U16" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="V16" s="23" t="s">
-        <v>104</v>
+      <c r="R16" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>318</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="85">
+    <row r="17" spans="1:23" ht="119">
       <c r="A17" s="10" t="s">
-        <v>299</v>
+        <v>205</v>
       </c>
       <c r="B17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>hessian.js-4</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>294</v>
+      <c r="C17" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="D17" s="9">
         <v>4</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="G17" s="9">
         <v>302</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="K17" s="10">
         <v>0</v>
@@ -6643,45 +5098,53 @@
       <c r="Q17" s="10">
         <v>0</v>
       </c>
-      <c r="R17" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
+      <c r="R17" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="S17" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="T17" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="U17" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="V17" s="22" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" ht="102">
+    <row r="18" spans="1:23" ht="124" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="B18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>hexo-12</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>294</v>
+      <c r="C18" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="D18" s="9">
         <v>12</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="K18" s="10">
         <v>1</v>
@@ -6693,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O18" s="10">
         <v>0</v>
@@ -6704,45 +5167,53 @@
       <c r="Q18" s="10">
         <v>0</v>
       </c>
-      <c r="R18" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
+      <c r="R18" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>324</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" ht="409.6">
+    <row r="19" spans="1:23" ht="140" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>328</v>
+        <v>231</v>
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>htmlparser2-746</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>329</v>
+      <c r="C19" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="D19" s="9">
         <v>746</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>330</v>
+        <v>233</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>331</v>
+        <v>234</v>
       </c>
       <c r="G19" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>334</v>
+        <v>237</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="K19" s="10">
         <v>0</v>
@@ -6765,53 +5236,53 @@
       <c r="Q19" s="10">
         <v>0</v>
       </c>
-      <c r="R19" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="S19" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="T19" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="U19" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="V19" s="23" t="s">
-        <v>337</v>
+      <c r="R19" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="U19" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="149" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>328</v>
+        <v>231</v>
       </c>
       <c r="B20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>htmlparser2-913</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>329</v>
+      <c r="C20" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="D20" s="9">
         <v>913</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="G20" s="4">
         <v>289</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
       <c r="K20" s="10">
         <v>1</v>
@@ -6834,53 +5305,53 @@
       <c r="Q20" s="10">
         <v>0</v>
       </c>
-      <c r="R20" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="S20" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="T20" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="U20" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="V20" s="23" t="s">
-        <v>344</v>
+      <c r="R20" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="U20" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="V20" s="17" t="s">
+        <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="268" customHeight="1">
+    <row r="21" spans="1:23" ht="150" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="B21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>jsdiff-94</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="D21" s="9">
         <v>94</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>242</v>
+      <c r="E21" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>244</v>
+        <v>161</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>243</v>
+        <v>160</v>
       </c>
       <c r="K21" s="10">
         <v>0</v>
@@ -6903,53 +5374,53 @@
       <c r="Q21" s="10">
         <v>0</v>
       </c>
-      <c r="R21" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="S21" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="T21" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="U21" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="V21" s="23" t="s">
-        <v>249</v>
+      <c r="R21" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="U21" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="V21" s="17" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="123" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" si="2"/>
         <v>jsdiff-118</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="D22" s="9">
         <v>118</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="G22" s="9">
         <v>84</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="K22" s="10">
         <v>0</v>
@@ -6972,53 +5443,53 @@
       <c r="Q22" s="10">
         <v>0</v>
       </c>
-      <c r="R22" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="S22" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="T22" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="U22" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="V22" s="23" t="s">
-        <v>240</v>
+      <c r="R22" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="U22" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="404">
+    <row r="23" spans="1:23" ht="143" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="B23" s="4" t="str">
         <f t="shared" si="2"/>
         <v>jsdiff-217</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="D23" s="9">
         <v>217</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="G23" s="9">
         <v>36</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="K23" s="10">
         <v>0</v>
@@ -7041,53 +5512,53 @@
       <c r="Q23" s="10">
         <v>0</v>
       </c>
-      <c r="R23" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="S23" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="T23" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="U23" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="V23" s="23" t="s">
-        <v>232</v>
+      <c r="R23" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="U23" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="V23" s="17" t="s">
+        <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="221">
+    <row r="24" spans="1:23" ht="133" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="B24" s="4" t="str">
         <f t="shared" si="2"/>
         <v>jsdiff-493</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="D24" s="10">
         <v>493</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="G24" s="10">
         <v>65</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="K24" s="10">
         <v>0</v>
@@ -7110,56 +5581,56 @@
       <c r="Q24" s="10">
         <v>0</v>
       </c>
-      <c r="R24" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="S24" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="T24" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="U24" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="V24" s="23" t="s">
-        <v>225</v>
+      <c r="R24" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="V24" s="17" t="s">
+        <v>341</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="102">
+    <row r="25" spans="1:23" ht="119">
       <c r="A25" s="10" t="s">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" si="2"/>
         <v>karma-4</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>294</v>
+      <c r="C25" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="D25" s="9">
         <v>4</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>311</v>
+        <v>216</v>
       </c>
       <c r="G25" s="9">
         <v>46</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>312</v>
+        <v>217</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>313</v>
+        <v>218</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="K25" s="10">
         <v>1</v>
@@ -7182,41 +5653,53 @@
       <c r="Q25" s="10">
         <v>0</v>
       </c>
-      <c r="R25" s="23" t="s">
-        <v>314</v>
+      <c r="R25" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="U25" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="51" customHeight="1">
+    <row r="26" spans="1:23" ht="125" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" si="2"/>
         <v>memfs-59</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D26" s="4">
         <v>59</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G26" s="4">
         <v>847</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="K26" s="10">
         <v>0</v>
@@ -7228,67 +5711,67 @@
         <v>1</v>
       </c>
       <c r="N26" s="10">
+        <v>2</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
         <v>1</v>
       </c>
-      <c r="O26" s="10">
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <v>0</v>
-      </c>
       <c r="Q26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>60</v>
+        <v>345</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>61</v>
+        <v>347</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>62</v>
+        <v>348</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>61</v>
+        <v>349</v>
       </c>
       <c r="W26" s="18" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="98" customHeight="1">
+    <row r="27" spans="1:23" ht="120" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4" t="str">
         <f t="shared" ref="B27:B40" si="3">_xlfn.CONCAT(A27,"-",D27)</f>
         <v>memfs-391</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D27" s="4">
         <v>391</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G27" s="4">
         <v>1884</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K27" s="10">
         <v>0</v>
@@ -7312,52 +5795,52 @@
         <v>0</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>47</v>
+        <v>350</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>48</v>
+        <v>351</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>49</v>
+        <v>352</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>50</v>
+        <v>353</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>50</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="152" customHeight="1">
+    <row r="28" spans="1:23" ht="123" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" si="3"/>
         <v>memfs-853</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D28" s="12">
         <v>853</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G28" s="12">
         <v>1008</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K28" s="10">
         <v>0</v>
@@ -7377,56 +5860,56 @@
       <c r="P28" s="10">
         <v>2</v>
       </c>
-      <c r="Q28" s="10" t="s">
-        <v>272</v>
+      <c r="Q28" s="10">
+        <v>0</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>258</v>
+        <v>355</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>55</v>
+        <v>356</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>55</v>
+        <v>357</v>
       </c>
       <c r="U28" s="8" t="s">
-        <v>54</v>
+        <v>358</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>54</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="178" customHeight="1">
+    <row r="29" spans="1:23" ht="120" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="str">
         <f>_xlfn.CONCAT(A29,"-",D29)</f>
         <v>memfs-870</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D29" s="4">
         <v>870</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G29" s="4">
         <v>2069</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K29" s="10">
         <v>1</v>
@@ -7449,53 +5932,53 @@
       <c r="Q29" s="10">
         <v>0</v>
       </c>
-      <c r="R29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>42</v>
+      <c r="R29" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="T29" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="U29" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="V29" s="17" t="s">
+        <v>364</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="179" customHeight="1">
+    <row r="30" spans="1:23" ht="128" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" ref="B30" si="4">_xlfn.CONCAT(A30,"-",D30)</f>
         <v>memfs-1024</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4">
         <v>1024</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="G30" s="4">
         <v>18</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>325</v>
+        <v>229</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="K30" s="10">
         <v>1</v>
@@ -7518,56 +6001,56 @@
       <c r="Q30" s="10">
         <v>0</v>
       </c>
-      <c r="R30" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="S30" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="T30" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="U30" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="V30" s="8" t="s">
-        <v>174</v>
+      <c r="R30" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>366</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="409.6">
+    <row r="31" spans="1:23" ht="121" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B31" s="4" t="str">
         <f t="shared" si="3"/>
         <v>memfs-1093</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D31" s="4">
         <v>1093</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G31" s="4">
         <v>830</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>316</v>
+        <v>220</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>317</v>
+        <v>221</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>318</v>
+        <v>222</v>
       </c>
       <c r="K31" s="10">
         <v>1</v>
@@ -7591,52 +6074,52 @@
         <v>0</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>164</v>
+        <v>368</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="U31" s="8" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="150" customHeight="1">
+    <row r="32" spans="1:23" ht="127" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B32" s="4" t="str">
         <f>_xlfn.CONCAT(A32,"-",D32)</f>
         <v>node-jsonfile-24</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D32" s="12">
         <v>24</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="K32" s="10">
         <v>2</v>
@@ -7659,53 +6142,53 @@
       <c r="Q32" s="10">
         <v>0</v>
       </c>
-      <c r="R32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="V32" s="10" t="s">
-        <v>29</v>
+      <c r="R32" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="S32" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="U32" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="V32" s="17" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="134" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B33" s="4" t="str">
         <f>_xlfn.CONCAT(A33,"-",D33)</f>
         <v>node-jsonfile-25</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D33" s="4">
         <v>25</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G33" s="4">
         <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K33" s="10">
         <v>0</v>
@@ -7728,53 +6211,53 @@
       <c r="Q33" s="10">
         <v>0</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>34</v>
+      <c r="R33" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="109" customHeight="1">
+    <row r="34" spans="1:23" ht="128" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B34" s="4" t="str">
         <f>_xlfn.CONCAT(A34,"-",D34)</f>
         <v>normalize-url-38</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D34" s="4">
         <v>38</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G34" s="4">
         <v>103</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="K34" s="10">
         <v>0</v>
@@ -7795,53 +6278,53 @@
       <c r="Q34" s="10">
         <v>0</v>
       </c>
-      <c r="R34" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="S34" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="T34" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="U34" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="V34" s="8" t="s">
-        <v>131</v>
+      <c r="R34" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="133" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B35" s="4" t="str">
         <f>_xlfn.CONCAT(A35,"-",D35)</f>
         <v>normalize-url-82</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D35" s="4">
         <v>82</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G35" s="10">
         <v>140</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="K35" s="10">
         <v>0</v>
@@ -7865,52 +6348,52 @@
         <v>0</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="S35" s="8" t="s">
-        <v>121</v>
+        <v>378</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>122</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="213" customHeight="1">
+    <row r="36" spans="1:23" ht="129" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4" t="str">
         <f>_xlfn.CONCAT(A36,"-",D36)</f>
         <v>simple-statistics-334</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D36" s="4">
         <v>334</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G36" s="4">
         <v>72</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K36" s="10">
         <v>0</v>
@@ -7933,53 +6416,53 @@
       <c r="Q36" s="10">
         <v>0</v>
       </c>
-      <c r="R36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="U36" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="V36" s="8" t="s">
-        <v>76</v>
+      <c r="R36" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="188" customHeight="1">
+    <row r="37" spans="1:23" ht="142" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B37" s="4" t="str">
         <f t="shared" si="3"/>
         <v>simple-statistics-633</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D37" s="12">
         <v>633</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="K37" s="10">
         <v>0</v>
@@ -8002,56 +6485,56 @@
       <c r="Q37" s="10">
         <v>0</v>
       </c>
-      <c r="R37" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="S37" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="T37" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="U37" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="V37" s="8" t="s">
-        <v>271</v>
+      <c r="R37" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="131" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B38" s="4" t="str">
         <f>_xlfn.CONCAT(A38,"-",D38)</f>
         <v>yargs-1364</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D38" s="4">
         <v>1364</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="G38" s="4">
         <v>105</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="K38" s="10">
         <v>0</v>
@@ -8074,56 +6557,56 @@
       <c r="Q38" s="10">
         <v>0</v>
       </c>
-      <c r="R38" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="S38" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="T38" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="U38" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="V38" s="8" t="s">
-        <v>180</v>
+      <c r="R38" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="164" customHeight="1">
+    <row r="39" spans="1:23" ht="136" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B39" s="4" t="str">
         <f t="shared" si="3"/>
         <v>yargs-1376</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D39" s="4">
         <v>1376</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="G39" s="4">
         <v>22</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="K39" s="10">
         <v>1</v>
@@ -8146,56 +6629,56 @@
       <c r="Q39" s="10">
         <v>0</v>
       </c>
-      <c r="R39" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="S39" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="T39" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="U39" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="V39" s="8" t="s">
-        <v>166</v>
+      <c r="R39" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="165" customHeight="1">
+    <row r="40" spans="1:23" ht="138" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B40" s="4" t="str">
         <f t="shared" si="3"/>
         <v>yargs-1422</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D40" s="4">
         <v>1422</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="G40" s="10">
         <v>43</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="K40" s="10">
         <v>0</v>
@@ -8218,56 +6701,56 @@
       <c r="Q40" s="10">
         <v>0</v>
       </c>
-      <c r="R40" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="S40" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="T40" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="U40" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="V40" s="8" t="s">
-        <v>174</v>
+      <c r="R40" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="160" customHeight="1">
+    <row r="41" spans="1:23" ht="132" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B41" s="4" t="str">
         <f>_xlfn.CONCAT(A41,"-",D41)</f>
         <v>yargs-1493</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D41" s="4">
         <v>1493</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="G41" s="4">
         <v>275</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="K41" s="10">
         <v>0</v>
@@ -8290,54 +6773,54 @@
       <c r="Q41" s="10">
         <v>0</v>
       </c>
-      <c r="R41" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="T41" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="U41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="V41" s="8" t="s">
-        <v>157</v>
+      <c r="R41" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="W41" s="9"/>
     </row>
-    <row r="42" spans="1:23" ht="222" customHeight="1">
+    <row r="42" spans="1:23" ht="143" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B42" s="4" t="str">
         <f>_xlfn.CONCAT(A42,"-",D42)</f>
         <v>yargs-2171</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D42" s="5">
         <v>2171</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="G42" s="4">
         <v>1049</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="K42" s="10">
         <v>0</v>
@@ -8360,20 +6843,20 @@
       <c r="Q42" s="10">
         <v>0</v>
       </c>
-      <c r="R42" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="S42" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="T42" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="U42" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="V42" s="8" t="s">
-        <v>148</v>
+      <c r="R42" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -8414,6 +6897,5 @@
     <hyperlink ref="C5" r:id="rId31" xr:uid="{0A39F3D9-23B4-C046-AB35-0012C879ABE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId32"/>
 </worksheet>
 </file>